--- a/data_analysis/Results.xlsx
+++ b/data_analysis/Results.xlsx
@@ -14,12 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Moving avg</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
   <si>
     <t>Autocor</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -383,2026 +401,4431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>45218</v>
       </c>
       <c r="B2">
-        <v>0.006922522645465254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>329.6753959888417</v>
+      </c>
+      <c r="C2">
+        <v>329.6753959888417</v>
+      </c>
+      <c r="D2">
+        <v>-0.2133821806392575</v>
+      </c>
+      <c r="E2">
+        <v>1.000000000000022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>45219</v>
       </c>
       <c r="B3">
-        <v>0.006956484956690816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>329.2486316275631</v>
+      </c>
+      <c r="C3">
+        <v>329.4620138082024</v>
+      </c>
+      <c r="D3">
+        <v>-0.712976713773268</v>
+      </c>
+      <c r="E3">
+        <v>0.9976145537179705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>45222</v>
       </c>
       <c r="B4">
-        <v>0.007127618743610062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>323.0452233842431</v>
+      </c>
+      <c r="C4">
+        <v>327.3230836668826</v>
+      </c>
+      <c r="D4">
+        <v>0.3771760735863836</v>
+      </c>
+      <c r="E4">
+        <v>0.9921788771796584</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>45223</v>
       </c>
       <c r="B5">
-        <v>0.007268547592925295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>328.8317879612282</v>
+      </c>
+      <c r="C5">
+        <v>327.700259740469</v>
+      </c>
+      <c r="D5">
+        <v>2.949859325502132</v>
+      </c>
+      <c r="E5">
+        <v>0.9847599813372911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45224</v>
       </c>
       <c r="B6">
-        <v>0.007028021316614822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>342.4495563679796</v>
+      </c>
+      <c r="C6">
+        <v>330.6501190659711</v>
+      </c>
+      <c r="D6">
+        <v>1.225467355787032</v>
+      </c>
+      <c r="E6">
+        <v>0.9752943900938704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>45225</v>
       </c>
       <c r="B7">
-        <v>0.006711906954356513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>338.0029232006933</v>
+      </c>
+      <c r="C7">
+        <v>331.8755864217582</v>
+      </c>
+      <c r="D7">
+        <v>-0.5581907977674518</v>
+      </c>
+      <c r="E7">
+        <v>0.9634533473747443</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>45226</v>
       </c>
       <c r="B8">
-        <v>0.006656449407886038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>327.9682508373861</v>
+      </c>
+      <c r="C8">
+        <v>331.3173956239907</v>
+      </c>
+      <c r="D8">
+        <v>0.05955536255398405</v>
+      </c>
+      <c r="E8">
+        <v>0.9495133761590069</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>45229</v>
       </c>
       <c r="B9">
-        <v>0.006666928205673208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>330.9260586024756</v>
+      </c>
+      <c r="C9">
+        <v>331.4960617116527</v>
+      </c>
+      <c r="D9">
+        <v>1.010982750124242</v>
+      </c>
+      <c r="E9">
+        <v>0.9343688295882402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>45230</v>
       </c>
       <c r="B10">
-        <v>0.006544705828981458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>336.3255108784327</v>
+      </c>
+      <c r="C10">
+        <v>332.5070444617769</v>
+      </c>
+      <c r="D10">
+        <v>0.5939341878718665</v>
+      </c>
+      <c r="E10">
+        <v>0.9184740363849937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>45231</v>
       </c>
       <c r="B11">
-        <v>0.00640143753949267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>337.2585179647521</v>
+      </c>
+      <c r="C11">
+        <v>333.1009786496488</v>
+      </c>
+      <c r="D11">
+        <v>1.283558457957213</v>
+      </c>
+      <c r="E11">
+        <v>0.9022476957115551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>45232</v>
       </c>
       <c r="B12">
-        <v>0.006235463046254142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>344.6530047712634</v>
+      </c>
+      <c r="C12">
+        <v>334.384537107606</v>
+      </c>
+      <c r="D12">
+        <v>2.664445629727823</v>
+      </c>
+      <c r="E12">
+        <v>0.886131747496875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>45233</v>
       </c>
       <c r="B13">
-        <v>0.005892684947011818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>347.0252340517931</v>
+      </c>
+      <c r="C13">
+        <v>337.0489827373338</v>
+      </c>
+      <c r="D13">
+        <v>0.7443065325057129</v>
+      </c>
+      <c r="E13">
+        <v>0.8701376435850775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>45236</v>
       </c>
       <c r="B14">
-        <v>0.005483112970279555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>350.8167392378533</v>
+      </c>
+      <c r="C14">
+        <v>339.2819023348509</v>
+      </c>
+      <c r="D14">
+        <v>4.107741079244761</v>
+      </c>
+      <c r="E14">
+        <v>0.8542827509356138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>45237</v>
       </c>
       <c r="B15">
-        <v>0.004970814633424012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>356.7224383920999</v>
+      </c>
+      <c r="C15">
+        <v>343.3896434140957</v>
+      </c>
+      <c r="D15">
+        <v>1.94947524461935</v>
+      </c>
+      <c r="E15">
+        <v>0.8386081436924874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>45238</v>
       </c>
       <c r="B16">
-        <v>0.004511257685987389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>358.9854453710504</v>
+      </c>
+      <c r="C16">
+        <v>345.3391186587151</v>
+      </c>
+      <c r="D16">
+        <v>1.584627669218605</v>
+      </c>
+      <c r="E16">
+        <v>0.8231971608155977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>45239</v>
       </c>
       <c r="B17">
-        <v>0.004251814027353092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>359.6007676816819</v>
+      </c>
+      <c r="C17">
+        <v>346.9237463279337</v>
+      </c>
+      <c r="D17">
+        <v>3.096753833994342</v>
+      </c>
+      <c r="E17">
+        <v>0.8082575982953092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>45240</v>
       </c>
       <c r="B18">
-        <v>0.003917719824391606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>358.7968431084245</v>
+      </c>
+      <c r="C18">
+        <v>350.020500161928</v>
+      </c>
+      <c r="D18">
+        <v>2.251459643135414</v>
+      </c>
+      <c r="E18">
+        <v>0.7939820329960687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>45243</v>
       </c>
       <c r="B19">
-        <v>0.003252398119580651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>365.4766857964362</v>
+      </c>
+      <c r="C19">
+        <v>356.7748790913342</v>
+      </c>
+      <c r="D19">
+        <v>3.031531081484843</v>
+      </c>
+      <c r="E19">
+        <v>0.7800672407474971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>45244</v>
       </c>
       <c r="B20">
-        <v>0.002671418790048918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>368.2459516221875</v>
+      </c>
+      <c r="C20">
+        <v>359.8064101728191</v>
+      </c>
+      <c r="D20">
+        <v>1.181933564334884</v>
+      </c>
+      <c r="E20">
+        <v>0.7668832462671366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>45245</v>
       </c>
       <c r="B21">
-        <v>0.002436968180059317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>369.2618786874986</v>
+      </c>
+      <c r="C21">
+        <v>360.988343737154</v>
+      </c>
+      <c r="D21">
+        <v>0.8839210151009524</v>
+      </c>
+      <c r="E21">
+        <v>0.7542549397623838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>45246</v>
       </c>
       <c r="B22">
-        <v>0.002325158088295532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>368.943632873062</v>
+      </c>
+      <c r="C22">
+        <v>361.8722647522549</v>
+      </c>
+      <c r="D22">
+        <v>2.306936910878449</v>
+      </c>
+      <c r="E22">
+        <v>0.7421011782478116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>45247</v>
       </c>
       <c r="B23">
-        <v>0.002156339187754121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>371.57917143576</v>
+      </c>
+      <c r="C23">
+        <v>364.1792016631334</v>
+      </c>
+      <c r="D23">
+        <v>1.059617009050138</v>
+      </c>
+      <c r="E23">
+        <v>0.7302852823636294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>45250</v>
       </c>
       <c r="B24">
-        <v>0.001881371982859101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>369.2022053086174</v>
+      </c>
+      <c r="C24">
+        <v>367.3580526902838</v>
+      </c>
+      <c r="D24">
+        <v>2.118743697878131</v>
+      </c>
+      <c r="E24">
+        <v>0.7190812905162748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>45251</v>
       </c>
       <c r="B25">
-        <v>0.001636198178667769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>373.6280489935717</v>
+      </c>
+      <c r="C25">
+        <v>369.4767963881619</v>
+      </c>
+      <c r="D25">
+        <v>0.8085694125712735</v>
+      </c>
+      <c r="E25">
+        <v>0.708849786619822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>45252</v>
       </c>
       <c r="B26">
-        <v>0.001508215103654049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>375.9453516887322</v>
+      </c>
+      <c r="C26">
+        <v>370.2853658007332</v>
+      </c>
+      <c r="D26">
+        <v>0.6126418541423391</v>
+      </c>
+      <c r="E26">
+        <v>0.6996638384373142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>45254</v>
       </c>
       <c r="B27">
-        <v>0.001421605329115596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>375.2789554627134</v>
+      </c>
+      <c r="C27">
+        <v>371.5106495090179</v>
+      </c>
+      <c r="D27">
+        <v>0.6278776857857528</v>
+      </c>
+      <c r="E27">
+        <v>0.6909587493984517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>45257</v>
       </c>
       <c r="B28">
-        <v>0.001293916442151295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>374.731962508856</v>
+      </c>
+      <c r="C28">
+        <v>373.3942825663751</v>
+      </c>
+      <c r="D28">
+        <v>0.7857132200423962</v>
+      </c>
+      <c r="E28">
+        <v>0.6830759604440995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>45258</v>
       </c>
       <c r="B29">
-        <v>0.001190126821180268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>376.2934507560147</v>
+      </c>
+      <c r="C29">
+        <v>374.1799957864175</v>
+      </c>
+      <c r="D29">
+        <v>1.070580025934646</v>
+      </c>
+      <c r="E29">
+        <v>0.6761330515131435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>45259</v>
       </c>
       <c r="B30">
-        <v>0.001119972863055279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>381.6740559679596</v>
+      </c>
+      <c r="C30">
+        <v>375.2505758123522</v>
+      </c>
+      <c r="D30">
+        <v>0.1477582663172257</v>
+      </c>
+      <c r="E30">
+        <v>0.6698856390157442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>0.001075300375566735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>376.43264194289</v>
+      </c>
+      <c r="C31">
+        <v>375.3983340786694</v>
+      </c>
+      <c r="D31">
+        <v>0.6887374222038716</v>
+      </c>
+      <c r="E31">
+        <v>0.6642943774190184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>45261</v>
       </c>
       <c r="B32">
-        <v>0.001045031735865524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>374.7121046862492</v>
+      </c>
+      <c r="C32">
+        <v>376.0870715008733</v>
+      </c>
+      <c r="D32">
+        <v>-0.3044098024431605</v>
+      </c>
+      <c r="E32">
+        <v>0.6592770597358273</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>45264</v>
       </c>
       <c r="B33">
-        <v>0.001052653601621353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>367.0937233301231</v>
+      </c>
+      <c r="C33">
+        <v>375.1738420935438</v>
+      </c>
+      <c r="D33">
+        <v>-1.545831582928827</v>
+      </c>
+      <c r="E33">
+        <v>0.6548244483287002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>45265</v>
       </c>
       <c r="B34">
-        <v>0.00114251965501443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>364.4581343822117</v>
+      </c>
+      <c r="C34">
+        <v>373.628010510615</v>
+      </c>
+      <c r="D34">
+        <v>-0.2648045335857319</v>
+      </c>
+      <c r="E34">
+        <v>0.6504346438276259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>45266</v>
       </c>
       <c r="B35">
-        <v>0.00121251306875849</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>371.5095742419293</v>
+      </c>
+      <c r="C35">
+        <v>373.3632059770292</v>
+      </c>
+      <c r="D35">
+        <v>-0.7927485691359948</v>
+      </c>
+      <c r="E35">
+        <v>0.6462260434415962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>45267</v>
       </c>
       <c r="B36">
-        <v>0.001253467899624477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>366.2284688548053</v>
+      </c>
+      <c r="C36">
+        <v>372.5704574078932</v>
+      </c>
+      <c r="D36">
+        <v>-0.8376398464908448</v>
+      </c>
+      <c r="E36">
+        <v>0.6427150349851881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>45268</v>
       </c>
       <c r="B37">
-        <v>0.001318364350519874</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>367.1932038904382</v>
+      </c>
+      <c r="C37">
+        <v>371.7328175614024</v>
+      </c>
+      <c r="D37">
+        <v>-1.164637782472009</v>
+      </c>
+      <c r="E37">
+        <v>0.6401774099045274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>45271</v>
       </c>
       <c r="B38">
-        <v>0.001494711647193604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>366.4771201121479</v>
+      </c>
+      <c r="C38">
+        <v>368.2389042139864</v>
+      </c>
+      <c r="D38">
+        <v>-0.8396977328729918</v>
+      </c>
+      <c r="E38">
+        <v>0.6382242698738075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>45272</v>
       </c>
       <c r="B39">
-        <v>0.001690946518933191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>368.8342205561381</v>
+      </c>
+      <c r="C39">
+        <v>367.3992064811134</v>
+      </c>
+      <c r="D39">
+        <v>0.8221088904370504</v>
+      </c>
+      <c r="E39">
+        <v>0.6361013066573343</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>45273</v>
       </c>
       <c r="B40">
-        <v>0.001692113120927423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>373.9760776046103</v>
+      </c>
+      <c r="C40">
+        <v>368.2213153715504</v>
+      </c>
+      <c r="D40">
+        <v>0.3399470379381455</v>
+      </c>
+      <c r="E40">
+        <v>0.6343702420921842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>45274</v>
       </c>
       <c r="B41">
-        <v>0.001639516758326953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>371.280838712993</v>
+      </c>
+      <c r="C41">
+        <v>368.5612624094886</v>
+      </c>
+      <c r="D41">
+        <v>-0.2486404250730061</v>
+      </c>
+      <c r="E41">
+        <v>0.6332125010832808</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>45275</v>
       </c>
       <c r="B42">
-        <v>0.001635305026819445</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>364.8559595044662</v>
+      </c>
+      <c r="C42">
+        <v>368.3126219844156</v>
+      </c>
+      <c r="D42">
+        <v>0.08908897663212656</v>
+      </c>
+      <c r="E42">
+        <v>0.6324811080197462</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>45278</v>
       </c>
       <c r="B43">
-        <v>0.00163457583915829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>367.4418020193896</v>
+      </c>
+      <c r="C43">
+        <v>368.5798889143119</v>
+      </c>
+      <c r="D43">
+        <v>0.3253581933900591</v>
+      </c>
+      <c r="E43">
+        <v>0.6316666339799223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>45279</v>
       </c>
       <c r="B44">
-        <v>0.001608079464975464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>369.4707112441685</v>
+      </c>
+      <c r="C44">
+        <v>368.905247107702</v>
+      </c>
+      <c r="D44">
+        <v>0.5070523444819628</v>
+      </c>
+      <c r="E44">
+        <v>0.6306523802155707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>45280</v>
       </c>
       <c r="B45">
-        <v>0.001571217660641293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>372.961665863558</v>
+      </c>
+      <c r="C45">
+        <v>369.412299452184</v>
+      </c>
+      <c r="D45">
+        <v>0.1247332289001406</v>
+      </c>
+      <c r="E45">
+        <v>0.628958802510614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>45281</v>
       </c>
       <c r="B46">
-        <v>0.001543524231566332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>370.5348985122851</v>
+      </c>
+      <c r="C46">
+        <v>369.5370326810841</v>
+      </c>
+      <c r="D46">
+        <v>0.5746359165451054</v>
+      </c>
+      <c r="E46">
+        <v>0.6262319040578976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>45282</v>
       </c>
       <c r="B47">
-        <v>0.001513162037671092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>371.648843361054</v>
+      </c>
+      <c r="C47">
+        <v>370.1116685976292</v>
+      </c>
+      <c r="D47">
+        <v>0.1812317629072027</v>
+      </c>
+      <c r="E47">
+        <v>0.622613782671355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>45286</v>
       </c>
       <c r="B48">
-        <v>0.001457518014721886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>372.9616528950932</v>
+      </c>
+      <c r="C48">
+        <v>370.836595649258</v>
+      </c>
+      <c r="D48">
+        <v>0.117453952670985</v>
+      </c>
+      <c r="E48">
+        <v>0.6181430994657312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>45287</v>
       </c>
       <c r="B49">
-        <v>0.001422051997637549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>371.6587733179547</v>
+      </c>
+      <c r="C49">
+        <v>370.954049601929</v>
+      </c>
+      <c r="D49">
+        <v>0.2969462316342515</v>
+      </c>
+      <c r="E49">
+        <v>0.6129396926447922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>45288</v>
       </c>
       <c r="B50">
-        <v>0.00140476699211191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>373.3296194550034</v>
+      </c>
+      <c r="C50">
+        <v>371.2509958335633</v>
+      </c>
+      <c r="D50">
+        <v>0.814301137968755</v>
+      </c>
+      <c r="E50">
+        <v>0.6074867412689592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>45289</v>
       </c>
       <c r="B51">
-        <v>0.001358830611013424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>373.9562111231392</v>
+      </c>
+      <c r="C51">
+        <v>372.065296971532</v>
+      </c>
+      <c r="D51">
+        <v>0.1703802623174795</v>
+      </c>
+      <c r="E51">
+        <v>0.6013763800862352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>45293</v>
       </c>
       <c r="B52">
-        <v>0.001298321963574193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>371.8278333128194</v>
+      </c>
+      <c r="C52">
+        <v>372.7468180208019</v>
+      </c>
+      <c r="D52">
+        <v>-0.9571000799062972</v>
+      </c>
+      <c r="E52">
+        <v>0.5949029683676361</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>45294</v>
       </c>
       <c r="B53">
-        <v>0.001308883391538838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>367.0042175413639</v>
+      </c>
+      <c r="C53">
+        <v>371.7897179408956</v>
+      </c>
+      <c r="D53">
+        <v>-0.447791992680834</v>
+      </c>
+      <c r="E53">
+        <v>0.5883104196920839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>45295</v>
       </c>
       <c r="B54">
-        <v>0.001366273361192054</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>368.6551739921296</v>
+      </c>
+      <c r="C54">
+        <v>371.3419259482148</v>
+      </c>
+      <c r="D54">
+        <v>-0.547189829563365</v>
+      </c>
+      <c r="E54">
+        <v>0.5815986516342356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>45296</v>
       </c>
       <c r="B55">
-        <v>0.001407369726675633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>366.9644073117081</v>
+      </c>
+      <c r="C55">
+        <v>370.7947361186514</v>
+      </c>
+      <c r="D55">
+        <v>-0.5037744154309394</v>
+      </c>
+      <c r="E55">
+        <v>0.5754092250051397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>45299</v>
       </c>
       <c r="B56">
-        <v>0.001493621131235435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>367.292633952991</v>
+      </c>
+      <c r="C56">
+        <v>369.2834128723586</v>
+      </c>
+      <c r="D56">
+        <v>-0.6613863625316299</v>
+      </c>
+      <c r="E56">
+        <v>0.5699488588396512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>45300</v>
       </c>
       <c r="B57">
-        <v>0.00158910442366165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>369.9878929479498</v>
+      </c>
+      <c r="C57">
+        <v>368.622026509827</v>
+      </c>
+      <c r="D57">
+        <v>0.8145985292183013</v>
+      </c>
+      <c r="E57">
+        <v>0.5646019550981186</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>45301</v>
       </c>
       <c r="B58">
-        <v>0.001582573657525941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>374.3242162143558</v>
+      </c>
+      <c r="C58">
+        <v>369.4366250390453</v>
+      </c>
+      <c r="D58">
+        <v>1.808153745155266</v>
+      </c>
+      <c r="E58">
+        <v>0.5590138804851275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>45302</v>
       </c>
       <c r="B59">
-        <v>0.00146823854488975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>383.9018550002872</v>
+      </c>
+      <c r="C59">
+        <v>371.2447787842005</v>
+      </c>
+      <c r="D59">
+        <v>1.349981929836531</v>
+      </c>
+      <c r="E59">
+        <v>0.5537688381779577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>45303</v>
       </c>
       <c r="B60">
-        <v>0.001337252568859835</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>383.3946161527287</v>
+      </c>
+      <c r="C60">
+        <v>372.5947607140371</v>
+      </c>
+      <c r="D60">
+        <v>1.452203712942534</v>
+      </c>
+      <c r="E60">
+        <v>0.5493394373270755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>45307</v>
       </c>
       <c r="B61">
-        <v>0.001053425970788345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>391.520239126531</v>
+      </c>
+      <c r="C61">
+        <v>378.4035755658072</v>
+      </c>
+      <c r="D61">
+        <v>1.066794346077131</v>
+      </c>
+      <c r="E61">
+        <v>0.5444823096193955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>45308</v>
       </c>
       <c r="B62">
-        <v>0.0008281518203321001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>385.871135988347</v>
+      </c>
+      <c r="C62">
+        <v>379.4703699118843</v>
+      </c>
+      <c r="D62">
+        <v>1.265048462099571</v>
+      </c>
+      <c r="E62">
+        <v>0.5399933383405865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>45309</v>
       </c>
       <c r="B63">
-        <v>0.0007552036228557954</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>389.590757608681</v>
+      </c>
+      <c r="C63">
+        <v>380.7354183739839</v>
+      </c>
+      <c r="D63">
+        <v>3.289521351363476</v>
+      </c>
+      <c r="E63">
+        <v>0.5351912797567733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>45310</v>
       </c>
       <c r="B64">
-        <v>0.0006201745160072381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>393.6088047638987</v>
+      </c>
+      <c r="C64">
+        <v>384.0249397253474</v>
+      </c>
+      <c r="D64">
+        <v>2.093419554941875</v>
+      </c>
+      <c r="E64">
+        <v>0.5297633311601629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>45313</v>
       </c>
       <c r="B65">
-        <v>0.0003750090296191016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>397.8456367008518</v>
+      </c>
+      <c r="C65">
+        <v>390.305198390173</v>
+      </c>
+      <c r="D65">
+        <v>1.700705355318405</v>
+      </c>
+      <c r="E65">
+        <v>0.523731687699605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>45314</v>
       </c>
       <c r="B66">
-        <v>0.000230845113685331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>393.598848284639</v>
+      </c>
+      <c r="C66">
+        <v>392.0059037454914</v>
+      </c>
+      <c r="D66">
+        <v>1.050211100886202</v>
+      </c>
+      <c r="E66">
+        <v>0.5189152470229723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>45315</v>
       </c>
       <c r="B67">
-        <v>0.000187121083089792</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>399.3573814516948</v>
+      </c>
+      <c r="C67">
+        <v>393.0561148463776</v>
+      </c>
+      <c r="D67">
+        <v>1.133270985489673</v>
+      </c>
+      <c r="E67">
+        <v>0.51480313959171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>45316</v>
       </c>
       <c r="B68">
-        <v>0.0001553715767633739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>402.1222827302953</v>
+      </c>
+      <c r="C68">
+        <v>394.1893858318673</v>
+      </c>
+      <c r="D68">
+        <v>0.8869589406522778</v>
+      </c>
+      <c r="E68">
+        <v>0.5107944423503953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>45317</v>
       </c>
       <c r="B69">
-        <v>0.0001287501320452025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>402.1720162977375</v>
+      </c>
+      <c r="C69">
+        <v>395.0763447725196</v>
+      </c>
+      <c r="D69">
+        <v>1.286827022000314</v>
+      </c>
+      <c r="E69">
+        <v>0.5064497618167291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>45320</v>
       </c>
       <c r="B70">
-        <v>7.214109350404924E-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>403.8528106405262</v>
+      </c>
+      <c r="C70">
+        <v>398.9368258385205</v>
+      </c>
+      <c r="D70">
+        <v>2.34433423767814</v>
+      </c>
+      <c r="E70">
+        <v>0.5021513537039137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>45321</v>
       </c>
       <c r="B71">
-        <v>2.653943463969772E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>410.0191444276463</v>
+      </c>
+      <c r="C71">
+        <v>401.2811600761987</v>
+      </c>
+      <c r="D71">
+        <v>0.4333467471548147</v>
+      </c>
+      <c r="E71">
+        <v>0.4998204510278061</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>45322</v>
       </c>
       <c r="B72">
-        <v>1.389213894690769E-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>404.7479340534368</v>
+      </c>
+      <c r="C72">
+        <v>401.7145068233535</v>
+      </c>
+      <c r="D72">
+        <v>-0.2298537845810529</v>
+      </c>
+      <c r="E72">
+        <v>0.498458772841767</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>45323</v>
       </c>
       <c r="B73">
-        <v>1.296273930467758E-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>399.645822762124</v>
+      </c>
+      <c r="C73">
+        <v>401.4846530387724</v>
+      </c>
+      <c r="D73">
+        <v>0.418819916755524</v>
+      </c>
+      <c r="E73">
+        <v>0.497218663546304</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>45324</v>
       </c>
       <c r="B74">
-        <v>1.23158335677202E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>401.6150159516513</v>
+      </c>
+      <c r="C74">
+        <v>401.9034729555279</v>
+      </c>
+      <c r="D74">
+        <v>0.780971465318847</v>
+      </c>
+      <c r="E74">
+        <v>0.4957555151515331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>45327</v>
       </c>
       <c r="B75">
-        <v>2.676100028942394E-06</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>407.6719673272692</v>
+      </c>
+      <c r="C75">
+        <v>404.2463873514845</v>
+      </c>
+      <c r="D75">
+        <v>0.214538148507188</v>
+      </c>
+      <c r="E75">
+        <v>0.4941617211238157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>45328</v>
       </c>
       <c r="B76">
-        <v>3.04098651116772E-07</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>403.6737833372877</v>
+      </c>
+      <c r="C76">
+        <v>404.4609254999917</v>
+      </c>
+      <c r="D76">
+        <v>0.09555323255193571</v>
+      </c>
+      <c r="E76">
+        <v>0.4929436553814209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>45329</v>
       </c>
       <c r="B77">
-        <v>1.281947454478885E-07</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>405.2253513604076</v>
+      </c>
+      <c r="C77">
+        <v>404.5564787325436</v>
+      </c>
+      <c r="D77">
+        <v>0.8047654599615726</v>
+      </c>
+      <c r="E77">
+        <v>0.4910163952696517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>45330</v>
       </c>
       <c r="B78">
-        <v>-5.148931119452023E-08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>411.7993678721975</v>
+      </c>
+      <c r="C78">
+        <v>405.3612441925052</v>
+      </c>
+      <c r="D78">
+        <v>1.01556092992746</v>
+      </c>
+      <c r="E78">
+        <v>0.489034075510041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>45331</v>
       </c>
       <c r="B79">
-        <v>1.130752595424334E-06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>412.9928590098735</v>
+      </c>
+      <c r="C79">
+        <v>406.3768051224326</v>
+      </c>
+      <c r="D79">
+        <v>0.7911759813700693</v>
+      </c>
+      <c r="E79">
+        <v>0.4873722306497443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>45334</v>
       </c>
       <c r="B80">
-        <v>7.781972418359194E-06</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>418.2739866071132</v>
+      </c>
+      <c r="C80">
+        <v>408.7503330665429</v>
+      </c>
+      <c r="D80">
+        <v>0.1605527950844703</v>
+      </c>
+      <c r="E80">
+        <v>0.4864640008403902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>45335</v>
       </c>
       <c r="B81">
-        <v>1.948347313027677E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>402.7388855172427</v>
+      </c>
+      <c r="C81">
+        <v>408.9108858616273</v>
+      </c>
+      <c r="D81">
+        <v>-0.2885611125900027</v>
+      </c>
+      <c r="E81">
+        <v>0.4869408151164411</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>45336</v>
       </c>
       <c r="B82">
-        <v>1.874739248580585E-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>406.6023969609074</v>
+      </c>
+      <c r="C82">
+        <v>408.6223247490373</v>
+      </c>
+      <c r="D82">
+        <v>-0.2166834110928448</v>
+      </c>
+      <c r="E82">
+        <v>0.4871027451064996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>45337</v>
       </c>
       <c r="B83">
-        <v>1.641532189658743E-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>406.6721740492015</v>
+      </c>
+      <c r="C83">
+        <v>408.4056413379445</v>
+      </c>
+      <c r="D83">
+        <v>-0.131017474586713</v>
+      </c>
+      <c r="E83">
+        <v>0.4870114183109194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>45338</v>
       </c>
       <c r="B84">
-        <v>1.491105690779857E-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>406.4928100559887</v>
+      </c>
+      <c r="C84">
+        <v>408.2746238633578</v>
+      </c>
+      <c r="D84">
+        <v>-0.2949052701668222</v>
+      </c>
+      <c r="E84">
+        <v>0.4868647247077141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>45342</v>
       </c>
       <c r="B85">
-        <v>9.160060084627974E-06</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>401.7897635056893</v>
+      </c>
+      <c r="C85">
+        <v>407.0950027826905</v>
+      </c>
+      <c r="D85">
+        <v>-1.194881677627222</v>
+      </c>
+      <c r="E85">
+        <v>0.4862179938454374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>45343</v>
       </c>
       <c r="B86">
-        <v>2.596767900687348E-06</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>398.7308310393001</v>
+      </c>
+      <c r="C86">
+        <v>405.9001211050632</v>
+      </c>
+      <c r="D86">
+        <v>0.351832917200511</v>
+      </c>
+      <c r="E86">
+        <v>0.4827968585835745</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>45344</v>
       </c>
       <c r="B87">
-        <v>1.839750938687453E-06</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>408.7147844426672</v>
+      </c>
+      <c r="C87">
+        <v>406.2519540222638</v>
+      </c>
+      <c r="D87">
+        <v>-0.512363923151554</v>
+      </c>
+      <c r="E87">
+        <v>0.4770942286048294</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>45345</v>
       </c>
       <c r="B88">
-        <v>1.378796914573702E-06</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>414.175075221901</v>
+      </c>
+      <c r="C88">
+        <v>405.7395900991122</v>
+      </c>
+      <c r="D88">
+        <v>0.3025510473230686</v>
+      </c>
+      <c r="E88">
+        <v>0.4703810613430904</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>45348</v>
       </c>
       <c r="B89">
-        <v>2.113058319850736E-06</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>409.980195180942</v>
+      </c>
+      <c r="C89">
+        <v>406.6472432410814</v>
+      </c>
+      <c r="D89">
+        <v>0.004981999371523216</v>
+      </c>
+      <c r="E89">
+        <v>0.4613590019721155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>45349</v>
       </c>
       <c r="B90">
-        <v>3.937942536513308E-06</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>406.5227020522181</v>
+      </c>
+      <c r="C90">
+        <v>406.6522252404529</v>
+      </c>
+      <c r="D90">
+        <v>0.008543506561522918</v>
+      </c>
+      <c r="E90">
+        <v>0.4503638899018034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>45350</v>
       </c>
       <c r="B91">
-        <v>3.96868412969059E-06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>406.7120297863833</v>
+      </c>
+      <c r="C91">
+        <v>406.6607687470145</v>
+      </c>
+      <c r="D91">
+        <v>0.06370224708376782</v>
+      </c>
+      <c r="E91">
+        <v>0.4370555233742999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>45351</v>
       </c>
       <c r="B92">
-        <v>4.141357284337507E-06</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>407.1703867236849</v>
+      </c>
+      <c r="C92">
+        <v>406.7244709940982</v>
+      </c>
+      <c r="D92">
+        <v>0.3407119221607786</v>
+      </c>
+      <c r="E92">
+        <v>0.4216691316331378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>45352</v>
       </c>
       <c r="B93">
-        <v>5.132933937303868E-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>409.7908782935449</v>
+      </c>
+      <c r="C93">
+        <v>407.065182916259</v>
+      </c>
+      <c r="D93">
+        <v>0.8022901894792085</v>
+      </c>
+      <c r="E93">
+        <v>0.4044548005655634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>45355</v>
       </c>
       <c r="B94">
-        <v>1.306332997664715E-05</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>411.9531071342025</v>
+      </c>
+      <c r="C94">
+        <v>409.4720534846966</v>
+      </c>
+      <c r="D94">
+        <v>-0.2434069454430414</v>
+      </c>
+      <c r="E94">
+        <v>0.385966642251501</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>45356</v>
       </c>
       <c r="B95">
-        <v>2.481651812301183E-05</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>412.4712266037999</v>
+      </c>
+      <c r="C95">
+        <v>409.2286465392536</v>
+      </c>
+      <c r="D95">
+        <v>-0.9634857006655011</v>
+      </c>
+      <c r="E95">
+        <v>0.3692512318828411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>45357</v>
       </c>
       <c r="B96">
-        <v>1.815328480988045E-05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>401.5207609339292</v>
+      </c>
+      <c r="C96">
+        <v>408.2651608385881</v>
+      </c>
+      <c r="D96">
+        <v>-0.4006377819520708</v>
+      </c>
+      <c r="E96">
+        <v>0.3522733203045021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>45358</v>
       </c>
       <c r="B97">
-        <v>1.253633614979562E-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>404.6594208010195</v>
+      </c>
+      <c r="C97">
+        <v>407.864523056636</v>
+      </c>
+      <c r="D97">
+        <v>-0.3874887733921355</v>
+      </c>
+      <c r="E97">
+        <v>0.3342262126234057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>45359</v>
       </c>
       <c r="B98">
-        <v>9.61393049883074E-06</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>406.4927962204137</v>
+      </c>
+      <c r="C98">
+        <v>407.4770342832439</v>
+      </c>
+      <c r="D98">
+        <v>-0.1496733805146278</v>
+      </c>
+      <c r="E98">
+        <v>0.3161425177550229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>45362</v>
       </c>
       <c r="B99">
-        <v>6.895719297494116E-06</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>402.3079090049905</v>
+      </c>
+      <c r="C99">
+        <v>407.0280141417</v>
+      </c>
+      <c r="D99">
+        <v>-0.5195520991114222</v>
+      </c>
+      <c r="E99">
+        <v>0.299301099310628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>45363</v>
       </c>
       <c r="B100">
-        <v>4.284816859104295E-06</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>406.1540135997644</v>
+      </c>
+      <c r="C100">
+        <v>406.5084620425886</v>
+      </c>
+      <c r="D100">
+        <v>1.260987002896741</v>
+      </c>
+      <c r="E100">
+        <v>0.2835769873789427</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>45364</v>
       </c>
       <c r="B101">
-        <v>6.176695923620731E-06</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>416.5963580657627</v>
+      </c>
+      <c r="C101">
+        <v>407.7694490454853</v>
+      </c>
+      <c r="D101">
+        <v>1.217687222581731</v>
+      </c>
+      <c r="E101">
+        <v>0.2681663500049317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>45365</v>
       </c>
       <c r="B102">
-        <v>1.507671377469281E-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>418.7286340487209</v>
+      </c>
+      <c r="C102">
+        <v>408.987136268067</v>
+      </c>
+      <c r="D102">
+        <v>0.6476622316941985</v>
+      </c>
+      <c r="E102">
+        <v>0.2543498564895759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>45366</v>
       </c>
       <c r="B103">
-        <v>2.446078576424082E-05</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>417.7820672194502</v>
+      </c>
+      <c r="C103">
+        <v>409.6347984997612</v>
+      </c>
+      <c r="D103">
+        <v>0.6370654846842664</v>
+      </c>
+      <c r="E103">
+        <v>0.2417389943770865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>45369</v>
       </c>
       <c r="B104">
-        <v>3.981362412778465E-05</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>412.7601865175957</v>
+      </c>
+      <c r="C104">
+        <v>411.545994953814</v>
+      </c>
+      <c r="D104">
+        <v>1.404928800454513</v>
+      </c>
+      <c r="E104">
+        <v>0.2294220521372505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>45370</v>
       </c>
       <c r="B105">
-        <v>6.706791939327162E-05</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>416.3272978235955</v>
+      </c>
+      <c r="C105">
+        <v>412.9509237542686</v>
+      </c>
+      <c r="D105">
+        <v>0.9414244724608238</v>
+      </c>
+      <c r="E105">
+        <v>0.218063576356861</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>45371</v>
       </c>
       <c r="B106">
-        <v>9.039439096969121E-05</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>420.4823195339551</v>
+      </c>
+      <c r="C106">
+        <v>413.8923482267294</v>
+      </c>
+      <c r="D106">
+        <v>1.599088286190067</v>
+      </c>
+      <c r="E106">
+        <v>0.2071913615161786</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>45372</v>
       </c>
       <c r="B107">
-        <v>0.0001188476815438966</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>428.2841428024405</v>
+      </c>
+      <c r="C107">
+        <v>415.4914365129194</v>
+      </c>
+      <c r="D107">
+        <v>2.871861109859594</v>
+      </c>
+      <c r="E107">
+        <v>0.1964863530556336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>45373</v>
       </c>
       <c r="B108">
-        <v>0.0001777622185326343</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>428.1546589937267</v>
+      </c>
+      <c r="C108">
+        <v>418.363297622779</v>
+      </c>
+      <c r="D108">
+        <v>0.90277322837062</v>
+      </c>
+      <c r="E108">
+        <v>0.1869313692322029</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>45376</v>
       </c>
       <c r="B109">
-        <v>0.0002706808935989553</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>423.7106482644727</v>
+      </c>
+      <c r="C109">
+        <v>421.0716173078909</v>
+      </c>
+      <c r="D109">
+        <v>0.8996082850634366</v>
+      </c>
+      <c r="E109">
+        <v>0.1793274794912353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>45377</v>
       </c>
       <c r="B110">
-        <v>0.0003424445539770003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>424.0793252148939</v>
+      </c>
+      <c r="C110">
+        <v>421.9712255929543</v>
+      </c>
+      <c r="D110">
+        <v>0.1177908363674192</v>
+      </c>
+      <c r="E110">
+        <v>0.1736962321481972</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>45378</v>
       </c>
       <c r="B111">
-        <v>0.0003637518317727833</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>422.9135522838942</v>
+      </c>
+      <c r="C111">
+        <v>422.0890164293218</v>
+      </c>
+      <c r="D111">
+        <v>-0.2936644582758845</v>
+      </c>
+      <c r="E111">
+        <v>0.1687356458124838</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>45379</v>
       </c>
       <c r="B112">
-        <v>0.0003599263955192358</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>419.446036304839</v>
+      </c>
+      <c r="C112">
+        <v>421.7953519710459</v>
+      </c>
+      <c r="D112">
+        <v>0.4148918419073766</v>
+      </c>
+      <c r="E112">
+        <v>0.1640039544842894</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>45383</v>
       </c>
       <c r="B113">
-        <v>0.0003888766207947117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>422.4252949702259</v>
+      </c>
+      <c r="C113">
+        <v>423.4549193386754</v>
+      </c>
+      <c r="D113">
+        <v>-1.592590986994082</v>
+      </c>
+      <c r="E113">
+        <v>0.158955020226044</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>45384</v>
       </c>
       <c r="B114">
-        <v>0.0003897191422806511</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>418.5991130717621</v>
+      </c>
+      <c r="C114">
+        <v>421.8623283516813</v>
+      </c>
+      <c r="D114">
+        <v>-0.5202633451390284</v>
+      </c>
+      <c r="E114">
+        <v>0.15529927951386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>45385</v>
       </c>
       <c r="B115">
-        <v>0.0003456359989084637</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>418.2204849357083</v>
+      </c>
+      <c r="C115">
+        <v>421.3420650065423</v>
+      </c>
+      <c r="D115">
+        <v>0.2649357673814166</v>
+      </c>
+      <c r="E115">
+        <v>0.1505038936287658</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>45386</v>
       </c>
       <c r="B116">
-        <v>0.0003406124218552783</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>423.4615511455934</v>
+      </c>
+      <c r="C116">
+        <v>421.6070007739237</v>
+      </c>
+      <c r="D116">
+        <v>-0.6513983846583074</v>
+      </c>
+      <c r="E116">
+        <v>0.1455349970080672</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>45387</v>
       </c>
       <c r="B117">
-        <v>0.0003324335557979059</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>418.4994611872064</v>
+      </c>
+      <c r="C117">
+        <v>420.9556023892654</v>
+      </c>
+      <c r="D117">
+        <v>-0.04926609137044125</v>
+      </c>
+      <c r="E117">
+        <v>0.1414125753453265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>45390</v>
       </c>
       <c r="B118">
-        <v>0.0003166733890181471</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>423.6409193804279</v>
+      </c>
+      <c r="C118">
+        <v>420.8078041151541</v>
+      </c>
+      <c r="D118">
+        <v>0.5855103372212511</v>
+      </c>
+      <c r="E118">
+        <v>0.1370195983287068</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>45391</v>
       </c>
       <c r="B119">
-        <v>0.0003254405442162172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>424.9063764757034</v>
+      </c>
+      <c r="C119">
+        <v>421.3933144523753</v>
+      </c>
+      <c r="D119">
+        <v>-0.09021007776658507</v>
+      </c>
+      <c r="E119">
+        <v>0.1320796869114786</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>45392</v>
       </c>
       <c r="B120">
-        <v>0.0003353976510455409</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>420.6716338302425</v>
+      </c>
+      <c r="C120">
+        <v>421.3031043746087</v>
+      </c>
+      <c r="D120">
+        <v>0.3317177155097397</v>
+      </c>
+      <c r="E120">
+        <v>0.1273997202085702</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>45393</v>
       </c>
       <c r="B121">
-        <v>0.0003403861281905238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>424.2885638141968</v>
+      </c>
+      <c r="C121">
+        <v>421.6348220901185</v>
+      </c>
+      <c r="D121">
+        <v>0.01107302310543901</v>
+      </c>
+      <c r="E121">
+        <v>0.1224995916044732</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>45394</v>
       </c>
       <c r="B122">
-        <v>0.0003474107523660497</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>422.5249521781749</v>
+      </c>
+      <c r="C122">
+        <v>421.6458951132239</v>
+      </c>
+      <c r="D122">
+        <v>0.3845918171277655</v>
+      </c>
+      <c r="E122">
+        <v>0.117580894615097</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>45397</v>
       </c>
       <c r="B123">
-        <v>0.0003717734040852678</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>425.0657870862989</v>
+      </c>
+      <c r="C123">
+        <v>422.7996705646072</v>
+      </c>
+      <c r="D123">
+        <v>-0.7743450411468871</v>
+      </c>
+      <c r="E123">
+        <v>0.1122384723614117</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>45398</v>
       </c>
       <c r="B124">
-        <v>0.0003797583180042394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>413.0790458991779</v>
+      </c>
+      <c r="C124">
+        <v>422.0253255234603</v>
+      </c>
+      <c r="D124">
+        <v>-0.7844902726553187</v>
+      </c>
+      <c r="E124">
+        <v>0.1077437392788133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>45399</v>
       </c>
       <c r="B125">
-        <v>0.0003467501416732398</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>415.7494033422172</v>
+      </c>
+      <c r="C125">
+        <v>421.240835250805</v>
+      </c>
+      <c r="D125">
+        <v>-1.343069112832438</v>
+      </c>
+      <c r="E125">
+        <v>0.1026017518860812</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>45400</v>
       </c>
       <c r="B126">
-        <v>0.0003036412340994795</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>409.1532132353134</v>
+      </c>
+      <c r="C126">
+        <v>419.8977661379726</v>
+      </c>
+      <c r="D126">
+        <v>-2.340441468310075</v>
+      </c>
+      <c r="E126">
+        <v>0.0964960637509855</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>45401</v>
       </c>
       <c r="B127">
-        <v>0.000235099446054097</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>402.5769461656378</v>
+      </c>
+      <c r="C127">
+        <v>417.5573246696625</v>
+      </c>
+      <c r="D127">
+        <v>-1.719561426265765</v>
+      </c>
+      <c r="E127">
+        <v>0.08845970076357221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>45404</v>
       </c>
       <c r="B128">
-        <v>0.0001170324245141439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>398.6411348292365</v>
+      </c>
+      <c r="C128">
+        <v>412.3986403908652</v>
+      </c>
+      <c r="D128">
+        <v>-2.819825089177016</v>
+      </c>
+      <c r="E128">
+        <v>0.07897949043389167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>45405</v>
       </c>
       <c r="B129">
-        <v>4.330968547520489E-05</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>402.7861765539353</v>
+      </c>
+      <c r="C129">
+        <v>409.5788153016882</v>
+      </c>
+      <c r="D129">
+        <v>-0.1864682872866865</v>
+      </c>
+      <c r="E129">
+        <v>0.06556834778986477</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>45406</v>
       </c>
       <c r="B130">
-        <v>2.635814693698463E-05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>408.0870690033951</v>
+      </c>
+      <c r="C130">
+        <v>409.3923470144015</v>
+      </c>
+      <c r="D130">
+        <v>-1.864379953113087</v>
+      </c>
+      <c r="E130">
+        <v>0.04965100507028139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>45407</v>
       </c>
       <c r="B131">
-        <v>1.452456217701156E-05</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>392.6129274363838</v>
+      </c>
+      <c r="C131">
+        <v>407.5279670612884</v>
+      </c>
+      <c r="D131">
+        <v>-1.597568504367075</v>
+      </c>
+      <c r="E131">
+        <v>0.03360770835283867</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>45408</v>
       </c>
       <c r="B132">
-        <v>3.16885708143008E-06</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>410.6876705469948</v>
+      </c>
+      <c r="C132">
+        <v>405.9303985569213</v>
+      </c>
+      <c r="D132">
+        <v>-1.063252850545856</v>
+      </c>
+      <c r="E132">
+        <v>0.01682790644453061</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>45411</v>
       </c>
       <c r="B133">
-        <v>-3.521620614379148E-06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>403.7925555014032</v>
+      </c>
+      <c r="C133">
+        <v>402.7406400052838</v>
+      </c>
+      <c r="D133">
+        <v>-0.3615521254270107</v>
+      </c>
+      <c r="E133">
+        <v>-0.0002351138910678081</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>45412</v>
       </c>
       <c r="B134">
-        <v>6.338972970557126E-06</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>400.0460812876486</v>
+      </c>
+      <c r="C134">
+        <v>402.3790878798567</v>
+      </c>
+      <c r="D134">
+        <v>-1.397637798846006</v>
+      </c>
+      <c r="E134">
+        <v>-0.02039378935365825</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>45413</v>
       </c>
       <c r="B135">
-        <v>1.148804219090689E-05</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>391.1979854890888</v>
+      </c>
+      <c r="C135">
+        <v>400.9814500810107</v>
+      </c>
+      <c r="D135">
+        <v>-0.5279573035970202</v>
+      </c>
+      <c r="E135">
+        <v>-0.04068866999295716</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>45414</v>
       </c>
       <c r="B136">
-        <v>2.087023402843536E-05</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>396.2298343486377</v>
+      </c>
+      <c r="C136">
+        <v>400.4534927774137</v>
+      </c>
+      <c r="D136">
+        <v>0.2435657687629487</v>
+      </c>
+      <c r="E136">
+        <v>-0.06198931537565414</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>45415</v>
       </c>
       <c r="B137">
-        <v>2.257820647100817E-05</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>400.8332267481025</v>
+      </c>
+      <c r="C137">
+        <v>400.6970585461767</v>
+      </c>
+      <c r="D137">
+        <v>0.2475190888119604</v>
+      </c>
+      <c r="E137">
+        <v>-0.0828919677577757</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>45418</v>
       </c>
       <c r="B138">
-        <v>1.762906901619816E-05</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>407.2899567664123</v>
+      </c>
+      <c r="C138">
+        <v>401.4396158126125</v>
+      </c>
+      <c r="D138">
+        <v>0.3544331490296599</v>
+      </c>
+      <c r="E138">
+        <v>-0.1020119028615836</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>45419</v>
       </c>
       <c r="B139">
-        <v>1.29267970516665E-05</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>413.1687025902024</v>
+      </c>
+      <c r="C139">
+        <v>401.7940489616422</v>
+      </c>
+      <c r="D139">
+        <v>0.6135059173411719</v>
+      </c>
+      <c r="E139">
+        <v>-0.1192691283268438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>45420</v>
       </c>
       <c r="B140">
-        <v>9.329056656752713E-06</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>406.7020963003715</v>
+      </c>
+      <c r="C140">
+        <v>402.4075548789834</v>
+      </c>
+      <c r="D140">
+        <v>0.7428774383773771</v>
+      </c>
+      <c r="E140">
+        <v>-0.1357215005767459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>45421</v>
       </c>
       <c r="B141">
-        <v>5.263799994421315E-06</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>409.0934518243799</v>
+      </c>
+      <c r="C141">
+        <v>403.1504323173608</v>
+      </c>
+      <c r="D141">
+        <v>0.8513714771976879</v>
+      </c>
+      <c r="E141">
+        <v>-0.1506774330541136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>45422</v>
       </c>
       <c r="B142">
-        <v>1.93675505899819E-06</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>411.454898796182</v>
+      </c>
+      <c r="C142">
+        <v>404.0018037945584</v>
+      </c>
+      <c r="D142">
+        <v>1.763636784510311</v>
+      </c>
+      <c r="E142">
+        <v>-0.1631078591159885</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>45425</v>
       </c>
       <c r="B143">
-        <v>-3.575410423734479E-06</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>416.506666010975</v>
+      </c>
+      <c r="C143">
+        <v>409.2927141480894</v>
+      </c>
+      <c r="D143">
+        <v>1.386425992840657</v>
+      </c>
+      <c r="E143">
+        <v>-0.1736258918694691</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>45426</v>
       </c>
       <c r="B144">
-        <v>3.213500088695744E-05</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>410.5382086979875</v>
+      </c>
+      <c r="C144">
+        <v>410.67914014093</v>
+      </c>
+      <c r="D144">
+        <v>0.8086216973903788</v>
+      </c>
+      <c r="E144">
+        <v>-0.1768815143354888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>45427</v>
       </c>
       <c r="B145">
-        <v>4.777735458402419E-05</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>417.1481137200525</v>
+      </c>
+      <c r="C145">
+        <v>411.4877618383204</v>
+      </c>
+      <c r="D145">
+        <v>1.061483654684366</v>
+      </c>
+      <c r="E145">
+        <v>-0.1777940671962721</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>45428</v>
       </c>
       <c r="B146">
-        <v>6.312776439717406E-05</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>421.0411147304799</v>
+      </c>
+      <c r="C146">
+        <v>412.5492454930048</v>
+      </c>
+      <c r="D146">
+        <v>1.609979680845754</v>
+      </c>
+      <c r="E146">
+        <v>-0.1777425622120415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>45429</v>
       </c>
       <c r="B147">
-        <v>8.859268185119123E-05</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>421.7797738940241</v>
+      </c>
+      <c r="C147">
+        <v>414.1592251738505</v>
+      </c>
+      <c r="D147">
+        <v>0.8956267641700796</v>
+      </c>
+      <c r="E147">
+        <v>-0.1768732650480491</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>45432</v>
       </c>
       <c r="B148">
-        <v>0.0001381232458707114</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>419.4539624148243</v>
+      </c>
+      <c r="C148">
+        <v>416.8461054663608</v>
+      </c>
+      <c r="D148">
+        <v>2.086736048302669</v>
+      </c>
+      <c r="E148">
+        <v>-0.1753473812835898</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>45433</v>
       </c>
       <c r="B149">
-        <v>0.0002085823701101502</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>426.0620511343007</v>
+      </c>
+      <c r="C149">
+        <v>418.9328415146634</v>
+      </c>
+      <c r="D149">
+        <v>1.297920223846972</v>
+      </c>
+      <c r="E149">
+        <v>-0.1723224074172647</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>45434</v>
       </c>
       <c r="B150">
-        <v>0.0002671721493245832</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>429.3162033054389</v>
+      </c>
+      <c r="C150">
+        <v>420.2307617385104</v>
+      </c>
+      <c r="D150">
+        <v>1.328916540949649</v>
+      </c>
+      <c r="E150">
+        <v>-0.1691845143193967</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>45435</v>
       </c>
       <c r="B151">
-        <v>0.0003169851707913276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>432.1910106070575</v>
+      </c>
+      <c r="C151">
+        <v>421.5596782794601</v>
+      </c>
+      <c r="D151">
+        <v>1.101639350047321</v>
+      </c>
+      <c r="E151">
+        <v>-0.1675037037964356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>45436</v>
       </c>
       <c r="B152">
-        <v>0.0003670044708765769</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>426.4214201614011</v>
+      </c>
+      <c r="C152">
+        <v>422.6613176295074</v>
+      </c>
+      <c r="D152">
+        <v>1.097239884286211</v>
+      </c>
+      <c r="E152">
+        <v>-0.1670857739208599</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>45440</v>
       </c>
       <c r="B153">
-        <v>0.0004882668972517908</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>428.8570153768908</v>
+      </c>
+      <c r="C153">
+        <v>427.0502771666522</v>
+      </c>
+      <c r="D153">
+        <v>-0.3037384724803474</v>
+      </c>
+      <c r="E153">
+        <v>-0.1681419851940303</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>45441</v>
       </c>
       <c r="B154">
-        <v>0.0005990778718099666</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>424.9241078592897</v>
+      </c>
+      <c r="C154">
+        <v>426.7465386941719</v>
+      </c>
+      <c r="D154">
+        <v>-0.4012425158441033</v>
+      </c>
+      <c r="E154">
+        <v>-0.1665976894517204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>45442</v>
       </c>
       <c r="B155">
-        <v>0.0005800258938322693</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>423.5365985674188</v>
+      </c>
+      <c r="C155">
+        <v>426.3452961783278</v>
+      </c>
+      <c r="D155">
+        <v>-0.4317205324642259</v>
+      </c>
+      <c r="E155">
+        <v>-0.1691055191967886</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>45443</v>
       </c>
       <c r="B156">
-        <v>0.000557945428973992</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>416.0001981551101</v>
+      </c>
+      <c r="C156">
+        <v>425.9135756458635</v>
+      </c>
+      <c r="D156">
+        <v>-1.164428852177972</v>
+      </c>
+      <c r="E156">
+        <v>-0.175155919116858</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>45446</v>
       </c>
       <c r="B157">
-        <v>0.0004553671543198738</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>414.7823944158675</v>
+      </c>
+      <c r="C157">
+        <v>422.4202890893296</v>
+      </c>
+      <c r="D157">
+        <v>-2.455574047588584</v>
+      </c>
+      <c r="E157">
+        <v>-0.1841604135891638</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>45447</v>
       </c>
       <c r="B158">
-        <v>0.0003267329372950558</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>411.6879758758687</v>
+      </c>
+      <c r="C158">
+        <v>419.964715041741</v>
+      </c>
+      <c r="D158">
+        <v>-0.4152058349828849</v>
+      </c>
+      <c r="E158">
+        <v>-0.1993896111999379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>45448</v>
       </c>
       <c r="B159">
-        <v>0.0002736782276898071</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>417.0582741968618</v>
+      </c>
+      <c r="C159">
+        <v>419.5495092067582</v>
+      </c>
+      <c r="D159">
+        <v>0.4622030206639351</v>
+      </c>
+      <c r="E159">
+        <v>-0.2203801132412752</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>45449</v>
       </c>
       <c r="B160">
-        <v>0.0002747169900735824</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>423.2471333720698</v>
+      </c>
+      <c r="C160">
+        <v>420.0117122274221</v>
+      </c>
+      <c r="D160">
+        <v>0.6023887449460403</v>
+      </c>
+      <c r="E160">
+        <v>-0.244411762260958</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>45450</v>
       </c>
       <c r="B161">
-        <v>0.0002946446328957143</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>425.4332109319366</v>
+      </c>
+      <c r="C161">
+        <v>420.6141009723681</v>
+      </c>
+      <c r="D161">
+        <v>-0.5787433456458189</v>
+      </c>
+      <c r="E161">
+        <v>-0.2702443344965539</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>45453</v>
       </c>
       <c r="B162">
-        <v>0.0002721115306558368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>423.9359096003005</v>
+      </c>
+      <c r="C162">
+        <v>418.8778709354307</v>
+      </c>
+      <c r="D162">
+        <v>1.244899150805622</v>
+      </c>
+      <c r="E162">
+        <v>-0.2974245224297389</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>45454</v>
       </c>
       <c r="B163">
-        <v>0.0002642511372280002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>424.714492210749</v>
+      </c>
+      <c r="C163">
+        <v>420.1227700862363</v>
+      </c>
+      <c r="D163">
+        <v>1.801751994876042</v>
+      </c>
+      <c r="E163">
+        <v>-0.3296261148927311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>45455</v>
       </c>
       <c r="B164">
-        <v>0.0003217305449001847</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>434.5367860452445</v>
+      </c>
+      <c r="C164">
+        <v>421.9245220811123</v>
+      </c>
+      <c r="D164">
+        <v>2.014703694217872</v>
+      </c>
+      <c r="E164">
+        <v>-0.3635527229348804</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>45456</v>
       </c>
       <c r="B165">
-        <v>0.0004021093284790634</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>440.0568553290733</v>
+      </c>
+      <c r="C165">
+        <v>423.9392257753302</v>
+      </c>
+      <c r="D165">
+        <v>2.523228691946542</v>
+      </c>
+      <c r="E165">
+        <v>-0.3986714735591017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>45457</v>
       </c>
       <c r="B166">
-        <v>0.0005090115389795852</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>437.4914526433868</v>
+      </c>
+      <c r="C166">
+        <v>426.4624544672768</v>
+      </c>
+      <c r="D166">
+        <v>2.034534260411855</v>
+      </c>
+      <c r="E166">
+        <v>-0.4338264733092432</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>45460</v>
       </c>
       <c r="B167">
-        <v>0.0007396371597757985</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>441.7936939788958</v>
+      </c>
+      <c r="C167">
+        <v>432.5660572485123</v>
+      </c>
+      <c r="D167">
+        <v>3.352525399028309</v>
+      </c>
+      <c r="E167">
+        <v>-0.4685538398996325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>45461</v>
       </c>
       <c r="B168">
-        <v>0.001062179982070095</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>448.9008887251347</v>
+      </c>
+      <c r="C168">
+        <v>435.9185826475406</v>
+      </c>
+      <c r="D168">
+        <v>0.5986528636426556</v>
+      </c>
+      <c r="E168">
+        <v>-0.4985151194489056</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>45463</v>
       </c>
       <c r="B169">
-        <v>0.001236003849188774</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>445.4970284658229</v>
+      </c>
+      <c r="C169">
+        <v>437.1158883748259</v>
+      </c>
+      <c r="D169">
+        <v>2.829897335175872</v>
+      </c>
+      <c r="E169">
+        <v>-0.5274518378381103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>45464</v>
       </c>
       <c r="B170">
-        <v>0.001396561940814835</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>446.5750882817075</v>
+      </c>
+      <c r="C170">
+        <v>439.9457857100018</v>
+      </c>
+      <c r="D170">
+        <v>1.643009643845194</v>
+      </c>
+      <c r="E170">
+        <v>-0.5577735029622253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>45467</v>
       </c>
       <c r="B171">
-        <v>0.001732750132964808</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>448.990735754277</v>
+      </c>
+      <c r="C171">
+        <v>444.8748146415374</v>
+      </c>
+      <c r="D171">
+        <v>1.658677472179647</v>
+      </c>
+      <c r="E171">
+        <v>-0.5875906148494289</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>45468</v>
       </c>
       <c r="B172">
-        <v>0.00205715307862204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>447.4435174764647</v>
+      </c>
+      <c r="C172">
+        <v>446.533492113717</v>
+      </c>
+      <c r="D172">
+        <v>0.2369551643744785</v>
+      </c>
+      <c r="E172">
+        <v>-0.6151269022285138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>45469</v>
       </c>
       <c r="B173">
-        <v>0.002154275707899703</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>448.1921782643384</v>
+      </c>
+      <c r="C173">
+        <v>446.7704472780915</v>
+      </c>
+      <c r="D173">
+        <v>0.5744990713894254</v>
+      </c>
+      <c r="E173">
+        <v>-0.6416640635162705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>45470</v>
       </c>
       <c r="B174">
-        <v>0.002196289427170042</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>451.3664398492068</v>
+      </c>
+      <c r="C174">
+        <v>447.3449463494809</v>
+      </c>
+      <c r="D174">
+        <v>1.307645532753156</v>
+      </c>
+      <c r="E174">
+        <v>-0.6671846650690081</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>45471</v>
       </c>
       <c r="B175">
-        <v>0.002295061771425402</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>452.254858240921</v>
+      </c>
+      <c r="C175">
+        <v>448.6525918822341</v>
+      </c>
+      <c r="D175">
+        <v>0.1003548120198919</v>
+      </c>
+      <c r="E175">
+        <v>-0.6914138266981851</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>45474</v>
       </c>
       <c r="B176">
-        <v>0.002381730295239549</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>447.8527763611413</v>
+      </c>
+      <c r="C176">
+        <v>448.9536563182938</v>
+      </c>
+      <c r="D176">
+        <v>0.8299340591355531</v>
+      </c>
+      <c r="E176">
+        <v>-0.7139556015763565</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>45475</v>
       </c>
       <c r="B177">
-        <v>0.002443345959077098</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>452.3846266956562</v>
+      </c>
+      <c r="C177">
+        <v>449.7835903774293</v>
+      </c>
+      <c r="D177">
+        <v>0.9477554906090973</v>
+      </c>
+      <c r="E177">
+        <v>-0.7327462746066017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>45476</v>
       </c>
       <c r="B178">
-        <v>0.002541859822953251</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>457.3656343023017</v>
+      </c>
+      <c r="C178">
+        <v>450.7313458680384</v>
+      </c>
+      <c r="D178">
+        <v>0.612020995672907</v>
+      </c>
+      <c r="E178">
+        <v>-0.7460858580828927</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>45478</v>
       </c>
       <c r="B179">
-        <v>0.002664780278160205</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>458.7830716850438</v>
+      </c>
+      <c r="C179">
+        <v>451.9553878593842</v>
+      </c>
+      <c r="D179">
+        <v>1.256624084391035</v>
+      </c>
+      <c r="E179">
+        <v>-0.752847191003462</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>45481</v>
       </c>
       <c r="B180">
-        <v>0.002955373526645969</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>465.7105933902801</v>
+      </c>
+      <c r="C180">
+        <v>455.7252601125574</v>
+      </c>
+      <c r="D180">
+        <v>2.317489645929186</v>
+      </c>
+      <c r="E180">
+        <v>-0.7536846451060161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>45482</v>
       </c>
       <c r="B181">
-        <v>0.003336920471263503</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>466.1597961164965</v>
+      </c>
+      <c r="C181">
+        <v>458.0427497584865</v>
+      </c>
+      <c r="D181">
+        <v>0.335347734665902</v>
+      </c>
+      <c r="E181">
+        <v>-0.748391454625367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>45483</v>
       </c>
       <c r="B182">
-        <v>0.003510489761266807</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>460.3901839011476</v>
+      </c>
+      <c r="C182">
+        <v>458.3780974931524</v>
+      </c>
+      <c r="D182">
+        <v>0.47111645160129</v>
+      </c>
+      <c r="E182">
+        <v>-0.7361025346170453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>45484</v>
       </c>
       <c r="B183">
-        <v>0.003563745908094482</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>462.1470291059628</v>
+      </c>
+      <c r="C183">
+        <v>458.8492139447537</v>
+      </c>
+      <c r="D183">
+        <v>0.7074746682665705</v>
+      </c>
+      <c r="E183">
+        <v>-0.7161730930806164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>45485</v>
       </c>
       <c r="B184">
-        <v>0.003642268834456934</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>453.5125737072739</v>
+      </c>
+      <c r="C184">
+        <v>459.5566886130203</v>
+      </c>
+      <c r="D184">
+        <v>0.1090886147621859</v>
+      </c>
+      <c r="E184">
+        <v>-0.6876385577822562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>45488</v>
       </c>
       <c r="B185">
-        <v>0.003711985147913704</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>452.4844332949432</v>
+      </c>
+      <c r="C185">
+        <v>459.8839544573069</v>
+      </c>
+      <c r="D185">
+        <v>-0.7686103928928674</v>
+      </c>
+      <c r="E185">
+        <v>-0.6528012272345018</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>45489</v>
       </c>
       <c r="B186">
-        <v>0.003681802828688264</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>453.4027989347938</v>
+      </c>
+      <c r="C186">
+        <v>459.115344064414</v>
+      </c>
+      <c r="D186">
+        <v>-2.165206016538207</v>
+      </c>
+      <c r="E186">
+        <v>-0.609996836179188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>45490</v>
       </c>
       <c r="B187">
-        <v>0.00348520388762925</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>441.7936959321082</v>
+      </c>
+      <c r="C187">
+        <v>456.9501380478758</v>
+      </c>
+      <c r="D187">
+        <v>-1.489953528025296</v>
+      </c>
+      <c r="E187">
+        <v>-0.5556715430489679</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>45491</v>
       </c>
       <c r="B188">
-        <v>0.003250541035063555</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>443.5405562956479</v>
+      </c>
+      <c r="C188">
+        <v>455.4601845198505</v>
+      </c>
+      <c r="D188">
+        <v>-3.709978957205465</v>
+      </c>
+      <c r="E188">
+        <v>-0.4910328243047948</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>45492</v>
       </c>
       <c r="B189">
-        <v>0.002925578415711154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>432.320782775431</v>
+      </c>
+      <c r="C189">
+        <v>451.750205562645</v>
+      </c>
+      <c r="D189">
+        <v>-2.104831258272933</v>
+      </c>
+      <c r="E189">
+        <v>-0.4163945559892415</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>45495</v>
       </c>
       <c r="B190">
-        <v>0.002345330419937371</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>440.9951415745854</v>
+      </c>
+      <c r="C190">
+        <v>445.4357117878262</v>
+      </c>
+      <c r="D190">
+        <v>-1.487317799387995</v>
+      </c>
+      <c r="E190">
+        <v>-0.3334759691231276</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>45496</v>
       </c>
       <c r="B191">
-        <v>0.001955947835505408</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>443.1013491115581</v>
+      </c>
+      <c r="C191">
+        <v>443.9483939884382</v>
+      </c>
+      <c r="D191">
+        <v>-0.5363537252490005</v>
+      </c>
+      <c r="E191">
+        <v>-0.2478355403393595</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>45497</v>
       </c>
       <c r="B192">
-        <v>0.001858595156315834</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>439.6575641864461</v>
+      </c>
+      <c r="C192">
+        <v>443.4120402631892</v>
+      </c>
+      <c r="D192">
+        <v>-1.709282337309389</v>
+      </c>
+      <c r="E192">
+        <v>-0.1561393116904338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>45498</v>
       </c>
       <c r="B193">
-        <v>0.001751574405110663</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>428.0284992274044</v>
+      </c>
+      <c r="C193">
+        <v>441.7027579258798</v>
+      </c>
+      <c r="D193">
+        <v>-3.892981961641112</v>
+      </c>
+      <c r="E193">
+        <v>-0.05776821435951621</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>45499</v>
       </c>
       <c r="B194">
-        <v>0.001496552608414345</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>417.4475956401735</v>
+      </c>
+      <c r="C194">
+        <v>437.8097759642387</v>
+      </c>
+      <c r="D194">
+        <v>-1.538761897082073</v>
+      </c>
+      <c r="E194">
+        <v>0.04250388143745328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>45502</v>
       </c>
       <c r="B195">
-        <v>0.001150602432599987</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>430.8034993953489</v>
+      </c>
+      <c r="C195">
+        <v>433.1934902729925</v>
+      </c>
+      <c r="D195">
+        <v>-0.7671874583005547</v>
+      </c>
+      <c r="E195">
+        <v>0.1373052115773262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>45503</v>
       </c>
       <c r="B196">
-        <v>0.0009632971641191393</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>426.950470567327</v>
+      </c>
+      <c r="C196">
+        <v>432.426302814692</v>
+      </c>
+      <c r="D196">
+        <v>-1.585357072537875</v>
+      </c>
+      <c r="E196">
+        <v>0.2184453972983485</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>45504</v>
       </c>
       <c r="B197">
-        <v>0.0008831382144636633</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>419.7434462343891</v>
+      </c>
+      <c r="C197">
+        <v>430.8409457421541</v>
+      </c>
+      <c r="D197">
+        <v>-1.200890666788041</v>
+      </c>
+      <c r="E197">
+        <v>0.3017718395734028</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>45505</v>
       </c>
       <c r="B198">
-        <v>0.0007939371722042143</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>420.0329297410617</v>
+      </c>
+      <c r="C198">
+        <v>429.640055075366</v>
+      </c>
+      <c r="D198">
+        <v>-3.249700330078269</v>
+      </c>
+      <c r="E198">
+        <v>0.3809207743915289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>45506</v>
       </c>
       <c r="B199">
-        <v>0.0006574751931378601</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>411.747838603881</v>
+      </c>
+      <c r="C199">
+        <v>426.3903547452878</v>
+      </c>
+      <c r="D199">
+        <v>-3.311279436855197</v>
+      </c>
+      <c r="E199">
+        <v>0.4564191595760975</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>45509</v>
       </c>
       <c r="B200">
-        <v>0.0003059461932032949</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>388.4698348608741</v>
+      </c>
+      <c r="C200">
+        <v>416.4565164347222</v>
+      </c>
+      <c r="D200">
+        <v>-2.595322994752166</v>
+      </c>
+      <c r="E200">
+        <v>0.5196679664624014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>45510</v>
       </c>
       <c r="B201">
-        <v>0.0001282627481732277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>399.2803346769082</v>
+      </c>
+      <c r="C201">
+        <v>413.86119343997</v>
+      </c>
+      <c r="D201">
+        <v>-0.7445469177454811</v>
+      </c>
+      <c r="E201">
+        <v>0.5455502675568163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>45511</v>
       </c>
       <c r="B202">
-        <v>9.15642872428525E-05</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>407.9048180980064</v>
+      </c>
+      <c r="C202">
+        <v>413.1166465222245</v>
+      </c>
+      <c r="D202">
+        <v>-1.266745789371555</v>
+      </c>
+      <c r="E202">
+        <v>0.5667124526110779</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>45512</v>
       </c>
       <c r="B203">
-        <v>7.096170150647353E-05</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>401.7159344178802</v>
+      </c>
+      <c r="C203">
+        <v>411.849900732853</v>
+      </c>
+      <c r="D203">
+        <v>-3.055602172389854</v>
+      </c>
+      <c r="E203">
+        <v>0.5875792963165036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>45513</v>
       </c>
       <c r="B204">
-        <v>3.329543474101952E-05</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>403.3030798438404</v>
+      </c>
+      <c r="C204">
+        <v>408.7942985604631</v>
+      </c>
+      <c r="D204">
+        <v>-2.038601678935739</v>
+      </c>
+      <c r="E204">
+        <v>0.6056390626534188</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>45516</v>
       </c>
       <c r="B205">
-        <v>-1.191309649016353E-05</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>406.3276141642008</v>
+      </c>
+      <c r="C205">
+        <v>402.6784935236559</v>
+      </c>
+      <c r="D205">
+        <v>-0.4135375673769772</v>
+      </c>
+      <c r="E205">
+        <v>0.6144940998282561</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>45517</v>
       </c>
       <c r="B206">
-        <v>6.823850331910644E-06</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>408.8530756322428</v>
+      </c>
+      <c r="C206">
+        <v>402.2649559562789</v>
+      </c>
+      <c r="D206">
+        <v>1.473592264089234</v>
+      </c>
+      <c r="E206">
+        <v>0.6116922024088188</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>45518</v>
       </c>
       <c r="B207">
-        <v>3.841279758784678E-06</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>414.0536940689925</v>
+      </c>
+      <c r="C207">
+        <v>403.7385482203682</v>
+      </c>
+      <c r="D207">
+        <v>1.784604396955615</v>
+      </c>
+      <c r="E207">
+        <v>0.607627920954329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>45519</v>
       </c>
       <c r="B208">
-        <v>-5.763286040193085E-07</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>419.7999877929688</v>
+      </c>
+      <c r="C208">
+        <v>405.5231526173238</v>
+      </c>
+      <c r="D208">
+        <v>3.57001902696021</v>
+      </c>
+      <c r="E208">
+        <v>0.6044873716020807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>45520</v>
       </c>
       <c r="B209">
-        <v>4.218946511447932E-06</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>420.6000061035156</v>
+      </c>
+      <c r="C209">
+        <v>409.093171644284</v>
+      </c>
+      <c r="D209">
+        <v>1.345011788135764</v>
+      </c>
+      <c r="E209">
+        <v>0.5996643658937258</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>45523</v>
       </c>
       <c r="B210">
-        <v>4.406720908894569E-05</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>418.9599914550781</v>
+      </c>
+      <c r="C210">
+        <v>413.1282070086913</v>
+      </c>
+      <c r="D210">
+        <v>2.628133194741622</v>
+      </c>
+      <c r="E210">
+        <v>0.595499927577962</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>45524</v>
       </c>
       <c r="B211">
-        <v>0.0001117469752198183</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>421.7000122070312</v>
+      </c>
+      <c r="C211">
+        <v>415.7563402034329</v>
+      </c>
+      <c r="D211">
+        <v>1.040455796104084</v>
+      </c>
+      <c r="E211">
+        <v>0.5947013197380518</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>45525</v>
       </c>
       <c r="B212">
-        <v>0.0001607256253182216</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>424.0799865722656</v>
+      </c>
+      <c r="C212">
+        <v>416.796795999537</v>
+      </c>
+      <c r="D212">
+        <v>0.8403543724472797</v>
+      </c>
+      <c r="E212">
+        <v>0.5928886466265746</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>45526</v>
       </c>
       <c r="B213">
-        <v>0.0001883799922496933</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>424.3599853515625</v>
+      </c>
+      <c r="C213">
+        <v>417.6371503719843</v>
+      </c>
+      <c r="D213">
+        <v>1.183599646903019</v>
+      </c>
+      <c r="E213">
+        <v>0.5824221222025202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>45527</v>
       </c>
       <c r="B214">
-        <v>0.0002203555382618983</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>416.9800109863281</v>
+      </c>
+      <c r="C214">
+        <v>418.8207500188873</v>
+      </c>
+      <c r="D214">
+        <v>0.5383208409884711</v>
+      </c>
+      <c r="E214">
+        <v>0.5627666353489676</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>45530</v>
       </c>
       <c r="B215">
-        <v>0.0002686440922190783</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>416.3699951171875</v>
+      </c>
+      <c r="C215">
+        <v>420.4357125418527</v>
+      </c>
+      <c r="D215">
+        <v>-1.105717250279042</v>
+      </c>
+      <c r="E215">
+        <v>0.5397654994887164</v>
+      </c>
+      <c r="F215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>45531</v>
       </c>
       <c r="B216">
-        <v>0.0002778480797209774</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>412.8599853515625</v>
+      </c>
+      <c r="C216">
+        <v>419.3299952915737</v>
+      </c>
+      <c r="D216">
+        <v>-0.556248801095137</v>
+      </c>
+      <c r="E216">
+        <v>0.5143536374821498</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>45532</v>
       </c>
       <c r="B217">
-        <v>0.0002482994277326489</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>414.8800048828125</v>
+      </c>
+      <c r="C217">
+        <v>418.7737464904785</v>
+      </c>
+      <c r="D217">
+        <v>-0.4259715610080548</v>
+      </c>
+      <c r="E217">
+        <v>0.4726384747995562</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>45533</v>
       </c>
       <c r="B218">
-        <v>0.0002314684489840507</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>414.9400024414062</v>
+      </c>
+      <c r="C218">
+        <v>418.3477749294705</v>
+      </c>
+      <c r="D218">
+        <v>-0.3733317057291288</v>
+      </c>
+      <c r="E218">
+        <v>0.4167148365321903</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>45534</v>
       </c>
       <c r="B219">
-        <v>0.0002181803394171571</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>415.6000061035156</v>
+      </c>
+      <c r="C219">
+        <v>417.9744432237413</v>
+      </c>
+      <c r="D219">
+        <v>-0.6369442409939268</v>
+      </c>
+      <c r="E219">
+        <v>0.3558547736649786</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>45538</v>
       </c>
       <c r="B220">
-        <v>0.0001704579617115301</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>417.9100036621094</v>
+      </c>
+      <c r="C220">
+        <v>415.4266662597656</v>
+      </c>
+      <c r="D220">
+        <v>-1.359523228236583</v>
+      </c>
+      <c r="E220">
+        <v>0.2901212518814494</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>45539</v>
       </c>
       <c r="B221">
-        <v>0.0001197735114771022</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>405.9100036621094</v>
+      </c>
+      <c r="C221">
+        <v>414.067143031529</v>
+      </c>
+      <c r="D221">
+        <v>-0.8058934892927141</v>
+      </c>
+      <c r="E221">
+        <v>0.2114048873544137</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>45540</v>
       </c>
       <c r="B222">
-        <v>9.529214403514241E-05</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>407.6199951171875</v>
+      </c>
+      <c r="C222">
+        <v>413.2612495422363</v>
+      </c>
+      <c r="D222">
+        <v>-0.9137496948242188</v>
+      </c>
+      <c r="E222">
+        <v>0.1224555688923897</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>45541</v>
       </c>
       <c r="B223">
-        <v>7.744265002522835E-05</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>409.0599975585938</v>
+      </c>
+      <c r="C223">
+        <v>412.3474998474121</v>
+      </c>
+      <c r="D223">
+        <v>-0.5969445970323287</v>
+      </c>
+      <c r="E223">
+        <v>0.02932111392360115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>45544</v>
       </c>
       <c r="B224">
-        <v>5.226622332593812E-05</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>407.239990234375</v>
+      </c>
+      <c r="C224">
+        <v>410.5566660563151</v>
+      </c>
+      <c r="D224">
+        <v>-1.233332316080748</v>
+      </c>
+      <c r="E224">
+        <v>-0.07012385453965224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>45545</v>
       </c>
       <c r="B225">
-        <v>3.112124566288519E-05</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>408.2000122070312</v>
+      </c>
+      <c r="C225">
+        <v>409.3233337402344</v>
+      </c>
+      <c r="D225">
+        <v>0.8823808942522078</v>
+      </c>
+      <c r="E225">
+        <v>-0.1857870084122984</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>45546</v>
       </c>
       <c r="B226">
-        <v>2.963860775697417E-05</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>415.5</v>
+      </c>
+      <c r="C226">
+        <v>410.2057146344866</v>
+      </c>
+      <c r="D226">
+        <v>1.638035365513417</v>
+      </c>
+      <c r="E226">
+        <v>-0.3214494719418999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>45547</v>
       </c>
       <c r="B227">
-        <v>4.643090368191159E-05</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>423.3099975585938</v>
+      </c>
+      <c r="C227">
+        <v>411.84375</v>
+      </c>
+      <c r="D227">
+        <v>1.554026285807311</v>
+      </c>
+      <c r="E227">
+        <v>-0.4650834862758922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>45548</v>
       </c>
       <c r="B228">
-        <v>7.392359939740213E-05</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>425.8299865722656</v>
+      </c>
+      <c r="C228">
+        <v>413.3977762858073</v>
+      </c>
+      <c r="D228">
+        <v>1.235978868272563</v>
+      </c>
+      <c r="E228">
+        <v>-0.6006491291593343</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>45551</v>
       </c>
       <c r="B229">
-        <v>0.0001298164386704682</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="C229">
+        <v>417.105712890625</v>
+      </c>
+      <c r="D229">
+        <v>4.452859061104903</v>
+      </c>
+      <c r="E229">
+        <v>-0.7240023240641166</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="2">
         <v>45552</v>
       </c>
       <c r="B230">
-        <v>0.0002532609284979988</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>440.2300109863281</v>
+      </c>
+      <c r="C230">
+        <v>421.5585719517299</v>
+      </c>
+      <c r="D230">
+        <v>1.680178506033769</v>
+      </c>
+      <c r="E230">
+        <v>-0.8165459234609528</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="2">
         <v>45553</v>
       </c>
       <c r="B231">
-        <v>0.0003789975094509087</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>435</v>
+      </c>
+      <c r="C231">
+        <v>423.2387504577637</v>
+      </c>
+      <c r="D231">
+        <v>1.999028947618285</v>
+      </c>
+      <c r="E231">
+        <v>-0.8735188705057715</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="2">
         <v>45554</v>
       </c>
       <c r="B232">
-        <v>0.0004624724222768071</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>441.2300109863281</v>
+      </c>
+      <c r="C232">
+        <v>425.237779405382</v>
+      </c>
+      <c r="D232">
+        <v>3.331112331814211</v>
+      </c>
+      <c r="E232">
+        <v>-0.9064717915602054</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="2">
         <v>45555</v>
       </c>
       <c r="B233">
-        <v>0.0005967287761507034</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>437.2200012207031</v>
+      </c>
+      <c r="C233">
+        <v>428.5688917371962</v>
+      </c>
+      <c r="D233">
+        <v>2.114655832764962</v>
+      </c>
+      <c r="E233">
+        <v>-0.9021732400312824</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="2">
         <v>45558</v>
       </c>
       <c r="B234">
-        <v>0.0008802947625010134</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>434.2799987792969</v>
+      </c>
+      <c r="C234">
+        <v>434.9128592354911</v>
+      </c>
+      <c r="D234">
+        <v>1.024287632533515</v>
+      </c>
+      <c r="E234">
+        <v>-0.872832376497745</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="2">
         <v>45559</v>
       </c>
       <c r="B235">
-        <v>0.001152266895942606</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>433</v>
+      </c>
+      <c r="C235">
+        <v>435.9371468680246</v>
+      </c>
+      <c r="D235">
+        <v>-0.7633950369698823</v>
+      </c>
+      <c r="E235">
+        <v>-0.839126381561322</v>
+      </c>
+      <c r="F235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="2">
         <v>45560</v>
       </c>
       <c r="B236">
-        <v>0.001161885184251789</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>429.8299865722656</v>
+      </c>
+      <c r="C236">
+        <v>435.1737518310547</v>
+      </c>
+      <c r="D236">
+        <v>-0.009306165907105424</v>
+      </c>
+      <c r="E236">
+        <v>-0.817485813279931</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="2">
         <v>45561</v>
       </c>
       <c r="B237">
-        <v>0.001133157017907232</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>435.0899963378906</v>
+      </c>
+      <c r="C237">
+        <v>435.1644456651476</v>
+      </c>
+      <c r="D237">
+        <v>0.1022203233507071</v>
+      </c>
+      <c r="E237">
+        <v>-0.8022630007590285</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="2">
         <v>45562</v>
       </c>
       <c r="B238">
-        <v>0.001136653525147483</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>431.5199890136719</v>
+      </c>
+      <c r="C238">
+        <v>435.2666659884983</v>
+      </c>
+      <c r="D238">
+        <v>-0.8436523114562723</v>
+      </c>
+      <c r="E238">
+        <v>-0.7667735975361332</v>
+      </c>
+      <c r="F238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="2">
         <v>45565</v>
       </c>
       <c r="B239">
-        <v>0.001045010336117348</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>428.2099914550781</v>
+      </c>
+      <c r="C239">
+        <v>432.7357090541295</v>
+      </c>
+      <c r="D239">
+        <v>-1.25285557338168</v>
+      </c>
+      <c r="E239">
+        <v>-0.7360353120462984</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>45566</v>
       </c>
       <c r="B240">
-        <v>0.0009151930134664457</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="C240">
+        <v>431.4828534807478</v>
+      </c>
+      <c r="D240">
+        <v>-1.112858363560292</v>
+      </c>
+      <c r="E240">
+        <v>-0.7141646170508547</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="2">
         <v>45567</v>
       </c>
       <c r="B241">
-        <v>0.000837542918555909</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>422.5799865722656</v>
+      </c>
+      <c r="C241">
+        <v>430.3699951171875</v>
+      </c>
+      <c r="D241">
+        <v>-1.415554470486086</v>
+      </c>
+      <c r="E241">
+        <v>-0.696132583788844</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="2">
         <v>45568</v>
       </c>
       <c r="B242">
-        <v>0.0007579257593674633</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>417.6300048828125</v>
+      </c>
+      <c r="C242">
+        <v>428.9544406467014</v>
+      </c>
+      <c r="D242">
+        <v>-1.782223171658018</v>
+      </c>
+      <c r="E242">
+        <v>-0.6115077914004088</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="2">
         <v>45569</v>
       </c>
       <c r="B243">
-        <v>0.0006628162845340162</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>418.239990234375</v>
+      </c>
+      <c r="C243">
+        <v>427.1722174750434</v>
+      </c>
+      <c r="D243">
+        <v>-1.313121331431868</v>
+      </c>
+      <c r="E243">
+        <v>-0.5682278676119978</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="2">
         <v>45572</v>
       </c>
       <c r="B244">
-        <v>0.0005048968267472046</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>416</v>
+      </c>
+      <c r="C244">
+        <v>423.2328534807478</v>
+      </c>
+      <c r="D244">
+        <v>-2.945713588169667</v>
+      </c>
+      <c r="E244">
+        <v>-0.6523305085088845</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="2">
         <v>45573</v>
       </c>
       <c r="B245">
-        <v>0.0003490754913420439</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>410.8999938964844</v>
+      </c>
+      <c r="C245">
+        <v>420.2871398925781</v>
+      </c>
+      <c r="D245">
+        <v>-0.5533943176269531</v>
+      </c>
+      <c r="E245">
+        <v>-0.630629295750251</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="2">
         <v>45574</v>
       </c>
       <c r="B246">
-        <v>0.0002829973060333524</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>415.8599853515625</v>
+      </c>
+      <c r="C246">
+        <v>419.7337455749512</v>
+      </c>
+      <c r="D246">
+        <v>-0.5004149542914433</v>
+      </c>
+      <c r="E246">
+        <v>-0.2077757331944434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="2">
         <v>45575</v>
       </c>
       <c r="B247">
-        <v>0.0002636736036802427</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>415.2300109863281</v>
+      </c>
+      <c r="C247">
+        <v>419.2333306206597</v>
+      </c>
+      <c r="D247">
+        <v>-1.341108534071168</v>
+      </c>
+      <c r="E247">
+        <v>0.2381803731015716</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="2">
         <v>45576</v>
       </c>
       <c r="B248">
-        <v>0.0002308428685901865</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>416.1400146484375</v>
+      </c>
+      <c r="C248">
+        <v>417.8922220865886</v>
+      </c>
+      <c r="D248">
+        <v>-0.7193128797743119</v>
+      </c>
+      <c r="E248">
+        <v>0.4408433301677222</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="2">
         <v>45579</v>
       </c>
       <c r="B249">
-        <v>0.0001744147637315177</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>417.7699890136719</v>
+      </c>
+      <c r="C249">
+        <v>415.7342834472656</v>
+      </c>
+      <c r="D249">
+        <v>0.5628574916294724</v>
+      </c>
+      <c r="E249">
+        <v>0.09673959481759133</v>
+      </c>
+      <c r="F249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="2">
         <v>45580</v>
       </c>
       <c r="B250">
-        <v>0.0001535956099175403</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>422.1799926757812</v>
+      </c>
+      <c r="C250">
+        <v>416.2971409388951</v>
+      </c>
+      <c r="D250">
+        <v>-0.1408909388950974</v>
+      </c>
+      <c r="E250">
+        <v>-0.943630647966276</v>
+      </c>
+      <c r="F250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="2">
         <v>45581</v>
       </c>
       <c r="B251">
-        <v>0.0001593994484064763</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>415.1700134277344</v>
+      </c>
+      <c r="C251">
+        <v>416.15625</v>
+      </c>
+      <c r="D251">
+        <v>0.6893039279514142</v>
+      </c>
+      <c r="E251">
+        <v>-0.6819583780638337</v>
+      </c>
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="2">
         <v>45582</v>
       </c>
       <c r="B252">
-        <v>0.0001672193511736961</v>
+        <v>422.3599853515625</v>
+      </c>
+      <c r="C252">
+        <v>416.8455539279514</v>
+      </c>
+      <c r="D252">
+        <v>0.1266682942708144</v>
+      </c>
+      <c r="E252">
+        <v>-0.9999999981088094</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B253">
+        <v>417.1400146484375</v>
+      </c>
+      <c r="C253">
+        <v>416.9722222222222</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/Results.xlsx
+++ b/data_analysis/Results.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>Open</t>
   </si>
   <si>
     <t>Moving avg</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Diff</t>
@@ -28,16 +31,13 @@
     <t>Autocor</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Min</t>
+    <t>Max</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -429,4403 +429,4394 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45218</v>
+        <v>45230</v>
       </c>
       <c r="B2">
-        <v>329.6753959888417</v>
+        <v>336.3255414628046</v>
       </c>
       <c r="C2">
-        <v>329.6753959888417</v>
-      </c>
-      <c r="D2">
-        <v>-0.2133821806392575</v>
+        <v>336.3255414628046</v>
       </c>
       <c r="E2">
-        <v>1.000000000000022</v>
+        <v>0.4664882509737822</v>
+      </c>
+      <c r="F2">
+        <v>1.000000000000073</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45219</v>
+        <v>45231</v>
       </c>
       <c r="B3">
-        <v>329.2486316275631</v>
+        <v>337.2585179647521</v>
       </c>
       <c r="C3">
-        <v>329.4620138082024</v>
-      </c>
-      <c r="D3">
-        <v>-0.712976713773268</v>
+        <v>336.7920297137783</v>
       </c>
       <c r="E3">
-        <v>0.9976145537179705</v>
+        <v>2.62033516014634</v>
+      </c>
+      <c r="F3">
+        <v>0.9970084798942055</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45222</v>
+        <v>45232</v>
       </c>
       <c r="B4">
-        <v>323.0452233842431</v>
+        <v>344.6530351942174</v>
       </c>
       <c r="C4">
-        <v>327.3230836668826</v>
-      </c>
-      <c r="D4">
-        <v>0.3771760735863836</v>
+        <v>339.4123648739247</v>
       </c>
       <c r="E4">
-        <v>0.9921788771796584</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+        <v>1.903217294467083</v>
+      </c>
+      <c r="F4">
+        <v>0.9902011402498884</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45223</v>
+        <v>45233</v>
       </c>
       <c r="B5">
-        <v>328.8317879612282</v>
+        <v>347.0252340517931</v>
       </c>
       <c r="C5">
-        <v>327.700259740469</v>
-      </c>
-      <c r="D5">
-        <v>2.949859325502132</v>
+        <v>341.3155821683918</v>
       </c>
       <c r="E5">
-        <v>0.9847599813372911</v>
+        <v>0.6334124882270089</v>
+      </c>
+      <c r="F5">
+        <v>0.9807668876911604</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45224</v>
+        <v>45236</v>
       </c>
       <c r="B6">
-        <v>342.4495563679796</v>
+        <v>350.8167694917966</v>
       </c>
       <c r="C6">
-        <v>330.6501190659711</v>
-      </c>
-      <c r="D6">
-        <v>1.225467355787032</v>
+        <v>343.2158196330728</v>
       </c>
       <c r="E6">
-        <v>0.9752943900938704</v>
+        <v>2.251103126504518</v>
+      </c>
+      <c r="F6">
+        <v>0.9687292951254751</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45225</v>
+        <v>45237</v>
       </c>
       <c r="B7">
-        <v>338.0029232006933</v>
+        <v>356.7224383920999</v>
       </c>
       <c r="C7">
-        <v>331.8755864217582</v>
-      </c>
-      <c r="D7">
-        <v>-0.5581907977674518</v>
+        <v>345.4669227595773</v>
       </c>
       <c r="E7">
-        <v>0.9634533473747443</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
+        <v>1.931217515924743</v>
+      </c>
+      <c r="F7">
+        <v>0.9537941765427521</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45226</v>
+        <v>45238</v>
       </c>
       <c r="B8">
-        <v>327.9682508373861</v>
+        <v>358.9854453710504</v>
       </c>
       <c r="C8">
-        <v>331.3173956239907</v>
-      </c>
-      <c r="D8">
-        <v>0.05955536255398405</v>
+        <v>347.398140275502</v>
       </c>
       <c r="E8">
-        <v>0.9495133761590069</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <v>1.5253284257725</v>
+      </c>
+      <c r="F8">
+        <v>0.9362966384615065</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45229</v>
+        <v>45239</v>
       </c>
       <c r="B9">
-        <v>330.9260586024756</v>
+        <v>359.6007676816819</v>
       </c>
       <c r="C9">
-        <v>331.4960617116527</v>
-      </c>
-      <c r="D9">
-        <v>1.010982750124242</v>
+        <v>348.9234687012745</v>
       </c>
       <c r="E9">
-        <v>0.9343688295882402</v>
+        <v>1.097041600794398</v>
+      </c>
+      <c r="F9">
+        <v>0.9174214412268429</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45230</v>
+        <v>45240</v>
       </c>
       <c r="B10">
-        <v>336.3255108784327</v>
+        <v>358.7968431084245</v>
       </c>
       <c r="C10">
-        <v>332.5070444617769</v>
-      </c>
-      <c r="D10">
-        <v>0.5939341878718665</v>
+        <v>350.0205103020689</v>
       </c>
       <c r="E10">
-        <v>0.9184740363849937</v>
+        <v>2.251457703752408</v>
+      </c>
+      <c r="F10">
+        <v>0.897667365218472</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45231</v>
+        <v>45243</v>
       </c>
       <c r="B11">
-        <v>337.2585179647521</v>
+        <v>365.4766857964362</v>
       </c>
       <c r="C11">
-        <v>333.1009786496488</v>
-      </c>
-      <c r="D11">
-        <v>1.283558457957213</v>
+        <v>356.7748834133262</v>
       </c>
       <c r="E11">
-        <v>0.9022476957115551</v>
+        <v>3.031531081484843</v>
+      </c>
+      <c r="F11">
+        <v>0.8776761706313913</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45232</v>
+        <v>45244</v>
       </c>
       <c r="B12">
-        <v>344.6530047712634</v>
+        <v>368.2459516221875</v>
       </c>
       <c r="C12">
-        <v>334.384537107606</v>
-      </c>
-      <c r="D12">
-        <v>2.664445629727823</v>
+        <v>359.806414494811</v>
       </c>
       <c r="E12">
-        <v>0.886131747496875</v>
+        <v>1.181933024085879</v>
+      </c>
+      <c r="F12">
+        <v>0.8585408856848723</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45233</v>
+        <v>45245</v>
       </c>
       <c r="B13">
-        <v>347.0252340517931</v>
+        <v>369.2618786874986</v>
       </c>
       <c r="C13">
-        <v>337.0489827373338</v>
-      </c>
-      <c r="D13">
-        <v>0.7443065325057129</v>
+        <v>360.9883475188969</v>
       </c>
       <c r="E13">
-        <v>0.8701376435850775</v>
+        <v>0.8839205949072948</v>
+      </c>
+      <c r="F13">
+        <v>0.8399959603441407</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45236</v>
+        <v>45246</v>
       </c>
       <c r="B14">
-        <v>350.8167392378533</v>
+        <v>368.943632873062</v>
       </c>
       <c r="C14">
-        <v>339.2819023348509</v>
-      </c>
-      <c r="D14">
-        <v>4.107741079244761</v>
+        <v>361.8722681138042</v>
       </c>
       <c r="E14">
-        <v>0.8542827509356138</v>
+        <v>2.306933549329187</v>
+      </c>
+      <c r="F14">
+        <v>0.8217843364900319</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45237</v>
+        <v>45247</v>
       </c>
       <c r="B15">
-        <v>356.7224383920999</v>
+        <v>371.57917143576</v>
       </c>
       <c r="C15">
-        <v>343.3896434140957</v>
-      </c>
-      <c r="D15">
-        <v>1.94947524461935</v>
+        <v>364.1792016631334</v>
       </c>
       <c r="E15">
-        <v>0.8386081436924874</v>
+        <v>1.059617009050138</v>
+      </c>
+      <c r="F15">
+        <v>0.8040681960286298</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45238</v>
+        <v>45250</v>
       </c>
       <c r="B16">
-        <v>358.9854453710504</v>
+        <v>369.2022053086174</v>
       </c>
       <c r="C16">
-        <v>345.3391186587151</v>
-      </c>
-      <c r="D16">
-        <v>1.584627669218605</v>
+        <v>367.3580526902838</v>
       </c>
       <c r="E16">
-        <v>0.8231971608155977</v>
+        <v>2.118743697878131</v>
+      </c>
+      <c r="F16">
+        <v>0.7869951969476657</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45239</v>
+        <v>45251</v>
       </c>
       <c r="B17">
-        <v>359.6007676816819</v>
+        <v>373.6280489935717</v>
       </c>
       <c r="C17">
-        <v>346.9237463279337</v>
-      </c>
-      <c r="D17">
-        <v>3.096753833994342</v>
+        <v>369.4767963881619</v>
       </c>
       <c r="E17">
-        <v>0.8082575982953092</v>
+        <v>0.8085694125712735</v>
+      </c>
+      <c r="F17">
+        <v>0.7710836862629579</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45240</v>
+        <v>45252</v>
       </c>
       <c r="B18">
-        <v>358.7968431084245</v>
+        <v>375.9453516887322</v>
       </c>
       <c r="C18">
-        <v>350.020500161928</v>
-      </c>
-      <c r="D18">
-        <v>2.251459643135414</v>
+        <v>370.2853658007332</v>
       </c>
       <c r="E18">
-        <v>0.7939820329960687</v>
+        <v>0.6126418541423391</v>
+      </c>
+      <c r="F18">
+        <v>0.7562402354965926</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45243</v>
+        <v>45254</v>
       </c>
       <c r="B19">
-        <v>365.4766857964362</v>
+        <v>375.2789554627134</v>
       </c>
       <c r="C19">
-        <v>356.7748790913342</v>
-      </c>
-      <c r="D19">
-        <v>3.031531081484843</v>
+        <v>371.5106495090179</v>
       </c>
       <c r="E19">
-        <v>0.7800672407474971</v>
+        <v>0.6278776857857528</v>
+      </c>
+      <c r="F19">
+        <v>0.7418675525193262</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45244</v>
+        <v>45257</v>
       </c>
       <c r="B20">
-        <v>368.2459516221875</v>
+        <v>374.731962508856</v>
       </c>
       <c r="C20">
-        <v>359.8064101728191</v>
-      </c>
-      <c r="D20">
-        <v>1.181933564334884</v>
+        <v>373.3942825663751</v>
       </c>
       <c r="E20">
-        <v>0.7668832462671366</v>
+        <v>0.7857132200423962</v>
+      </c>
+      <c r="F20">
+        <v>0.7279269026530907</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45245</v>
+        <v>45258</v>
       </c>
       <c r="B21">
-        <v>369.2618786874986</v>
+        <v>376.2934507560147</v>
       </c>
       <c r="C21">
-        <v>360.988343737154</v>
-      </c>
-      <c r="D21">
-        <v>0.8839210151009524</v>
+        <v>374.1799957864175</v>
       </c>
       <c r="E21">
-        <v>0.7542549397623838</v>
+        <v>1.070580025934646</v>
+      </c>
+      <c r="F21">
+        <v>0.71462989927687</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45246</v>
+        <v>45259</v>
       </c>
       <c r="B22">
-        <v>368.943632873062</v>
+        <v>381.6740559679596</v>
       </c>
       <c r="C22">
-        <v>361.8722647522549</v>
-      </c>
-      <c r="D22">
-        <v>2.306936910878449</v>
+        <v>375.2505758123522</v>
       </c>
       <c r="E22">
-        <v>0.7421011782478116</v>
+        <v>0.1477582663172257</v>
+      </c>
+      <c r="F22">
+        <v>0.7020401545629018</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45247</v>
+        <v>45260</v>
       </c>
       <c r="B23">
-        <v>371.57917143576</v>
+        <v>376.43264194289</v>
       </c>
       <c r="C23">
-        <v>364.1792016631334</v>
-      </c>
-      <c r="D23">
-        <v>1.059617009050138</v>
+        <v>375.3983340786694</v>
       </c>
       <c r="E23">
-        <v>0.7302852823636294</v>
+        <v>0.6887374222038716</v>
+      </c>
+      <c r="F23">
+        <v>0.6903798955318705</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45250</v>
+        <v>45261</v>
       </c>
       <c r="B24">
-        <v>369.2022053086174</v>
+        <v>374.7121046862492</v>
       </c>
       <c r="C24">
-        <v>367.3580526902838</v>
-      </c>
-      <c r="D24">
-        <v>2.118743697878131</v>
+        <v>376.0870715008733</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>0.7190812905162748</v>
+        <v>-0.3044098024431605</v>
+      </c>
+      <c r="F24">
+        <v>0.6791795596819709</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45251</v>
+        <v>45264</v>
       </c>
       <c r="B25">
-        <v>373.6280489935717</v>
+        <v>367.0937233301231</v>
       </c>
       <c r="C25">
-        <v>369.4767963881619</v>
-      </c>
-      <c r="D25">
-        <v>0.8085694125712735</v>
+        <v>375.1738420935438</v>
       </c>
       <c r="E25">
-        <v>0.708849786619822</v>
+        <v>-1.545831582928827</v>
+      </c>
+      <c r="F25">
+        <v>0.6686828097758696</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45252</v>
+        <v>45265</v>
       </c>
       <c r="B26">
-        <v>375.9453516887322</v>
+        <v>364.4581343822117</v>
       </c>
       <c r="C26">
-        <v>370.2853658007332</v>
-      </c>
-      <c r="D26">
-        <v>0.6126418541423391</v>
+        <v>373.628010510615</v>
       </c>
       <c r="E26">
-        <v>0.6996638384373142</v>
+        <v>-0.2648045335857319</v>
+      </c>
+      <c r="F26">
+        <v>0.6585805869718863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="B27">
-        <v>375.2789554627134</v>
+        <v>371.5095742419293</v>
       </c>
       <c r="C27">
-        <v>371.5106495090179</v>
-      </c>
-      <c r="D27">
-        <v>0.6278776857857528</v>
+        <v>373.3632059770292</v>
       </c>
       <c r="E27">
-        <v>0.6909587493984517</v>
+        <v>-0.7927485691359948</v>
+      </c>
+      <c r="F27">
+        <v>0.6483037861352999</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45257</v>
+        <v>45267</v>
       </c>
       <c r="B28">
-        <v>374.731962508856</v>
+        <v>366.2284688548053</v>
       </c>
       <c r="C28">
-        <v>373.3942825663751</v>
-      </c>
-      <c r="D28">
-        <v>0.7857132200423962</v>
+        <v>372.5704574078932</v>
       </c>
       <c r="E28">
-        <v>0.6830759604440995</v>
+        <v>-0.8376398464908448</v>
+      </c>
+      <c r="F28">
+        <v>0.6383938802584987</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45258</v>
+        <v>45268</v>
       </c>
       <c r="B29">
-        <v>376.2934507560147</v>
+        <v>367.1932038904382</v>
       </c>
       <c r="C29">
-        <v>374.1799957864175</v>
-      </c>
-      <c r="D29">
-        <v>1.070580025934646</v>
+        <v>371.7328175614024</v>
       </c>
       <c r="E29">
-        <v>0.6761330515131435</v>
+        <v>-1.164637782472009</v>
+      </c>
+      <c r="F29">
+        <v>0.6286099982889924</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45259</v>
+        <v>45271</v>
       </c>
       <c r="B30">
-        <v>381.6740559679596</v>
+        <v>366.4771201121479</v>
       </c>
       <c r="C30">
-        <v>375.2505758123522</v>
-      </c>
-      <c r="D30">
-        <v>0.1477582663172257</v>
+        <v>368.2389042139864</v>
       </c>
       <c r="E30">
-        <v>0.6698856390157442</v>
+        <v>-0.8396977328729918</v>
+      </c>
+      <c r="F30">
+        <v>0.6188514717531092</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45260</v>
+        <v>45272</v>
       </c>
       <c r="B31">
-        <v>376.43264194289</v>
+        <v>368.8342205561381</v>
       </c>
       <c r="C31">
-        <v>375.3983340786694</v>
-      </c>
-      <c r="D31">
-        <v>0.6887374222038716</v>
+        <v>367.3992064811134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>0.6642943774190184</v>
+        <v>0.8221088904370504</v>
+      </c>
+      <c r="F31">
+        <v>0.6083103262581057</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45261</v>
+        <v>45273</v>
       </c>
       <c r="B32">
-        <v>374.7121046862492</v>
+        <v>373.9760776046103</v>
       </c>
       <c r="C32">
-        <v>376.0870715008733</v>
-      </c>
-      <c r="D32">
-        <v>-0.3044098024431605</v>
+        <v>368.2213153715504</v>
       </c>
       <c r="E32">
-        <v>0.6592770597358273</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
+        <v>0.3399470379381455</v>
+      </c>
+      <c r="F32">
+        <v>0.5980318887937214</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45264</v>
+        <v>45274</v>
       </c>
       <c r="B33">
-        <v>367.0937233301231</v>
+        <v>371.280838712993</v>
       </c>
       <c r="C33">
-        <v>375.1738420935438</v>
-      </c>
-      <c r="D33">
-        <v>-1.545831582928827</v>
+        <v>368.5612624094886</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>0.6548244483287002</v>
+        <v>-0.2486404250730061</v>
+      </c>
+      <c r="F33">
+        <v>0.5883197383509258</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45265</v>
+        <v>45275</v>
       </c>
       <c r="B34">
-        <v>364.4581343822117</v>
+        <v>364.8559595044662</v>
       </c>
       <c r="C34">
-        <v>373.628010510615</v>
-      </c>
-      <c r="D34">
-        <v>-0.2648045335857319</v>
+        <v>368.3126219844156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>0.6504346438276259</v>
+        <v>0.08908897663212656</v>
+      </c>
+      <c r="F34">
+        <v>0.5788883538223751</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45266</v>
+        <v>45278</v>
       </c>
       <c r="B35">
-        <v>371.5095742419293</v>
+        <v>367.4418020193896</v>
       </c>
       <c r="C35">
-        <v>373.3632059770292</v>
-      </c>
-      <c r="D35">
-        <v>-0.7927485691359948</v>
+        <v>368.5798889143119</v>
       </c>
       <c r="E35">
-        <v>0.6462260434415962</v>
+        <v>0.3253581933900591</v>
+      </c>
+      <c r="F35">
+        <v>0.5700809380310403</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45267</v>
+        <v>45279</v>
       </c>
       <c r="B36">
-        <v>366.2284688548053</v>
+        <v>369.4707112441685</v>
       </c>
       <c r="C36">
-        <v>372.5704574078932</v>
-      </c>
-      <c r="D36">
-        <v>-0.8376398464908448</v>
+        <v>368.905247107702</v>
       </c>
       <c r="E36">
-        <v>0.6427150349851881</v>
+        <v>0.5070523444819628</v>
+      </c>
+      <c r="F36">
+        <v>0.5624212220624898</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45268</v>
+        <v>45280</v>
       </c>
       <c r="B37">
-        <v>367.1932038904382</v>
+        <v>372.961665863558</v>
       </c>
       <c r="C37">
-        <v>371.7328175614024</v>
-      </c>
-      <c r="D37">
-        <v>-1.164637782472009</v>
+        <v>369.412299452184</v>
       </c>
       <c r="E37">
-        <v>0.6401774099045274</v>
+        <v>0.1247332289001406</v>
+      </c>
+      <c r="F37">
+        <v>0.5564175854145255</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45271</v>
+        <v>45281</v>
       </c>
       <c r="B38">
-        <v>366.4771201121479</v>
+        <v>370.5348985122851</v>
       </c>
       <c r="C38">
-        <v>368.2389042139864</v>
-      </c>
-      <c r="D38">
-        <v>-0.8396977328729918</v>
+        <v>369.5370326810841</v>
       </c>
       <c r="E38">
-        <v>0.6382242698738075</v>
+        <v>0.5746359165451054</v>
+      </c>
+      <c r="F38">
+        <v>0.5516628845546409</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45272</v>
+        <v>45282</v>
       </c>
       <c r="B39">
-        <v>368.8342205561381</v>
+        <v>371.648843361054</v>
       </c>
       <c r="C39">
-        <v>367.3992064811134</v>
-      </c>
-      <c r="D39">
-        <v>0.8221088904370504</v>
+        <v>370.1116685976292</v>
       </c>
       <c r="E39">
-        <v>0.6361013066573343</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
+        <v>0.1812317629072027</v>
+      </c>
+      <c r="F39">
+        <v>0.5477659809140818</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45273</v>
+        <v>45286</v>
       </c>
       <c r="B40">
-        <v>373.9760776046103</v>
+        <v>372.9616528950932</v>
       </c>
       <c r="C40">
-        <v>368.2213153715504</v>
-      </c>
-      <c r="D40">
-        <v>0.3399470379381455</v>
+        <v>370.836595649258</v>
       </c>
       <c r="E40">
-        <v>0.6343702420921842</v>
+        <v>0.117453952670985</v>
+      </c>
+      <c r="F40">
+        <v>0.5446261339291415</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45274</v>
+        <v>45287</v>
       </c>
       <c r="B41">
-        <v>371.280838712993</v>
+        <v>371.6587733179547</v>
       </c>
       <c r="C41">
-        <v>368.5612624094886</v>
-      </c>
-      <c r="D41">
-        <v>-0.2486404250730061</v>
+        <v>370.954049601929</v>
       </c>
       <c r="E41">
-        <v>0.6332125010832808</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
+        <v>0.2969462316342515</v>
+      </c>
+      <c r="F41">
+        <v>0.5420097893409231</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45275</v>
+        <v>45288</v>
       </c>
       <c r="B42">
-        <v>364.8559595044662</v>
+        <v>373.3296194550034</v>
       </c>
       <c r="C42">
-        <v>368.3126219844156</v>
-      </c>
-      <c r="D42">
-        <v>0.08908897663212656</v>
+        <v>371.2509958335633</v>
       </c>
       <c r="E42">
-        <v>0.6324811080197462</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
+        <v>0.814301137968755</v>
+      </c>
+      <c r="F42">
+        <v>0.5398496747584312</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45278</v>
+        <v>45289</v>
       </c>
       <c r="B43">
-        <v>367.4418020193896</v>
+        <v>373.9562111231392</v>
       </c>
       <c r="C43">
-        <v>368.5798889143119</v>
-      </c>
-      <c r="D43">
-        <v>0.3253581933900591</v>
+        <v>372.065296971532</v>
       </c>
       <c r="E43">
-        <v>0.6316666339799223</v>
+        <v>0.1703802623174795</v>
+      </c>
+      <c r="F43">
+        <v>0.5377061510925113</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45279</v>
+        <v>45293</v>
       </c>
       <c r="B44">
-        <v>369.4707112441685</v>
+        <v>371.8278333128194</v>
       </c>
       <c r="C44">
-        <v>368.905247107702</v>
-      </c>
-      <c r="D44">
-        <v>0.5070523444819628</v>
+        <v>372.7468180208019</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>0.6306523802155707</v>
+        <v>-0.9571000799062972</v>
+      </c>
+      <c r="F44">
+        <v>0.5354143994535706</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45280</v>
+        <v>45294</v>
       </c>
       <c r="B45">
-        <v>372.961665863558</v>
+        <v>367.0042175413639</v>
       </c>
       <c r="C45">
-        <v>369.412299452184</v>
-      </c>
-      <c r="D45">
-        <v>0.1247332289001406</v>
+        <v>371.7897179408956</v>
       </c>
       <c r="E45">
-        <v>0.628958802510614</v>
+        <v>-0.447791992680834</v>
+      </c>
+      <c r="F45">
+        <v>0.5322419726616285</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45281</v>
+        <v>45295</v>
       </c>
       <c r="B46">
-        <v>370.5348985122851</v>
+        <v>368.6551739921296</v>
       </c>
       <c r="C46">
-        <v>369.5370326810841</v>
-      </c>
-      <c r="D46">
-        <v>0.5746359165451054</v>
+        <v>371.3419259482148</v>
       </c>
       <c r="E46">
-        <v>0.6262319040578976</v>
+        <v>-0.547189829563365</v>
+      </c>
+      <c r="F46">
+        <v>0.527410290318471</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45282</v>
+        <v>45296</v>
       </c>
       <c r="B47">
-        <v>371.648843361054</v>
+        <v>366.9644073117081</v>
       </c>
       <c r="C47">
-        <v>370.1116685976292</v>
-      </c>
-      <c r="D47">
-        <v>0.1812317629072027</v>
+        <v>370.7947361186514</v>
       </c>
       <c r="E47">
-        <v>0.622613782671355</v>
+        <v>-0.5037744154309394</v>
+      </c>
+      <c r="F47">
+        <v>0.5212479038717776</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45286</v>
+        <v>45299</v>
       </c>
       <c r="B48">
-        <v>372.9616528950932</v>
+        <v>367.292633952991</v>
       </c>
       <c r="C48">
-        <v>370.836595649258</v>
-      </c>
-      <c r="D48">
-        <v>0.117453952670985</v>
+        <v>369.2834128723586</v>
       </c>
       <c r="E48">
-        <v>0.6181430994657312</v>
+        <v>-0.6613863625316299</v>
+      </c>
+      <c r="F48">
+        <v>0.5135815619139618</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45287</v>
+        <v>45300</v>
       </c>
       <c r="B49">
-        <v>371.6587733179547</v>
+        <v>369.9878929479498</v>
       </c>
       <c r="C49">
-        <v>370.954049601929</v>
-      </c>
-      <c r="D49">
-        <v>0.2969462316342515</v>
+        <v>368.622026509827</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>0.6129396926447922</v>
+        <v>0.8145985292183013</v>
+      </c>
+      <c r="F49">
+        <v>0.5042109048908341</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45288</v>
+        <v>45301</v>
       </c>
       <c r="B50">
-        <v>373.3296194550034</v>
+        <v>374.3242162143558</v>
       </c>
       <c r="C50">
-        <v>371.2509958335633</v>
-      </c>
-      <c r="D50">
-        <v>0.814301137968755</v>
+        <v>369.4366250390453</v>
       </c>
       <c r="E50">
-        <v>0.6074867412689592</v>
+        <v>1.808153745155266</v>
+      </c>
+      <c r="F50">
+        <v>0.4941770613881062</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="B51">
-        <v>373.9562111231392</v>
+        <v>383.9018550002872</v>
       </c>
       <c r="C51">
-        <v>372.065296971532</v>
-      </c>
-      <c r="D51">
-        <v>0.1703802623174795</v>
+        <v>371.2447787842005</v>
       </c>
       <c r="E51">
-        <v>0.6013763800862352</v>
+        <v>1.349981929836531</v>
+      </c>
+      <c r="F51">
+        <v>0.4832747845367276</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45293</v>
+        <v>45303</v>
       </c>
       <c r="B52">
-        <v>371.8278333128194</v>
+        <v>383.3946161527287</v>
       </c>
       <c r="C52">
-        <v>372.7468180208019</v>
-      </c>
-      <c r="D52">
-        <v>-0.9571000799062972</v>
+        <v>372.5947607140371</v>
       </c>
       <c r="E52">
-        <v>0.5949029683676361</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
+        <v>1.452203712942534</v>
+      </c>
+      <c r="F52">
+        <v>0.4719246497670866</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45294</v>
+        <v>45307</v>
       </c>
       <c r="B53">
-        <v>367.0042175413639</v>
+        <v>391.520239126531</v>
       </c>
       <c r="C53">
-        <v>371.7897179408956</v>
-      </c>
-      <c r="D53">
-        <v>-0.447791992680834</v>
+        <v>378.4035755658072</v>
       </c>
       <c r="E53">
-        <v>0.5883104196920839</v>
+        <v>1.066794346077131</v>
+      </c>
+      <c r="F53">
+        <v>0.4604122772250165</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45295</v>
+        <v>45308</v>
       </c>
       <c r="B54">
-        <v>368.6551739921296</v>
+        <v>385.871135988347</v>
       </c>
       <c r="C54">
-        <v>371.3419259482148</v>
-      </c>
-      <c r="D54">
-        <v>-0.547189829563365</v>
+        <v>379.4703699118843</v>
       </c>
       <c r="E54">
-        <v>0.5815986516342356</v>
+        <v>1.265048462099571</v>
+      </c>
+      <c r="F54">
+        <v>0.4511389328816739</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45296</v>
+        <v>45309</v>
       </c>
       <c r="B55">
-        <v>366.9644073117081</v>
+        <v>389.590757608681</v>
       </c>
       <c r="C55">
-        <v>370.7947361186514</v>
-      </c>
-      <c r="D55">
-        <v>-0.5037744154309394</v>
+        <v>380.7354183739839</v>
       </c>
       <c r="E55">
-        <v>0.5754092250051397</v>
+        <v>3.289521351363476</v>
+      </c>
+      <c r="F55">
+        <v>0.443403214386862</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45299</v>
+        <v>45310</v>
       </c>
       <c r="B56">
-        <v>367.292633952991</v>
+        <v>393.6088047638987</v>
       </c>
       <c r="C56">
-        <v>369.2834128723586</v>
-      </c>
-      <c r="D56">
-        <v>-0.6613863625316299</v>
+        <v>384.0249397253474</v>
       </c>
       <c r="E56">
-        <v>0.5699488588396512</v>
+        <v>2.093419554941875</v>
+      </c>
+      <c r="F56">
+        <v>0.4374682469819219</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="B57">
-        <v>369.9878929479498</v>
+        <v>397.8456367008518</v>
       </c>
       <c r="C57">
-        <v>368.622026509827</v>
-      </c>
-      <c r="D57">
-        <v>0.8145985292183013</v>
+        <v>390.305198390173</v>
       </c>
       <c r="E57">
-        <v>0.5646019550981186</v>
-      </c>
-      <c r="F57" t="s">
-        <v>6</v>
+        <v>1.700705355318405</v>
+      </c>
+      <c r="F57">
+        <v>0.4331900277421278</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45301</v>
+        <v>45314</v>
       </c>
       <c r="B58">
-        <v>374.3242162143558</v>
+        <v>393.598848284639</v>
       </c>
       <c r="C58">
-        <v>369.4366250390453</v>
-      </c>
-      <c r="D58">
-        <v>1.808153745155266</v>
+        <v>392.0059037454914</v>
       </c>
       <c r="E58">
-        <v>0.5590138804851275</v>
+        <v>1.050211100886202</v>
+      </c>
+      <c r="F58">
+        <v>0.4320680348021467</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B59">
-        <v>383.9018550002872</v>
+        <v>399.3573814516948</v>
       </c>
       <c r="C59">
-        <v>371.2447787842005</v>
-      </c>
-      <c r="D59">
-        <v>1.349981929836531</v>
+        <v>393.0561148463776</v>
       </c>
       <c r="E59">
-        <v>0.5537688381779577</v>
+        <v>1.133270985489673</v>
+      </c>
+      <c r="F59">
+        <v>0.4322699735451799</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45303</v>
+        <v>45316</v>
       </c>
       <c r="B60">
-        <v>383.3946161527287</v>
+        <v>402.1222827302953</v>
       </c>
       <c r="C60">
-        <v>372.5947607140371</v>
-      </c>
-      <c r="D60">
-        <v>1.452203712942534</v>
+        <v>394.1893858318673</v>
       </c>
       <c r="E60">
-        <v>0.5493394373270755</v>
+        <v>0.8869589406522778</v>
+      </c>
+      <c r="F60">
+        <v>0.4330550679809793</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45307</v>
+        <v>45317</v>
       </c>
       <c r="B61">
-        <v>391.520239126531</v>
+        <v>402.1720162977375</v>
       </c>
       <c r="C61">
-        <v>378.4035755658072</v>
-      </c>
-      <c r="D61">
-        <v>1.066794346077131</v>
+        <v>395.0763447725196</v>
       </c>
       <c r="E61">
-        <v>0.5444823096193955</v>
+        <v>1.286827022000314</v>
+      </c>
+      <c r="F61">
+        <v>0.4335158705402412</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45308</v>
+        <v>45320</v>
       </c>
       <c r="B62">
-        <v>385.871135988347</v>
+        <v>403.8528106405262</v>
       </c>
       <c r="C62">
-        <v>379.4703699118843</v>
-      </c>
-      <c r="D62">
-        <v>1.265048462099571</v>
+        <v>398.9368258385205</v>
       </c>
       <c r="E62">
-        <v>0.5399933383405865</v>
+        <v>2.34433423767814</v>
+      </c>
+      <c r="F62">
+        <v>0.4330615115906958</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45309</v>
+        <v>45321</v>
       </c>
       <c r="B63">
-        <v>389.590757608681</v>
+        <v>410.0191444276463</v>
       </c>
       <c r="C63">
-        <v>380.7354183739839</v>
-      </c>
-      <c r="D63">
-        <v>3.289521351363476</v>
+        <v>401.2811600761987</v>
       </c>
       <c r="E63">
-        <v>0.5351912797567733</v>
+        <v>0.4333467471548147</v>
+      </c>
+      <c r="F63">
+        <v>0.4339471127246072</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45310</v>
+        <v>45322</v>
       </c>
       <c r="B64">
-        <v>393.6088047638987</v>
+        <v>404.7479340534368</v>
       </c>
       <c r="C64">
-        <v>384.0249397253474</v>
-      </c>
-      <c r="D64">
-        <v>2.093419554941875</v>
+        <v>401.7145068233535</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>0.5297633311601629</v>
+        <v>-0.2298537845810529</v>
+      </c>
+      <c r="F64">
+        <v>0.4349956837712667</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45313</v>
+        <v>45323</v>
       </c>
       <c r="B65">
-        <v>397.8456367008518</v>
+        <v>399.645822762124</v>
       </c>
       <c r="C65">
-        <v>390.305198390173</v>
-      </c>
-      <c r="D65">
-        <v>1.700705355318405</v>
+        <v>401.4846530387724</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>0.523731687699605</v>
+        <v>0.418819916755524</v>
+      </c>
+      <c r="F65">
+        <v>0.4342568138019477</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45314</v>
+        <v>45324</v>
       </c>
       <c r="B66">
-        <v>393.598848284639</v>
+        <v>401.6150159516513</v>
       </c>
       <c r="C66">
-        <v>392.0059037454914</v>
-      </c>
-      <c r="D66">
-        <v>1.050211100886202</v>
+        <v>401.9034729555279</v>
       </c>
       <c r="E66">
-        <v>0.5189152470229723</v>
+        <v>0.780971465318847</v>
+      </c>
+      <c r="F66">
+        <v>0.4320011075522787</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45315</v>
+        <v>45327</v>
       </c>
       <c r="B67">
-        <v>399.3573814516948</v>
+        <v>407.6719673272692</v>
       </c>
       <c r="C67">
-        <v>393.0561148463776</v>
-      </c>
-      <c r="D67">
-        <v>1.133270985489673</v>
+        <v>404.2463873514845</v>
       </c>
       <c r="E67">
-        <v>0.51480313959171</v>
+        <v>0.214538148507188</v>
+      </c>
+      <c r="F67">
+        <v>0.4292602771322152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45316</v>
+        <v>45328</v>
       </c>
       <c r="B68">
-        <v>402.1222827302953</v>
+        <v>403.6737833372877</v>
       </c>
       <c r="C68">
-        <v>394.1893858318673</v>
-      </c>
-      <c r="D68">
-        <v>0.8869589406522778</v>
+        <v>404.4609254999917</v>
       </c>
       <c r="E68">
-        <v>0.5107944423503953</v>
+        <v>0.09555323255193571</v>
+      </c>
+      <c r="F68">
+        <v>0.4273372122475452</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45317</v>
+        <v>45329</v>
       </c>
       <c r="B69">
-        <v>402.1720162977375</v>
+        <v>405.2253513604076</v>
       </c>
       <c r="C69">
-        <v>395.0763447725196</v>
-      </c>
-      <c r="D69">
-        <v>1.286827022000314</v>
+        <v>404.5564787325436</v>
       </c>
       <c r="E69">
-        <v>0.5064497618167291</v>
+        <v>0.8047654599615726</v>
+      </c>
+      <c r="F69">
+        <v>0.4245038716664407</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45320</v>
+        <v>45330</v>
       </c>
       <c r="B70">
-        <v>403.8528106405262</v>
+        <v>411.7993678721975</v>
       </c>
       <c r="C70">
-        <v>398.9368258385205</v>
-      </c>
-      <c r="D70">
-        <v>2.34433423767814</v>
+        <v>405.3612441925052</v>
       </c>
       <c r="E70">
-        <v>0.5021513537039137</v>
+        <v>1.01556092992746</v>
+      </c>
+      <c r="F70">
+        <v>0.420978487618355</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45321</v>
+        <v>45331</v>
       </c>
       <c r="B71">
-        <v>410.0191444276463</v>
+        <v>412.9928590098735</v>
       </c>
       <c r="C71">
-        <v>401.2811600761987</v>
-      </c>
-      <c r="D71">
-        <v>0.4333467471548147</v>
+        <v>406.3768051224326</v>
       </c>
       <c r="E71">
-        <v>0.4998204510278061</v>
+        <v>0.7911759813700693</v>
+      </c>
+      <c r="F71">
+        <v>0.4180202282592818</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45322</v>
+        <v>45334</v>
       </c>
       <c r="B72">
-        <v>404.7479340534368</v>
+        <v>418.2739866071132</v>
       </c>
       <c r="C72">
-        <v>401.7145068233535</v>
-      </c>
-      <c r="D72">
-        <v>-0.2298537845810529</v>
+        <v>408.7503330665429</v>
       </c>
       <c r="E72">
-        <v>0.498458772841767</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
+        <v>0.1605527950844703</v>
+      </c>
+      <c r="F72">
+        <v>0.415841867594029</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45323</v>
+        <v>45335</v>
       </c>
       <c r="B73">
-        <v>399.645822762124</v>
+        <v>402.7388855172427</v>
       </c>
       <c r="C73">
-        <v>401.4846530387724</v>
-      </c>
-      <c r="D73">
-        <v>0.418819916755524</v>
+        <v>408.9108858616273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>0.497218663546304</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
+        <v>-0.2885611125900027</v>
+      </c>
+      <c r="F73">
+        <v>0.4156001093848443</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45324</v>
+        <v>45336</v>
       </c>
       <c r="B74">
-        <v>401.6150159516513</v>
+        <v>406.6023969609074</v>
       </c>
       <c r="C74">
-        <v>401.9034729555279</v>
-      </c>
-      <c r="D74">
-        <v>0.780971465318847</v>
+        <v>408.6223247490373</v>
       </c>
       <c r="E74">
-        <v>0.4957555151515331</v>
+        <v>-0.2166834110928448</v>
+      </c>
+      <c r="F74">
+        <v>0.4156417123494217</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45327</v>
+        <v>45337</v>
       </c>
       <c r="B75">
-        <v>407.6719673272692</v>
+        <v>406.6721740492015</v>
       </c>
       <c r="C75">
-        <v>404.2463873514845</v>
-      </c>
-      <c r="D75">
-        <v>0.214538148507188</v>
+        <v>408.4056413379445</v>
       </c>
       <c r="E75">
-        <v>0.4941617211238157</v>
+        <v>-0.131017474586713</v>
+      </c>
+      <c r="F75">
+        <v>0.4155651457892209</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45328</v>
+        <v>45338</v>
       </c>
       <c r="B76">
-        <v>403.6737833372877</v>
+        <v>406.4928100559887</v>
       </c>
       <c r="C76">
-        <v>404.4609254999917</v>
-      </c>
-      <c r="D76">
-        <v>0.09555323255193571</v>
+        <v>408.2746238633578</v>
       </c>
       <c r="E76">
-        <v>0.4929436553814209</v>
+        <v>-0.2949052701668222</v>
+      </c>
+      <c r="F76">
+        <v>0.4150845246868426</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B77">
-        <v>405.2253513604076</v>
+        <v>401.7897635056893</v>
       </c>
       <c r="C77">
-        <v>404.5564787325436</v>
-      </c>
-      <c r="D77">
-        <v>0.8047654599615726</v>
+        <v>407.0950027826905</v>
       </c>
       <c r="E77">
-        <v>0.4910163952696517</v>
+        <v>-1.194881677627222</v>
+      </c>
+      <c r="F77">
+        <v>0.4147196124564109</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45330</v>
+        <v>45343</v>
       </c>
       <c r="B78">
-        <v>411.7993678721975</v>
+        <v>398.7308310393001</v>
       </c>
       <c r="C78">
-        <v>405.3612441925052</v>
-      </c>
-      <c r="D78">
-        <v>1.01556092992746</v>
+        <v>405.9001211050632</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>0.489034075510041</v>
+        <v>0.351832917200511</v>
+      </c>
+      <c r="F78">
+        <v>0.4137209562692373</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45331</v>
+        <v>45344</v>
       </c>
       <c r="B79">
-        <v>412.9928590098735</v>
+        <v>408.7147844426672</v>
       </c>
       <c r="C79">
-        <v>406.3768051224326</v>
-      </c>
-      <c r="D79">
-        <v>0.7911759813700693</v>
+        <v>406.2519540222638</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>0.4873722306497443</v>
+        <v>-0.512363923151554</v>
+      </c>
+      <c r="F79">
+        <v>0.4117550575921665</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45334</v>
+        <v>45345</v>
       </c>
       <c r="B80">
-        <v>418.2739866071132</v>
+        <v>414.175075221901</v>
       </c>
       <c r="C80">
-        <v>408.7503330665429</v>
-      </c>
-      <c r="D80">
-        <v>0.1605527950844703</v>
+        <v>405.7395900991122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>0.4864640008403902</v>
+        <v>0.3025510473230686</v>
+      </c>
+      <c r="F80">
+        <v>0.4101215635270727</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45335</v>
+        <v>45348</v>
       </c>
       <c r="B81">
-        <v>402.7388855172427</v>
+        <v>409.980195180942</v>
       </c>
       <c r="C81">
-        <v>408.9108858616273</v>
-      </c>
-      <c r="D81">
-        <v>-0.2885611125900027</v>
+        <v>406.6472432410814</v>
       </c>
       <c r="E81">
-        <v>0.4869408151164411</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
+        <v>0.004981999371523216</v>
+      </c>
+      <c r="F81">
+        <v>0.4075611365360878</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45336</v>
+        <v>45349</v>
       </c>
       <c r="B82">
-        <v>406.6023969609074</v>
+        <v>406.5227020522181</v>
       </c>
       <c r="C82">
-        <v>408.6223247490373</v>
-      </c>
-      <c r="D82">
-        <v>-0.2166834110928448</v>
+        <v>406.6522252404529</v>
       </c>
       <c r="E82">
-        <v>0.4871027451064996</v>
+        <v>0.008543506561522918</v>
+      </c>
+      <c r="F82">
+        <v>0.4052310088694751</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="B83">
-        <v>406.6721740492015</v>
+        <v>406.7120297863833</v>
       </c>
       <c r="C83">
-        <v>408.4056413379445</v>
-      </c>
-      <c r="D83">
-        <v>-0.131017474586713</v>
+        <v>406.6607687470145</v>
       </c>
       <c r="E83">
-        <v>0.4870114183109194</v>
+        <v>0.06370224708376782</v>
+      </c>
+      <c r="F83">
+        <v>0.4026719039490486</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="B84">
-        <v>406.4928100559887</v>
+        <v>407.1703867236849</v>
       </c>
       <c r="C84">
-        <v>408.2746238633578</v>
-      </c>
-      <c r="D84">
-        <v>-0.2949052701668222</v>
+        <v>406.7244709940982</v>
       </c>
       <c r="E84">
-        <v>0.4868647247077141</v>
+        <v>0.3407119221607786</v>
+      </c>
+      <c r="F84">
+        <v>0.3997846144130812</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45342</v>
+        <v>45352</v>
       </c>
       <c r="B85">
-        <v>401.7897635056893</v>
+        <v>409.7908782935449</v>
       </c>
       <c r="C85">
-        <v>407.0950027826905</v>
-      </c>
-      <c r="D85">
-        <v>-1.194881677627222</v>
+        <v>407.065182916259</v>
       </c>
       <c r="E85">
-        <v>0.4862179938454374</v>
+        <v>0.8022901894792085</v>
+      </c>
+      <c r="F85">
+        <v>0.3962845262050904</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45343</v>
+        <v>45355</v>
       </c>
       <c r="B86">
-        <v>398.7308310393001</v>
+        <v>411.9531071342025</v>
       </c>
       <c r="C86">
-        <v>405.9001211050632</v>
-      </c>
-      <c r="D86">
-        <v>0.351832917200511</v>
+        <v>409.4720534846966</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>0.4827968585835745</v>
-      </c>
-      <c r="F86" t="s">
-        <v>6</v>
+        <v>-0.2434069454430414</v>
+      </c>
+      <c r="F86">
+        <v>0.3919975879250656</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45344</v>
+        <v>45356</v>
       </c>
       <c r="B87">
-        <v>408.7147844426672</v>
+        <v>412.4712266037999</v>
       </c>
       <c r="C87">
-        <v>406.2519540222638</v>
-      </c>
-      <c r="D87">
-        <v>-0.512363923151554</v>
+        <v>409.2286465392536</v>
       </c>
       <c r="E87">
-        <v>0.4770942286048294</v>
-      </c>
-      <c r="F87" t="s">
-        <v>7</v>
+        <v>-0.9634857006655011</v>
+      </c>
+      <c r="F87">
+        <v>0.3887150009111835</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45345</v>
+        <v>45357</v>
       </c>
       <c r="B88">
-        <v>414.175075221901</v>
+        <v>401.5207609339292</v>
       </c>
       <c r="C88">
-        <v>405.7395900991122</v>
-      </c>
-      <c r="D88">
-        <v>0.3025510473230686</v>
+        <v>408.2651608385881</v>
       </c>
       <c r="E88">
-        <v>0.4703810613430904</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
+        <v>-0.4006377819520708</v>
+      </c>
+      <c r="F88">
+        <v>0.383830845209136</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45348</v>
+        <v>45358</v>
       </c>
       <c r="B89">
-        <v>409.980195180942</v>
+        <v>404.6594208010195</v>
       </c>
       <c r="C89">
-        <v>406.6472432410814</v>
-      </c>
-      <c r="D89">
-        <v>0.004981999371523216</v>
+        <v>407.864523056636</v>
       </c>
       <c r="E89">
-        <v>0.4613590019721155</v>
+        <v>-0.3874887733921355</v>
+      </c>
+      <c r="F89">
+        <v>0.376615653852877</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45349</v>
+        <v>45359</v>
       </c>
       <c r="B90">
-        <v>406.5227020522181</v>
+        <v>406.4927962204137</v>
       </c>
       <c r="C90">
-        <v>406.6522252404529</v>
-      </c>
-      <c r="D90">
-        <v>0.008543506561522918</v>
+        <v>407.4770342832439</v>
       </c>
       <c r="E90">
-        <v>0.4503638899018034</v>
+        <v>-0.1496733805146278</v>
+      </c>
+      <c r="F90">
+        <v>0.3672350750175946</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45350</v>
+        <v>45362</v>
       </c>
       <c r="B91">
-        <v>406.7120297863833</v>
+        <v>402.3079090049905</v>
       </c>
       <c r="C91">
-        <v>406.6607687470145</v>
-      </c>
-      <c r="D91">
-        <v>0.06370224708376782</v>
+        <v>407.0280141417</v>
       </c>
       <c r="E91">
-        <v>0.4370555233742999</v>
+        <v>-0.5195520991114222</v>
+      </c>
+      <c r="F91">
+        <v>0.3551318458776962</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45351</v>
+        <v>45363</v>
       </c>
       <c r="B92">
-        <v>407.1703867236849</v>
+        <v>406.1540135997644</v>
       </c>
       <c r="C92">
-        <v>406.7244709940982</v>
-      </c>
-      <c r="D92">
-        <v>0.3407119221607786</v>
+        <v>406.5084620425886</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
       </c>
       <c r="E92">
-        <v>0.4216691316331378</v>
+        <v>1.260987002896741</v>
+      </c>
+      <c r="F92">
+        <v>0.3401197819165704</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45352</v>
+        <v>45364</v>
       </c>
       <c r="B93">
-        <v>409.7908782935449</v>
+        <v>416.5963580657627</v>
       </c>
       <c r="C93">
-        <v>407.065182916259</v>
-      </c>
-      <c r="D93">
-        <v>0.8022901894792085</v>
+        <v>407.7694490454853</v>
       </c>
       <c r="E93">
-        <v>0.4044548005655634</v>
+        <v>1.217687222581731</v>
+      </c>
+      <c r="F93">
+        <v>0.3220461381296235</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45355</v>
+        <v>45365</v>
       </c>
       <c r="B94">
-        <v>411.9531071342025</v>
+        <v>418.7286340487209</v>
       </c>
       <c r="C94">
-        <v>409.4720534846966</v>
-      </c>
-      <c r="D94">
-        <v>-0.2434069454430414</v>
+        <v>408.987136268067</v>
       </c>
       <c r="E94">
-        <v>0.385966642251501</v>
-      </c>
-      <c r="F94" t="s">
-        <v>7</v>
+        <v>0.6476622316941985</v>
+      </c>
+      <c r="F94">
+        <v>0.302672694716638</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45356</v>
+        <v>45366</v>
       </c>
       <c r="B95">
-        <v>412.4712266037999</v>
+        <v>417.7820672194502</v>
       </c>
       <c r="C95">
-        <v>409.2286465392536</v>
-      </c>
-      <c r="D95">
-        <v>-0.9634857006655011</v>
+        <v>409.6347984997612</v>
       </c>
       <c r="E95">
-        <v>0.3692512318828411</v>
+        <v>0.6370654846842664</v>
+      </c>
+      <c r="F95">
+        <v>0.2832063948706072</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45357</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>401.5207609339292</v>
+        <v>412.7601865175957</v>
       </c>
       <c r="C96">
-        <v>408.2651608385881</v>
-      </c>
-      <c r="D96">
-        <v>-0.4006377819520708</v>
+        <v>411.545994953814</v>
       </c>
       <c r="E96">
-        <v>0.3522733203045021</v>
+        <v>1.404928800454513</v>
+      </c>
+      <c r="F96">
+        <v>0.2638093420356954</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45358</v>
+        <v>45370</v>
       </c>
       <c r="B97">
-        <v>404.6594208010195</v>
+        <v>416.3272978235955</v>
       </c>
       <c r="C97">
-        <v>407.864523056636</v>
-      </c>
-      <c r="D97">
-        <v>-0.3874887733921355</v>
+        <v>412.9509237542686</v>
       </c>
       <c r="E97">
-        <v>0.3342262126234057</v>
+        <v>0.9414244724608238</v>
+      </c>
+      <c r="F97">
+        <v>0.2456134808642308</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45359</v>
+        <v>45371</v>
       </c>
       <c r="B98">
-        <v>406.4927962204137</v>
+        <v>420.4823195339551</v>
       </c>
       <c r="C98">
-        <v>407.4770342832439</v>
-      </c>
-      <c r="D98">
-        <v>-0.1496733805146278</v>
+        <v>413.8923482267294</v>
       </c>
       <c r="E98">
-        <v>0.3161425177550229</v>
+        <v>1.599088286190067</v>
+      </c>
+      <c r="F98">
+        <v>0.2289268630971916</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45362</v>
+        <v>45372</v>
       </c>
       <c r="B99">
-        <v>402.3079090049905</v>
+        <v>428.2841428024405</v>
       </c>
       <c r="C99">
-        <v>407.0280141417</v>
-      </c>
-      <c r="D99">
-        <v>-0.5195520991114222</v>
+        <v>415.4914365129194</v>
       </c>
       <c r="E99">
-        <v>0.299301099310628</v>
+        <v>2.871861109859594</v>
+      </c>
+      <c r="F99">
+        <v>0.2144969904520397</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45363</v>
+        <v>45373</v>
       </c>
       <c r="B100">
-        <v>406.1540135997644</v>
+        <v>428.1546589937267</v>
       </c>
       <c r="C100">
-        <v>406.5084620425886</v>
-      </c>
-      <c r="D100">
-        <v>1.260987002896741</v>
+        <v>418.363297622779</v>
       </c>
       <c r="E100">
-        <v>0.2835769873789427</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
+        <v>0.90277322837062</v>
+      </c>
+      <c r="F100">
+        <v>0.202874593993019</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45364</v>
+        <v>45376</v>
       </c>
       <c r="B101">
-        <v>416.5963580657627</v>
+        <v>423.7106482644727</v>
       </c>
       <c r="C101">
-        <v>407.7694490454853</v>
-      </c>
-      <c r="D101">
-        <v>1.217687222581731</v>
+        <v>421.0716173078909</v>
       </c>
       <c r="E101">
-        <v>0.2681663500049317</v>
+        <v>0.8996082850634366</v>
+      </c>
+      <c r="F101">
+        <v>0.1955309341626256</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45365</v>
+        <v>45377</v>
       </c>
       <c r="B102">
-        <v>418.7286340487209</v>
+        <v>424.0793252148939</v>
       </c>
       <c r="C102">
-        <v>408.987136268067</v>
-      </c>
-      <c r="D102">
-        <v>0.6476622316941985</v>
+        <v>421.9712255929543</v>
       </c>
       <c r="E102">
-        <v>0.2543498564895759</v>
+        <v>0.1177908363674192</v>
+      </c>
+      <c r="F102">
+        <v>0.1920223685256144</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45366</v>
+        <v>45378</v>
       </c>
       <c r="B103">
-        <v>417.7820672194502</v>
+        <v>422.9135522838942</v>
       </c>
       <c r="C103">
-        <v>409.6347984997612</v>
-      </c>
-      <c r="D103">
-        <v>0.6370654846842664</v>
+        <v>422.0890164293218</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>0.2417389943770865</v>
+        <v>-0.2936644582758845</v>
+      </c>
+      <c r="F103">
+        <v>0.1898270050815109</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45369</v>
+        <v>45379</v>
       </c>
       <c r="B104">
-        <v>412.7601865175957</v>
+        <v>419.446036304839</v>
       </c>
       <c r="C104">
-        <v>411.545994953814</v>
-      </c>
-      <c r="D104">
-        <v>1.404928800454513</v>
+        <v>421.7953519710459</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>0.2294220521372505</v>
+        <v>0.4148918419073766</v>
+      </c>
+      <c r="F104">
+        <v>0.188601156263322</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45370</v>
+        <v>45383</v>
       </c>
       <c r="B105">
-        <v>416.3272978235955</v>
+        <v>422.4252949702259</v>
       </c>
       <c r="C105">
-        <v>412.9509237542686</v>
-      </c>
-      <c r="D105">
-        <v>0.9414244724608238</v>
+        <v>423.4549193386754</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>0.218063576356861</v>
+        <v>-1.592590986994082</v>
+      </c>
+      <c r="F105">
+        <v>0.1868537739896252</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45371</v>
+        <v>45384</v>
       </c>
       <c r="B106">
-        <v>420.4823195339551</v>
+        <v>418.5991130717621</v>
       </c>
       <c r="C106">
-        <v>413.8923482267294</v>
-      </c>
-      <c r="D106">
-        <v>1.599088286190067</v>
+        <v>421.8623283516813</v>
       </c>
       <c r="E106">
-        <v>0.2071913615161786</v>
+        <v>-0.5202633451390284</v>
+      </c>
+      <c r="F106">
+        <v>0.1865668625144723</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45372</v>
+        <v>45385</v>
       </c>
       <c r="B107">
-        <v>428.2841428024405</v>
+        <v>418.2204849357083</v>
       </c>
       <c r="C107">
-        <v>415.4914365129194</v>
-      </c>
-      <c r="D107">
-        <v>2.871861109859594</v>
+        <v>421.3420650065423</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>0.1964863530556336</v>
+        <v>0.2649357673814166</v>
+      </c>
+      <c r="F107">
+        <v>0.1839463306010187</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="B108">
-        <v>428.1546589937267</v>
+        <v>423.4615511455934</v>
       </c>
       <c r="C108">
-        <v>418.363297622779</v>
-      </c>
-      <c r="D108">
-        <v>0.90277322837062</v>
+        <v>421.6070007739237</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>0.1869313692322029</v>
+        <v>-0.6513983846583074</v>
+      </c>
+      <c r="F108">
+        <v>0.1805498245858538</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45376</v>
+        <v>45387</v>
       </c>
       <c r="B109">
-        <v>423.7106482644727</v>
+        <v>418.4994611872064</v>
       </c>
       <c r="C109">
-        <v>421.0716173078909</v>
-      </c>
-      <c r="D109">
-        <v>0.8996082850634366</v>
+        <v>420.9556023892654</v>
       </c>
       <c r="E109">
-        <v>0.1793274794912353</v>
+        <v>-0.04926609137044125</v>
+      </c>
+      <c r="F109">
+        <v>0.1766969634439962</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45377</v>
+        <v>45390</v>
       </c>
       <c r="B110">
-        <v>424.0793252148939</v>
+        <v>423.6409193804279</v>
       </c>
       <c r="C110">
-        <v>421.9712255929543</v>
-      </c>
-      <c r="D110">
-        <v>0.1177908363674192</v>
+        <v>420.8078041151541</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>0.1736962321481972</v>
+        <v>0.5855103372212511</v>
+      </c>
+      <c r="F110">
+        <v>0.1712709407294371</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B111">
-        <v>422.9135522838942</v>
+        <v>424.9063764757034</v>
       </c>
       <c r="C111">
-        <v>422.0890164293218</v>
-      </c>
-      <c r="D111">
-        <v>-0.2936644582758845</v>
+        <v>421.3933144523753</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>0.1687356458124838</v>
-      </c>
-      <c r="F111" t="s">
-        <v>7</v>
+        <v>-0.09021007776658507</v>
+      </c>
+      <c r="F111">
+        <v>0.1651109721451799</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45379</v>
+        <v>45392</v>
       </c>
       <c r="B112">
-        <v>419.446036304839</v>
+        <v>420.6716338302425</v>
       </c>
       <c r="C112">
-        <v>421.7953519710459</v>
-      </c>
-      <c r="D112">
-        <v>0.4148918419073766</v>
+        <v>421.3031043746087</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>0.1640039544842894</v>
-      </c>
-      <c r="F112" t="s">
-        <v>6</v>
+        <v>0.3317177155097397</v>
+      </c>
+      <c r="F112">
+        <v>0.1593258798335204</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45383</v>
+        <v>45393</v>
       </c>
       <c r="B113">
-        <v>422.4252949702259</v>
+        <v>424.2885638141968</v>
       </c>
       <c r="C113">
-        <v>423.4549193386754</v>
-      </c>
-      <c r="D113">
-        <v>-1.592590986994082</v>
+        <v>421.6348220901185</v>
       </c>
       <c r="E113">
-        <v>0.158955020226044</v>
-      </c>
-      <c r="F113" t="s">
-        <v>7</v>
+        <v>0.01107302310543901</v>
+      </c>
+      <c r="F113">
+        <v>0.1531551231088271</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45384</v>
+        <v>45394</v>
       </c>
       <c r="B114">
-        <v>418.5991130717621</v>
+        <v>422.5249521781749</v>
       </c>
       <c r="C114">
-        <v>421.8623283516813</v>
-      </c>
-      <c r="D114">
-        <v>-0.5202633451390284</v>
+        <v>421.6458951132239</v>
       </c>
       <c r="E114">
-        <v>0.15529927951386</v>
+        <v>0.3845918171277655</v>
+      </c>
+      <c r="F114">
+        <v>0.1472910141180009</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45385</v>
+        <v>45397</v>
       </c>
       <c r="B115">
-        <v>418.2204849357083</v>
+        <v>425.0657870862989</v>
       </c>
       <c r="C115">
-        <v>421.3420650065423</v>
-      </c>
-      <c r="D115">
-        <v>0.2649357673814166</v>
+        <v>422.7996705646072</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>0.1505038936287658</v>
-      </c>
-      <c r="F115" t="s">
-        <v>6</v>
+        <v>-0.7743450411468871</v>
+      </c>
+      <c r="F115">
+        <v>0.1416509228803291</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45386</v>
+        <v>45398</v>
       </c>
       <c r="B116">
-        <v>423.4615511455934</v>
+        <v>413.0790458991779</v>
       </c>
       <c r="C116">
-        <v>421.6070007739237</v>
-      </c>
-      <c r="D116">
-        <v>-0.6513983846583074</v>
+        <v>422.0253255234603</v>
       </c>
       <c r="E116">
-        <v>0.1455349970080672</v>
-      </c>
-      <c r="F116" t="s">
-        <v>7</v>
+        <v>-0.7844902726553187</v>
+      </c>
+      <c r="F116">
+        <v>0.1372388188322956</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45387</v>
+        <v>45399</v>
       </c>
       <c r="B117">
-        <v>418.4994611872064</v>
+        <v>415.7494033422172</v>
       </c>
       <c r="C117">
-        <v>420.9556023892654</v>
-      </c>
-      <c r="D117">
-        <v>-0.04926609137044125</v>
+        <v>421.240835250805</v>
       </c>
       <c r="E117">
-        <v>0.1414125753453265</v>
+        <v>-1.343069112832438</v>
+      </c>
+      <c r="F117">
+        <v>0.1322861602945613</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45390</v>
+        <v>45400</v>
       </c>
       <c r="B118">
-        <v>423.6409193804279</v>
+        <v>409.1532132353134</v>
       </c>
       <c r="C118">
-        <v>420.8078041151541</v>
-      </c>
-      <c r="D118">
-        <v>0.5855103372212511</v>
+        <v>419.8977661379726</v>
       </c>
       <c r="E118">
-        <v>0.1370195983287068</v>
-      </c>
-      <c r="F118" t="s">
-        <v>6</v>
+        <v>-2.340441468310075</v>
+      </c>
+      <c r="F118">
+        <v>0.1264669910499939</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B119">
-        <v>424.9063764757034</v>
+        <v>402.5769461656378</v>
       </c>
       <c r="C119">
-        <v>421.3933144523753</v>
-      </c>
-      <c r="D119">
-        <v>-0.09021007776658507</v>
+        <v>417.5573246696625</v>
       </c>
       <c r="E119">
-        <v>0.1320796869114786</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
+        <v>-1.719561426265765</v>
+      </c>
+      <c r="F119">
+        <v>0.1184210251016126</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45392</v>
+        <v>45404</v>
       </c>
       <c r="B120">
-        <v>420.6716338302425</v>
+        <v>398.6411348292365</v>
       </c>
       <c r="C120">
-        <v>421.3031043746087</v>
-      </c>
-      <c r="D120">
-        <v>0.3317177155097397</v>
+        <v>412.3986403908652</v>
       </c>
       <c r="E120">
-        <v>0.1273997202085702</v>
-      </c>
-      <c r="F120" t="s">
-        <v>6</v>
+        <v>-2.819825089177016</v>
+      </c>
+      <c r="F120">
+        <v>0.1070082830615258</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45393</v>
+        <v>45405</v>
       </c>
       <c r="B121">
-        <v>424.2885638141968</v>
+        <v>402.7861765539353</v>
       </c>
       <c r="C121">
-        <v>421.6348220901185</v>
-      </c>
-      <c r="D121">
-        <v>0.01107302310543901</v>
+        <v>409.5788153016882</v>
       </c>
       <c r="E121">
-        <v>0.1224995916044732</v>
+        <v>-0.1864682872866865</v>
+      </c>
+      <c r="F121">
+        <v>0.08894885111788894</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45394</v>
+        <v>45406</v>
       </c>
       <c r="B122">
-        <v>422.5249521781749</v>
+        <v>408.0870690033951</v>
       </c>
       <c r="C122">
-        <v>421.6458951132239</v>
-      </c>
-      <c r="D122">
-        <v>0.3845918171277655</v>
+        <v>409.3923470144015</v>
       </c>
       <c r="E122">
-        <v>0.117580894615097</v>
+        <v>-1.864379953113087</v>
+      </c>
+      <c r="F122">
+        <v>0.06690744055096882</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="B123">
-        <v>425.0657870862989</v>
+        <v>392.6129274363838</v>
       </c>
       <c r="C123">
-        <v>422.7996705646072</v>
-      </c>
-      <c r="D123">
-        <v>-0.7743450411468871</v>
+        <v>407.5279670612884</v>
       </c>
       <c r="E123">
-        <v>0.1122384723614117</v>
-      </c>
-      <c r="F123" t="s">
-        <v>7</v>
+        <v>-1.597568504367075</v>
+      </c>
+      <c r="F123">
+        <v>0.04381479014650045</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45398</v>
+        <v>45408</v>
       </c>
       <c r="B124">
-        <v>413.0790458991779</v>
+        <v>410.6876705469948</v>
       </c>
       <c r="C124">
-        <v>422.0253255234603</v>
-      </c>
-      <c r="D124">
-        <v>-0.7844902726553187</v>
+        <v>405.9303985569213</v>
       </c>
       <c r="E124">
-        <v>0.1077437392788133</v>
+        <v>-1.063252850545856</v>
+      </c>
+      <c r="F124">
+        <v>0.01739914937764259</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45399</v>
+        <v>45411</v>
       </c>
       <c r="B125">
-        <v>415.7494033422172</v>
+        <v>403.7925555014032</v>
       </c>
       <c r="C125">
-        <v>421.240835250805</v>
-      </c>
-      <c r="D125">
-        <v>-1.343069112832438</v>
+        <v>402.7406400052838</v>
       </c>
       <c r="E125">
-        <v>0.1026017518860812</v>
+        <v>-0.3615521254270107</v>
+      </c>
+      <c r="F125">
+        <v>-0.01154868621750129</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45400</v>
+        <v>45412</v>
       </c>
       <c r="B126">
-        <v>409.1532132353134</v>
+        <v>400.0460812876486</v>
       </c>
       <c r="C126">
-        <v>419.8977661379726</v>
-      </c>
-      <c r="D126">
-        <v>-2.340441468310075</v>
+        <v>402.3790878798567</v>
       </c>
       <c r="E126">
-        <v>0.0964960637509855</v>
+        <v>-1.397637798846006</v>
+      </c>
+      <c r="F126">
+        <v>-0.04507537165283158</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45401</v>
+        <v>45413</v>
       </c>
       <c r="B127">
-        <v>402.5769461656378</v>
+        <v>391.1979854890888</v>
       </c>
       <c r="C127">
-        <v>417.5573246696625</v>
-      </c>
-      <c r="D127">
-        <v>-1.719561426265765</v>
+        <v>400.9814500810107</v>
       </c>
       <c r="E127">
-        <v>0.08845970076357221</v>
+        <v>-0.5279573035970202</v>
+      </c>
+      <c r="F127">
+        <v>-0.07986678172955496</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45404</v>
+        <v>45414</v>
       </c>
       <c r="B128">
-        <v>398.6411348292365</v>
+        <v>396.2298343486377</v>
       </c>
       <c r="C128">
-        <v>412.3986403908652</v>
-      </c>
-      <c r="D128">
-        <v>-2.819825089177016</v>
+        <v>400.4534927774137</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0.07897949043389167</v>
+        <v>0.2435657687629487</v>
+      </c>
+      <c r="F128">
+        <v>-0.1159108665170186</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45405</v>
+        <v>45415</v>
       </c>
       <c r="B129">
-        <v>402.7861765539353</v>
+        <v>400.8332267481025</v>
       </c>
       <c r="C129">
-        <v>409.5788153016882</v>
-      </c>
-      <c r="D129">
-        <v>-0.1864682872866865</v>
+        <v>400.6970585461767</v>
       </c>
       <c r="E129">
-        <v>0.06556834778986477</v>
+        <v>0.2475190888119604</v>
+      </c>
+      <c r="F129">
+        <v>-0.1526301859132394</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45406</v>
+        <v>45418</v>
       </c>
       <c r="B130">
-        <v>408.0870690033951</v>
+        <v>407.2899567664123</v>
       </c>
       <c r="C130">
-        <v>409.3923470144015</v>
-      </c>
-      <c r="D130">
-        <v>-1.864379953113087</v>
+        <v>401.4396158126125</v>
       </c>
       <c r="E130">
-        <v>0.04965100507028139</v>
+        <v>0.3544331490296599</v>
+      </c>
+      <c r="F130">
+        <v>-0.1895068661782198</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45407</v>
+        <v>45419</v>
       </c>
       <c r="B131">
-        <v>392.6129274363838</v>
+        <v>413.1687025902024</v>
       </c>
       <c r="C131">
-        <v>407.5279670612884</v>
-      </c>
-      <c r="D131">
-        <v>-1.597568504367075</v>
+        <v>401.7940489616422</v>
       </c>
       <c r="E131">
-        <v>0.03360770835283867</v>
+        <v>0.6135059173411719</v>
+      </c>
+      <c r="F131">
+        <v>-0.2253543153742646</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45408</v>
+        <v>45420</v>
       </c>
       <c r="B132">
-        <v>410.6876705469948</v>
+        <v>406.7020963003715</v>
       </c>
       <c r="C132">
-        <v>405.9303985569213</v>
-      </c>
-      <c r="D132">
-        <v>-1.063252850545856</v>
+        <v>402.4075548789834</v>
       </c>
       <c r="E132">
-        <v>0.01682790644453061</v>
+        <v>0.7428774383773771</v>
+      </c>
+      <c r="F132">
+        <v>-0.2596136319685503</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B133">
-        <v>403.7925555014032</v>
+        <v>409.0934518243799</v>
       </c>
       <c r="C133">
-        <v>402.7406400052838</v>
-      </c>
-      <c r="D133">
-        <v>-0.3615521254270107</v>
+        <v>403.1504323173608</v>
       </c>
       <c r="E133">
-        <v>-0.0002351138910678081</v>
+        <v>0.8513714771976879</v>
+      </c>
+      <c r="F133">
+        <v>-0.2913864682542444</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45412</v>
+        <v>45422</v>
       </c>
       <c r="B134">
-        <v>400.0460812876486</v>
+        <v>411.454898796182</v>
       </c>
       <c r="C134">
-        <v>402.3790878798567</v>
-      </c>
-      <c r="D134">
-        <v>-1.397637798846006</v>
+        <v>404.0018037945584</v>
       </c>
       <c r="E134">
-        <v>-0.02039378935365825</v>
+        <v>1.763636784510311</v>
+      </c>
+      <c r="F134">
+        <v>-0.3214888220317603</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45413</v>
+        <v>45425</v>
       </c>
       <c r="B135">
-        <v>391.1979854890888</v>
+        <v>416.506666010975</v>
       </c>
       <c r="C135">
-        <v>400.9814500810107</v>
-      </c>
-      <c r="D135">
-        <v>-0.5279573035970202</v>
+        <v>409.2927141480894</v>
       </c>
       <c r="E135">
-        <v>-0.04068866999295716</v>
+        <v>1.386425992840657</v>
+      </c>
+      <c r="F135">
+        <v>-0.349438170085836</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45414</v>
+        <v>45426</v>
       </c>
       <c r="B136">
-        <v>396.2298343486377</v>
+        <v>410.5382086979875</v>
       </c>
       <c r="C136">
-        <v>400.4534927774137</v>
-      </c>
-      <c r="D136">
-        <v>0.2435657687629487</v>
+        <v>410.67914014093</v>
       </c>
       <c r="E136">
-        <v>-0.06198931537565414</v>
-      </c>
-      <c r="F136" t="s">
-        <v>6</v>
+        <v>0.8086216973903788</v>
+      </c>
+      <c r="F136">
+        <v>-0.3679493755996388</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45415</v>
+        <v>45427</v>
       </c>
       <c r="B137">
-        <v>400.8332267481025</v>
+        <v>417.1481137200525</v>
       </c>
       <c r="C137">
-        <v>400.6970585461767</v>
-      </c>
-      <c r="D137">
-        <v>0.2475190888119604</v>
+        <v>411.4877618383204</v>
       </c>
       <c r="E137">
-        <v>-0.0828919677577757</v>
+        <v>1.061483654684366</v>
+      </c>
+      <c r="F137">
+        <v>-0.3830329936836948</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="B138">
-        <v>407.2899567664123</v>
+        <v>421.0411147304799</v>
       </c>
       <c r="C138">
-        <v>401.4396158126125</v>
-      </c>
-      <c r="D138">
-        <v>0.3544331490296599</v>
+        <v>412.5492454930048</v>
       </c>
       <c r="E138">
-        <v>-0.1020119028615836</v>
+        <v>1.609979680845754</v>
+      </c>
+      <c r="F138">
+        <v>-0.3945532869174794</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45419</v>
+        <v>45429</v>
       </c>
       <c r="B139">
-        <v>413.1687025902024</v>
+        <v>421.7797738940241</v>
       </c>
       <c r="C139">
-        <v>401.7940489616422</v>
-      </c>
-      <c r="D139">
-        <v>0.6135059173411719</v>
+        <v>414.1592251738505</v>
       </c>
       <c r="E139">
-        <v>-0.1192691283268438</v>
+        <v>0.8956267641700796</v>
+      </c>
+      <c r="F139">
+        <v>-0.4029072622039049</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45420</v>
+        <v>45432</v>
       </c>
       <c r="B140">
-        <v>406.7020963003715</v>
+        <v>419.4539624148243</v>
       </c>
       <c r="C140">
-        <v>402.4075548789834</v>
-      </c>
-      <c r="D140">
-        <v>0.7428774383773771</v>
+        <v>416.8461054663608</v>
       </c>
       <c r="E140">
-        <v>-0.1357215005767459</v>
+        <v>2.086736048302669</v>
+      </c>
+      <c r="F140">
+        <v>-0.4077684927263233</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45421</v>
+        <v>45433</v>
       </c>
       <c r="B141">
-        <v>409.0934518243799</v>
+        <v>426.0620511343007</v>
       </c>
       <c r="C141">
-        <v>403.1504323173608</v>
-      </c>
-      <c r="D141">
-        <v>0.8513714771976879</v>
+        <v>418.9328415146634</v>
       </c>
       <c r="E141">
-        <v>-0.1506774330541136</v>
+        <v>1.297920223846972</v>
+      </c>
+      <c r="F141">
+        <v>-0.4070352056208438</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45422</v>
+        <v>45434</v>
       </c>
       <c r="B142">
-        <v>411.454898796182</v>
+        <v>429.3162033054389</v>
       </c>
       <c r="C142">
-        <v>404.0018037945584</v>
-      </c>
-      <c r="D142">
-        <v>1.763636784510311</v>
+        <v>420.2307617385104</v>
       </c>
       <c r="E142">
-        <v>-0.1631078591159885</v>
+        <v>1.328916540949649</v>
+      </c>
+      <c r="F142">
+        <v>-0.4010694266326982</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45425</v>
+        <v>45435</v>
       </c>
       <c r="B143">
-        <v>416.506666010975</v>
+        <v>432.1910106070575</v>
       </c>
       <c r="C143">
-        <v>409.2927141480894</v>
-      </c>
-      <c r="D143">
-        <v>1.386425992840657</v>
+        <v>421.5596782794601</v>
       </c>
       <c r="E143">
-        <v>-0.1736258918694691</v>
+        <v>1.101639350047321</v>
+      </c>
+      <c r="F143">
+        <v>-0.3921835842854934</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45426</v>
+        <v>45436</v>
       </c>
       <c r="B144">
-        <v>410.5382086979875</v>
+        <v>426.4214201614011</v>
       </c>
       <c r="C144">
-        <v>410.67914014093</v>
-      </c>
-      <c r="D144">
-        <v>0.8086216973903788</v>
+        <v>422.6613176295074</v>
       </c>
       <c r="E144">
-        <v>-0.1768815143354888</v>
+        <v>1.097239884286211</v>
+      </c>
+      <c r="F144">
+        <v>-0.380527979247546</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45427</v>
+        <v>45440</v>
       </c>
       <c r="B145">
-        <v>417.1481137200525</v>
+        <v>428.8570153768908</v>
       </c>
       <c r="C145">
-        <v>411.4877618383204</v>
-      </c>
-      <c r="D145">
-        <v>1.061483654684366</v>
+        <v>427.0502771666522</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>-0.1777940671962721</v>
+        <v>-0.3037384724803474</v>
+      </c>
+      <c r="F145">
+        <v>-0.3665020526684508</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45428</v>
+        <v>45441</v>
       </c>
       <c r="B146">
-        <v>421.0411147304799</v>
+        <v>424.9241078592897</v>
       </c>
       <c r="C146">
-        <v>412.5492454930048</v>
-      </c>
-      <c r="D146">
-        <v>1.609979680845754</v>
+        <v>426.7465386941719</v>
       </c>
       <c r="E146">
-        <v>-0.1777425622120415</v>
+        <v>-0.4012425158441033</v>
+      </c>
+      <c r="F146">
+        <v>-0.3461544040428876</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>421.7797738940241</v>
+        <v>423.5365985674188</v>
       </c>
       <c r="C147">
-        <v>414.1592251738505</v>
-      </c>
-      <c r="D147">
-        <v>0.8956267641700796</v>
+        <v>426.3452961783278</v>
       </c>
       <c r="E147">
-        <v>-0.1768732650480491</v>
+        <v>-0.4317205324642259</v>
+      </c>
+      <c r="F147">
+        <v>-0.3268626801266454</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B148">
-        <v>419.4539624148243</v>
+        <v>416.0001981551101</v>
       </c>
       <c r="C148">
-        <v>416.8461054663608</v>
-      </c>
-      <c r="D148">
-        <v>2.086736048302669</v>
+        <v>425.9135756458635</v>
       </c>
       <c r="E148">
-        <v>-0.1753473812835898</v>
+        <v>-1.164428852177972</v>
+      </c>
+      <c r="F148">
+        <v>-0.3092968439261979</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45433</v>
+        <v>45446</v>
       </c>
       <c r="B149">
-        <v>426.0620511343007</v>
+        <v>414.7823944158675</v>
       </c>
       <c r="C149">
-        <v>418.9328415146634</v>
-      </c>
-      <c r="D149">
-        <v>1.297920223846972</v>
+        <v>422.4202890893296</v>
       </c>
       <c r="E149">
-        <v>-0.1723224074172647</v>
+        <v>-2.455574047588584</v>
+      </c>
+      <c r="F149">
+        <v>-0.2937666778777752</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45434</v>
+        <v>45447</v>
       </c>
       <c r="B150">
-        <v>429.3162033054389</v>
+        <v>411.6879758758687</v>
       </c>
       <c r="C150">
-        <v>420.2307617385104</v>
-      </c>
-      <c r="D150">
-        <v>1.328916540949649</v>
+        <v>419.964715041741</v>
       </c>
       <c r="E150">
-        <v>-0.1691845143193967</v>
+        <v>-0.4152058349828849</v>
+      </c>
+      <c r="F150">
+        <v>-0.285824122613427</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45435</v>
+        <v>45448</v>
       </c>
       <c r="B151">
-        <v>432.1910106070575</v>
+        <v>417.0582741968618</v>
       </c>
       <c r="C151">
-        <v>421.5596782794601</v>
-      </c>
-      <c r="D151">
-        <v>1.101639350047321</v>
+        <v>419.5495092067582</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>-0.1675037037964356</v>
+        <v>0.4622030206639351</v>
+      </c>
+      <c r="F151">
+        <v>-0.2853529979179502</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45436</v>
+        <v>45449</v>
       </c>
       <c r="B152">
-        <v>426.4214201614011</v>
+        <v>423.2471333720698</v>
       </c>
       <c r="C152">
-        <v>422.6613176295074</v>
-      </c>
-      <c r="D152">
-        <v>1.097239884286211</v>
+        <v>420.0117122274221</v>
       </c>
       <c r="E152">
-        <v>-0.1670857739208599</v>
+        <v>0.6023887449460403</v>
+      </c>
+      <c r="F152">
+        <v>-0.2885251222690419</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45440</v>
+        <v>45450</v>
       </c>
       <c r="B153">
-        <v>428.8570153768908</v>
+        <v>425.4332109319366</v>
       </c>
       <c r="C153">
-        <v>427.0502771666522</v>
-      </c>
-      <c r="D153">
-        <v>-0.3037384724803474</v>
+        <v>420.6141009723681</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>-0.1681419851940303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>7</v>
+        <v>-0.5787433456458189</v>
+      </c>
+      <c r="F153">
+        <v>-0.2941460449444524</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45441</v>
+        <v>45453</v>
       </c>
       <c r="B154">
-        <v>424.9241078592897</v>
+        <v>423.9359096003005</v>
       </c>
       <c r="C154">
-        <v>426.7465386941719</v>
-      </c>
-      <c r="D154">
-        <v>-0.4012425158441033</v>
+        <v>418.8778709354307</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>-0.1665976894517204</v>
+        <v>1.244899150805622</v>
+      </c>
+      <c r="F154">
+        <v>-0.3029063314644217</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45442</v>
+        <v>45454</v>
       </c>
       <c r="B155">
-        <v>423.5365985674188</v>
+        <v>424.714492210749</v>
       </c>
       <c r="C155">
-        <v>426.3452961783278</v>
-      </c>
-      <c r="D155">
-        <v>-0.4317205324642259</v>
+        <v>420.1227700862363</v>
       </c>
       <c r="E155">
-        <v>-0.1691055191967886</v>
+        <v>1.801751994876042</v>
+      </c>
+      <c r="F155">
+        <v>-0.3186904972596716</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45443</v>
+        <v>45455</v>
       </c>
       <c r="B156">
-        <v>416.0001981551101</v>
+        <v>434.5367860452445</v>
       </c>
       <c r="C156">
-        <v>425.9135756458635</v>
-      </c>
-      <c r="D156">
-        <v>-1.164428852177972</v>
+        <v>421.9245220811123</v>
       </c>
       <c r="E156">
-        <v>-0.175155919116858</v>
+        <v>2.014703694217872</v>
+      </c>
+      <c r="F156">
+        <v>-0.3351970822949437</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45446</v>
+        <v>45456</v>
       </c>
       <c r="B157">
-        <v>414.7823944158675</v>
+        <v>440.0568553290733</v>
       </c>
       <c r="C157">
-        <v>422.4202890893296</v>
-      </c>
-      <c r="D157">
-        <v>-2.455574047588584</v>
+        <v>423.9392257753302</v>
       </c>
       <c r="E157">
-        <v>-0.1841604135891638</v>
+        <v>2.523228691946542</v>
+      </c>
+      <c r="F157">
+        <v>-0.3512229704039049</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45447</v>
+        <v>45457</v>
       </c>
       <c r="B158">
-        <v>411.6879758758687</v>
+        <v>437.4914526433868</v>
       </c>
       <c r="C158">
-        <v>419.964715041741</v>
-      </c>
-      <c r="D158">
-        <v>-0.4152058349828849</v>
+        <v>426.4624544672768</v>
       </c>
       <c r="E158">
-        <v>-0.1993896111999379</v>
+        <v>2.034534260411855</v>
+      </c>
+      <c r="F158">
+        <v>-0.3662781957176009</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45448</v>
+        <v>45460</v>
       </c>
       <c r="B159">
-        <v>417.0582741968618</v>
+        <v>441.7936939788958</v>
       </c>
       <c r="C159">
-        <v>419.5495092067582</v>
-      </c>
-      <c r="D159">
-        <v>0.4622030206639351</v>
+        <v>432.5660572485123</v>
       </c>
       <c r="E159">
-        <v>-0.2203801132412752</v>
-      </c>
-      <c r="F159" t="s">
-        <v>6</v>
+        <v>3.352525399028309</v>
+      </c>
+      <c r="F159">
+        <v>-0.3803931539487301</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45449</v>
+        <v>45461</v>
       </c>
       <c r="B160">
-        <v>423.2471333720698</v>
+        <v>448.9008887251347</v>
       </c>
       <c r="C160">
-        <v>420.0117122274221</v>
-      </c>
-      <c r="D160">
-        <v>0.6023887449460403</v>
+        <v>435.9185826475406</v>
       </c>
       <c r="E160">
-        <v>-0.244411762260958</v>
+        <v>0.5986528636426556</v>
+      </c>
+      <c r="F160">
+        <v>-0.3878420191315441</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45450</v>
+        <v>45463</v>
       </c>
       <c r="B161">
-        <v>425.4332109319366</v>
+        <v>445.4970284658229</v>
       </c>
       <c r="C161">
-        <v>420.6141009723681</v>
-      </c>
-      <c r="D161">
-        <v>-0.5787433456458189</v>
+        <v>437.1158883748259</v>
       </c>
       <c r="E161">
-        <v>-0.2702443344965539</v>
-      </c>
-      <c r="F161" t="s">
-        <v>7</v>
+        <v>2.829897335175872</v>
+      </c>
+      <c r="F161">
+        <v>-0.3926082414422391</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="B162">
-        <v>423.9359096003005</v>
+        <v>446.5750882817075</v>
       </c>
       <c r="C162">
-        <v>418.8778709354307</v>
-      </c>
-      <c r="D162">
-        <v>1.244899150805622</v>
+        <v>439.9457857100018</v>
       </c>
       <c r="E162">
-        <v>-0.2974245224297389</v>
-      </c>
-      <c r="F162" t="s">
-        <v>6</v>
+        <v>1.643009643845194</v>
+      </c>
+      <c r="F162">
+        <v>-0.3977977523538653</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45454</v>
+        <v>45467</v>
       </c>
       <c r="B163">
-        <v>424.714492210749</v>
+        <v>448.990735754277</v>
       </c>
       <c r="C163">
-        <v>420.1227700862363</v>
-      </c>
-      <c r="D163">
-        <v>1.801751994876042</v>
+        <v>444.8748146415374</v>
       </c>
       <c r="E163">
-        <v>-0.3296261148927311</v>
+        <v>1.658677472179647</v>
+      </c>
+      <c r="F163">
+        <v>-0.4007523912592694</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45455</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>434.5367860452445</v>
+        <v>447.4435174764647</v>
       </c>
       <c r="C164">
-        <v>421.9245220811123</v>
-      </c>
-      <c r="D164">
-        <v>2.014703694217872</v>
+        <v>446.533492113717</v>
       </c>
       <c r="E164">
-        <v>-0.3635527229348804</v>
+        <v>0.2369551643744785</v>
+      </c>
+      <c r="F164">
+        <v>-0.3998587504436064</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B165">
-        <v>440.0568553290733</v>
+        <v>448.1921782643384</v>
       </c>
       <c r="C165">
-        <v>423.9392257753302</v>
-      </c>
-      <c r="D165">
-        <v>2.523228691946542</v>
+        <v>446.7704472780915</v>
       </c>
       <c r="E165">
-        <v>-0.3986714735591017</v>
+        <v>0.5744990713894254</v>
+      </c>
+      <c r="F165">
+        <v>-0.4004058349419525</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45457</v>
+        <v>45470</v>
       </c>
       <c r="B166">
-        <v>437.4914526433868</v>
+        <v>451.3664398492068</v>
       </c>
       <c r="C166">
-        <v>426.4624544672768</v>
-      </c>
-      <c r="D166">
-        <v>2.034534260411855</v>
+        <v>447.3449463494809</v>
       </c>
       <c r="E166">
-        <v>-0.4338264733092432</v>
+        <v>1.307645532753156</v>
+      </c>
+      <c r="F166">
+        <v>-0.4037601646378384</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45460</v>
+        <v>45471</v>
       </c>
       <c r="B167">
-        <v>441.7936939788958</v>
+        <v>452.254858240921</v>
       </c>
       <c r="C167">
-        <v>432.5660572485123</v>
-      </c>
-      <c r="D167">
-        <v>3.352525399028309</v>
+        <v>448.6525918822341</v>
       </c>
       <c r="E167">
-        <v>-0.4685538398996325</v>
+        <v>0.1003548120198919</v>
+      </c>
+      <c r="F167">
+        <v>-0.4094486908013003</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45461</v>
+        <v>45474</v>
       </c>
       <c r="B168">
-        <v>448.9008887251347</v>
+        <v>447.8527763611413</v>
       </c>
       <c r="C168">
-        <v>435.9185826475406</v>
-      </c>
-      <c r="D168">
-        <v>0.5986528636426556</v>
+        <v>448.9536563182938</v>
       </c>
       <c r="E168">
-        <v>-0.4985151194489056</v>
+        <v>0.8299340591355531</v>
+      </c>
+      <c r="F168">
+        <v>-0.4164879835264985</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B169">
-        <v>445.4970284658229</v>
+        <v>452.3846266956562</v>
       </c>
       <c r="C169">
-        <v>437.1158883748259</v>
-      </c>
-      <c r="D169">
-        <v>2.829897335175872</v>
+        <v>449.7835903774293</v>
       </c>
       <c r="E169">
-        <v>-0.5274518378381103</v>
+        <v>0.9477554906090973</v>
+      </c>
+      <c r="F169">
+        <v>-0.4267600468764692</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B170">
-        <v>446.5750882817075</v>
+        <v>457.3656343023017</v>
       </c>
       <c r="C170">
-        <v>439.9457857100018</v>
-      </c>
-      <c r="D170">
-        <v>1.643009643845194</v>
+        <v>450.7313458680384</v>
       </c>
       <c r="E170">
-        <v>-0.5577735029622253</v>
+        <v>0.612020995672907</v>
+      </c>
+      <c r="F170">
+        <v>-0.4398382888137489</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B171">
-        <v>448.990735754277</v>
+        <v>458.7830716850438</v>
       </c>
       <c r="C171">
-        <v>444.8748146415374</v>
-      </c>
-      <c r="D171">
-        <v>1.658677472179647</v>
+        <v>451.9553878593842</v>
       </c>
       <c r="E171">
-        <v>-0.5875906148494289</v>
+        <v>1.256624084391035</v>
+      </c>
+      <c r="F171">
+        <v>-0.453841453135038</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45468</v>
+        <v>45481</v>
       </c>
       <c r="B172">
-        <v>447.4435174764647</v>
+        <v>465.7105933902801</v>
       </c>
       <c r="C172">
-        <v>446.533492113717</v>
-      </c>
-      <c r="D172">
-        <v>0.2369551643744785</v>
+        <v>455.7252601125574</v>
       </c>
       <c r="E172">
-        <v>-0.6151269022285138</v>
+        <v>2.317489645929186</v>
+      </c>
+      <c r="F172">
+        <v>-0.4687656280157986</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45469</v>
+        <v>45482</v>
       </c>
       <c r="B173">
-        <v>448.1921782643384</v>
+        <v>466.1597961164965</v>
       </c>
       <c r="C173">
-        <v>446.7704472780915</v>
-      </c>
-      <c r="D173">
-        <v>0.5744990713894254</v>
+        <v>458.0427497584865</v>
       </c>
       <c r="E173">
-        <v>-0.6416640635162705</v>
+        <v>0.335347734665902</v>
+      </c>
+      <c r="F173">
+        <v>-0.4795461623587491</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45470</v>
+        <v>45483</v>
       </c>
       <c r="B174">
-        <v>451.3664398492068</v>
+        <v>460.3901839011476</v>
       </c>
       <c r="C174">
-        <v>447.3449463494809</v>
-      </c>
-      <c r="D174">
-        <v>1.307645532753156</v>
+        <v>458.3780974931524</v>
       </c>
       <c r="E174">
-        <v>-0.6671846650690081</v>
+        <v>0.47111645160129</v>
+      </c>
+      <c r="F174">
+        <v>-0.4864776249258944</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45471</v>
+        <v>45484</v>
       </c>
       <c r="B175">
-        <v>452.254858240921</v>
+        <v>462.1470291059628</v>
       </c>
       <c r="C175">
-        <v>448.6525918822341</v>
-      </c>
-      <c r="D175">
-        <v>0.1003548120198919</v>
+        <v>458.8492139447537</v>
       </c>
       <c r="E175">
-        <v>-0.6914138266981851</v>
+        <v>0.7074746682665705</v>
+      </c>
+      <c r="F175">
+        <v>-0.4916339389513341</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45474</v>
+        <v>45485</v>
       </c>
       <c r="B176">
-        <v>447.8527763611413</v>
+        <v>453.5125737072739</v>
       </c>
       <c r="C176">
-        <v>448.9536563182938</v>
-      </c>
-      <c r="D176">
-        <v>0.8299340591355531</v>
+        <v>459.5566886130203</v>
       </c>
       <c r="E176">
-        <v>-0.7139556015763565</v>
+        <v>0.1090886147621859</v>
+      </c>
+      <c r="F176">
+        <v>-0.4936870860881726</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45475</v>
+        <v>45488</v>
       </c>
       <c r="B177">
-        <v>452.3846266956562</v>
+        <v>452.4844332949432</v>
       </c>
       <c r="C177">
-        <v>449.7835903774293</v>
-      </c>
-      <c r="D177">
-        <v>0.9477554906090973</v>
+        <v>459.8839544573069</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>-0.7327462746066017</v>
+        <v>-0.7686103928928674</v>
+      </c>
+      <c r="F177">
+        <v>-0.4903875838164636</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45476</v>
+        <v>45489</v>
       </c>
       <c r="B178">
-        <v>457.3656343023017</v>
+        <v>453.4027989347938</v>
       </c>
       <c r="C178">
-        <v>450.7313458680384</v>
-      </c>
-      <c r="D178">
-        <v>0.612020995672907</v>
+        <v>459.115344064414</v>
       </c>
       <c r="E178">
-        <v>-0.7460858580828927</v>
+        <v>-2.165206016538207</v>
+      </c>
+      <c r="F178">
+        <v>-0.4791816712144923</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45478</v>
+        <v>45490</v>
       </c>
       <c r="B179">
-        <v>458.7830716850438</v>
+        <v>441.7936959321082</v>
       </c>
       <c r="C179">
-        <v>451.9553878593842</v>
-      </c>
-      <c r="D179">
-        <v>1.256624084391035</v>
+        <v>456.9501380478758</v>
       </c>
       <c r="E179">
-        <v>-0.752847191003462</v>
+        <v>-1.489953528025296</v>
+      </c>
+      <c r="F179">
+        <v>-0.4604781032809396</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45481</v>
+        <v>45491</v>
       </c>
       <c r="B180">
-        <v>465.7105933902801</v>
+        <v>443.5405562956479</v>
       </c>
       <c r="C180">
-        <v>455.7252601125574</v>
-      </c>
-      <c r="D180">
-        <v>2.317489645929186</v>
+        <v>455.4601845198505</v>
       </c>
       <c r="E180">
-        <v>-0.7536846451060161</v>
+        <v>-3.709978957205465</v>
+      </c>
+      <c r="F180">
+        <v>-0.4349027268507063</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45482</v>
+        <v>45492</v>
       </c>
       <c r="B181">
-        <v>466.1597961164965</v>
+        <v>432.320782775431</v>
       </c>
       <c r="C181">
-        <v>458.0427497584865</v>
-      </c>
-      <c r="D181">
-        <v>0.335347734665902</v>
+        <v>451.750205562645</v>
       </c>
       <c r="E181">
-        <v>-0.748391454625367</v>
+        <v>-2.104831258272933</v>
+      </c>
+      <c r="F181">
+        <v>-0.3999747373294945</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45483</v>
+        <v>45495</v>
       </c>
       <c r="B182">
-        <v>460.3901839011476</v>
+        <v>440.9951415745854</v>
       </c>
       <c r="C182">
-        <v>458.3780974931524</v>
-      </c>
-      <c r="D182">
-        <v>0.47111645160129</v>
+        <v>445.4357117878262</v>
       </c>
       <c r="E182">
-        <v>-0.7361025346170453</v>
+        <v>-1.487317799387995</v>
+      </c>
+      <c r="F182">
+        <v>-0.3578786392862627</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B183">
-        <v>462.1470291059628</v>
+        <v>443.1013491115581</v>
       </c>
       <c r="C183">
-        <v>458.8492139447537</v>
-      </c>
-      <c r="D183">
-        <v>0.7074746682665705</v>
+        <v>443.9483939884382</v>
       </c>
       <c r="E183">
-        <v>-0.7161730930806164</v>
+        <v>-0.5363537252490005</v>
+      </c>
+      <c r="F183">
+        <v>-0.3114517195598535</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45485</v>
+        <v>45497</v>
       </c>
       <c r="B184">
-        <v>453.5125737072739</v>
+        <v>439.6575641864461</v>
       </c>
       <c r="C184">
-        <v>459.5566886130203</v>
-      </c>
-      <c r="D184">
-        <v>0.1090886147621859</v>
+        <v>443.4120402631892</v>
       </c>
       <c r="E184">
-        <v>-0.6876385577822562</v>
+        <v>-1.709282337309389</v>
+      </c>
+      <c r="F184">
+        <v>-0.2510442584459867</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45488</v>
+        <v>45498</v>
       </c>
       <c r="B185">
-        <v>452.4844332949432</v>
+        <v>428.0284992274044</v>
       </c>
       <c r="C185">
-        <v>459.8839544573069</v>
-      </c>
-      <c r="D185">
-        <v>-0.7686103928928674</v>
+        <v>441.7027579258798</v>
       </c>
       <c r="E185">
-        <v>-0.6528012272345018</v>
-      </c>
-      <c r="F185" t="s">
-        <v>7</v>
+        <v>-3.892981961641112</v>
+      </c>
+      <c r="F185">
+        <v>-0.1772236757700417</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45489</v>
+        <v>45499</v>
       </c>
       <c r="B186">
-        <v>453.4027989347938</v>
+        <v>417.4475956401735</v>
       </c>
       <c r="C186">
-        <v>459.115344064414</v>
-      </c>
-      <c r="D186">
-        <v>-2.165206016538207</v>
+        <v>437.8097759642387</v>
       </c>
       <c r="E186">
-        <v>-0.609996836179188</v>
+        <v>-1.538761897082073</v>
+      </c>
+      <c r="F186">
+        <v>-0.09348836309179369</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45490</v>
+        <v>45502</v>
       </c>
       <c r="B187">
-        <v>441.7936959321082</v>
+        <v>430.8034993953489</v>
       </c>
       <c r="C187">
-        <v>456.9501380478758</v>
-      </c>
-      <c r="D187">
-        <v>-1.489953528025296</v>
+        <v>433.1934902729925</v>
       </c>
       <c r="E187">
-        <v>-0.5556715430489679</v>
+        <v>-0.7671874583005547</v>
+      </c>
+      <c r="F187">
+        <v>-0.007386026452420393</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B188">
-        <v>443.5405562956479</v>
+        <v>426.950470567327</v>
       </c>
       <c r="C188">
-        <v>455.4601845198505</v>
-      </c>
-      <c r="D188">
-        <v>-3.709978957205465</v>
+        <v>432.426302814692</v>
       </c>
       <c r="E188">
-        <v>-0.4910328243047948</v>
+        <v>-1.585357072537875</v>
+      </c>
+      <c r="F188">
+        <v>0.07309424297000686</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45492</v>
+        <v>45504</v>
       </c>
       <c r="B189">
-        <v>432.320782775431</v>
+        <v>419.7434462343891</v>
       </c>
       <c r="C189">
-        <v>451.750205562645</v>
-      </c>
-      <c r="D189">
-        <v>-2.104831258272933</v>
+        <v>430.8409457421541</v>
       </c>
       <c r="E189">
-        <v>-0.4163945559892415</v>
+        <v>-1.200890666788041</v>
+      </c>
+      <c r="F189">
+        <v>0.1601085702119067</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="B190">
-        <v>440.9951415745854</v>
+        <v>420.0329297410617</v>
       </c>
       <c r="C190">
-        <v>445.4357117878262</v>
-      </c>
-      <c r="D190">
-        <v>-1.487317799387995</v>
+        <v>429.640055075366</v>
       </c>
       <c r="E190">
-        <v>-0.3334759691231276</v>
+        <v>-3.249700330078269</v>
+      </c>
+      <c r="F190">
+        <v>0.2479803684866038</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B191">
-        <v>443.1013491115581</v>
+        <v>411.747838603881</v>
       </c>
       <c r="C191">
-        <v>443.9483939884382</v>
-      </c>
-      <c r="D191">
-        <v>-0.5363537252490005</v>
+        <v>426.3903547452878</v>
       </c>
       <c r="E191">
-        <v>-0.2478355403393595</v>
+        <v>-3.311279436855197</v>
+      </c>
+      <c r="F191">
+        <v>0.3383340829270679</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45497</v>
+        <v>45509</v>
       </c>
       <c r="B192">
-        <v>439.6575641864461</v>
+        <v>388.4698348608741</v>
       </c>
       <c r="C192">
-        <v>443.4120402631892</v>
-      </c>
-      <c r="D192">
-        <v>-1.709282337309389</v>
+        <v>416.4565164347222</v>
       </c>
       <c r="E192">
-        <v>-0.1561393116904338</v>
+        <v>-2.595322994752166</v>
+      </c>
+      <c r="F192">
+        <v>0.4143416885163967</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45498</v>
+        <v>45510</v>
       </c>
       <c r="B193">
-        <v>428.0284992274044</v>
+        <v>399.2803346769082</v>
       </c>
       <c r="C193">
-        <v>441.7027579258798</v>
-      </c>
-      <c r="D193">
-        <v>-3.892981961641112</v>
+        <v>413.86119343997</v>
       </c>
       <c r="E193">
-        <v>-0.05776821435951621</v>
+        <v>-0.7445469177454811</v>
+      </c>
+      <c r="F193">
+        <v>0.4409091474000483</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>45499</v>
+        <v>45511</v>
       </c>
       <c r="B194">
-        <v>417.4475956401735</v>
+        <v>407.9048180980064</v>
       </c>
       <c r="C194">
-        <v>437.8097759642387</v>
-      </c>
-      <c r="D194">
-        <v>-1.538761897082073</v>
+        <v>413.1166465222245</v>
       </c>
       <c r="E194">
-        <v>0.04250388143745328</v>
+        <v>-1.266745789371555</v>
+      </c>
+      <c r="F194">
+        <v>0.4536279577580768</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>45502</v>
+        <v>45512</v>
       </c>
       <c r="B195">
-        <v>430.8034993953489</v>
+        <v>401.7159344178802</v>
       </c>
       <c r="C195">
-        <v>433.1934902729925</v>
-      </c>
-      <c r="D195">
-        <v>-0.7671874583005547</v>
+        <v>411.849900732853</v>
       </c>
       <c r="E195">
-        <v>0.1373052115773262</v>
+        <v>-3.055602172389854</v>
+      </c>
+      <c r="F195">
+        <v>0.4649026450948076</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>45503</v>
+        <v>45513</v>
       </c>
       <c r="B196">
-        <v>426.950470567327</v>
+        <v>403.3030798438404</v>
       </c>
       <c r="C196">
-        <v>432.426302814692</v>
-      </c>
-      <c r="D196">
-        <v>-1.585357072537875</v>
+        <v>408.7942985604631</v>
       </c>
       <c r="E196">
-        <v>0.2184453972983485</v>
+        <v>-2.038601678935739</v>
+      </c>
+      <c r="F196">
+        <v>0.471621747592286</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>45504</v>
+        <v>45516</v>
       </c>
       <c r="B197">
-        <v>419.7434462343891</v>
+        <v>406.3276141642008</v>
       </c>
       <c r="C197">
-        <v>430.8409457421541</v>
-      </c>
-      <c r="D197">
-        <v>-1.200890666788041</v>
+        <v>402.6784935236559</v>
       </c>
       <c r="E197">
-        <v>0.3017718395734028</v>
+        <v>-0.4135375673769772</v>
+      </c>
+      <c r="F197">
+        <v>0.462613288850509</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>45505</v>
+        <v>45517</v>
       </c>
       <c r="B198">
-        <v>420.0329297410617</v>
+        <v>408.8530756322428</v>
       </c>
       <c r="C198">
-        <v>429.640055075366</v>
-      </c>
-      <c r="D198">
-        <v>-3.249700330078269</v>
+        <v>402.2649559562789</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.3809207743915289</v>
+        <v>1.473592264089234</v>
+      </c>
+      <c r="F198">
+        <v>0.4249562038648991</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="B199">
-        <v>411.747838603881</v>
+        <v>414.0536940689925</v>
       </c>
       <c r="C199">
-        <v>426.3903547452878</v>
-      </c>
-      <c r="D199">
-        <v>-3.311279436855197</v>
+        <v>403.7385482203682</v>
       </c>
       <c r="E199">
-        <v>0.4564191595760975</v>
+        <v>1.784604396955615</v>
+      </c>
+      <c r="F199">
+        <v>0.3832100761325292</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>45509</v>
+        <v>45519</v>
       </c>
       <c r="B200">
-        <v>388.4698348608741</v>
+        <v>419.7999877929688</v>
       </c>
       <c r="C200">
-        <v>416.4565164347222</v>
-      </c>
-      <c r="D200">
-        <v>-2.595322994752166</v>
+        <v>405.5231526173238</v>
       </c>
       <c r="E200">
-        <v>0.5196679664624014</v>
+        <v>3.57001902696021</v>
+      </c>
+      <c r="F200">
+        <v>0.3473839918677238</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>45510</v>
+        <v>45520</v>
       </c>
       <c r="B201">
-        <v>399.2803346769082</v>
+        <v>420.6000061035156</v>
       </c>
       <c r="C201">
-        <v>413.86119343997</v>
-      </c>
-      <c r="D201">
-        <v>-0.7445469177454811</v>
+        <v>409.093171644284</v>
       </c>
       <c r="E201">
-        <v>0.5455502675568163</v>
+        <v>1.345011788135764</v>
+      </c>
+      <c r="F201">
+        <v>0.3171869648387373</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>45511</v>
+        <v>45523</v>
       </c>
       <c r="B202">
-        <v>407.9048180980064</v>
+        <v>418.9599914550781</v>
       </c>
       <c r="C202">
-        <v>413.1166465222245</v>
-      </c>
-      <c r="D202">
-        <v>-1.266745789371555</v>
+        <v>413.1282070086913</v>
       </c>
       <c r="E202">
-        <v>0.5667124526110779</v>
+        <v>2.628133194741622</v>
+      </c>
+      <c r="F202">
+        <v>0.3057497340149365</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>45512</v>
+        <v>45524</v>
       </c>
       <c r="B203">
-        <v>401.7159344178802</v>
+        <v>421.7000122070312</v>
       </c>
       <c r="C203">
-        <v>411.849900732853</v>
-      </c>
-      <c r="D203">
-        <v>-3.055602172389854</v>
+        <v>415.7563402034329</v>
       </c>
       <c r="E203">
-        <v>0.5875792963165036</v>
+        <v>1.040455796104084</v>
+      </c>
+      <c r="F203">
+        <v>0.3219192637189411</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>45513</v>
+        <v>45525</v>
       </c>
       <c r="B204">
-        <v>403.3030798438404</v>
+        <v>424.0799865722656</v>
       </c>
       <c r="C204">
-        <v>408.7942985604631</v>
-      </c>
-      <c r="D204">
-        <v>-2.038601678935739</v>
+        <v>416.796795999537</v>
       </c>
       <c r="E204">
-        <v>0.6056390626534188</v>
+        <v>0.8403543724472797</v>
+      </c>
+      <c r="F204">
+        <v>0.3638314447290835</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>45516</v>
+        <v>45526</v>
       </c>
       <c r="B205">
-        <v>406.3276141642008</v>
+        <v>424.3599853515625</v>
       </c>
       <c r="C205">
-        <v>402.6784935236559</v>
-      </c>
-      <c r="D205">
-        <v>-0.4135375673769772</v>
+        <v>417.6371503719843</v>
       </c>
       <c r="E205">
-        <v>0.6144940998282561</v>
+        <v>1.183599646903019</v>
+      </c>
+      <c r="F205">
+        <v>0.4111386238374271</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>45517</v>
+        <v>45527</v>
       </c>
       <c r="B206">
-        <v>408.8530756322428</v>
+        <v>416.9800109863281</v>
       </c>
       <c r="C206">
-        <v>402.2649559562789</v>
-      </c>
-      <c r="D206">
-        <v>1.473592264089234</v>
+        <v>418.8207500188873</v>
       </c>
       <c r="E206">
-        <v>0.6116922024088188</v>
-      </c>
-      <c r="F206" t="s">
-        <v>6</v>
+        <v>0.5383208409884711</v>
+      </c>
+      <c r="F206">
+        <v>0.4633294810480557</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>45518</v>
+        <v>45530</v>
       </c>
       <c r="B207">
-        <v>414.0536940689925</v>
+        <v>416.3699951171875</v>
       </c>
       <c r="C207">
-        <v>403.7385482203682</v>
-      </c>
-      <c r="D207">
-        <v>1.784604396955615</v>
+        <v>420.4357125418527</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0.607627920954329</v>
+        <v>-1.105717250279042</v>
+      </c>
+      <c r="F207">
+        <v>0.5224604193714201</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>45519</v>
+        <v>45531</v>
       </c>
       <c r="B208">
-        <v>419.7999877929688</v>
+        <v>412.8599853515625</v>
       </c>
       <c r="C208">
-        <v>405.5231526173238</v>
-      </c>
-      <c r="D208">
-        <v>3.57001902696021</v>
+        <v>419.3299952915737</v>
       </c>
       <c r="E208">
-        <v>0.6044873716020807</v>
+        <v>-0.556248801095137</v>
+      </c>
+      <c r="F208">
+        <v>0.5865402411064291</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>45520</v>
+        <v>45532</v>
       </c>
       <c r="B209">
-        <v>420.6000061035156</v>
+        <v>414.8800048828125</v>
       </c>
       <c r="C209">
-        <v>409.093171644284</v>
-      </c>
-      <c r="D209">
-        <v>1.345011788135764</v>
+        <v>418.7737464904785</v>
       </c>
       <c r="E209">
-        <v>0.5996643658937258</v>
+        <v>-0.4259715610080548</v>
+      </c>
+      <c r="F209">
+        <v>0.6296094872057939</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>45523</v>
+        <v>45533</v>
       </c>
       <c r="B210">
-        <v>418.9599914550781</v>
+        <v>414.9400024414062</v>
       </c>
       <c r="C210">
-        <v>413.1282070086913</v>
-      </c>
-      <c r="D210">
-        <v>2.628133194741622</v>
+        <v>418.3477749294705</v>
       </c>
       <c r="E210">
-        <v>0.595499927577962</v>
+        <v>-0.3733317057291288</v>
+      </c>
+      <c r="F210">
+        <v>0.656284448682943</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>45524</v>
+        <v>45534</v>
       </c>
       <c r="B211">
-        <v>421.7000122070312</v>
+        <v>415.6000061035156</v>
       </c>
       <c r="C211">
-        <v>415.7563402034329</v>
-      </c>
-      <c r="D211">
-        <v>1.040455796104084</v>
+        <v>417.9744432237413</v>
       </c>
       <c r="E211">
-        <v>0.5947013197380518</v>
+        <v>-0.6369442409939268</v>
+      </c>
+      <c r="F211">
+        <v>0.6699509107474788</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>45525</v>
+        <v>45538</v>
       </c>
       <c r="B212">
-        <v>424.0799865722656</v>
+        <v>417.9100036621094</v>
       </c>
       <c r="C212">
-        <v>416.796795999537</v>
-      </c>
-      <c r="D212">
-        <v>0.8403543724472797</v>
+        <v>415.4266662597656</v>
       </c>
       <c r="E212">
-        <v>0.5928886466265746</v>
+        <v>-1.359523228236583</v>
+      </c>
+      <c r="F212">
+        <v>0.6666198789604444</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>45526</v>
+        <v>45539</v>
       </c>
       <c r="B213">
-        <v>424.3599853515625</v>
+        <v>405.9100036621094</v>
       </c>
       <c r="C213">
-        <v>417.6371503719843</v>
-      </c>
-      <c r="D213">
-        <v>1.183599646903019</v>
+        <v>414.067143031529</v>
       </c>
       <c r="E213">
-        <v>0.5824221222025202</v>
+        <v>-0.8058934892927141</v>
+      </c>
+      <c r="F213">
+        <v>0.6268006150730641</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>45527</v>
+        <v>45540</v>
       </c>
       <c r="B214">
-        <v>416.9800109863281</v>
+        <v>407.6199951171875</v>
       </c>
       <c r="C214">
-        <v>418.8207500188873</v>
-      </c>
-      <c r="D214">
-        <v>0.5383208409884711</v>
+        <v>413.2612495422363</v>
       </c>
       <c r="E214">
-        <v>0.5627666353489676</v>
+        <v>-0.9137496948242188</v>
+      </c>
+      <c r="F214">
+        <v>0.5598224835706581</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>45530</v>
+        <v>45541</v>
       </c>
       <c r="B215">
-        <v>416.3699951171875</v>
+        <v>409.0599975585938</v>
       </c>
       <c r="C215">
-        <v>420.4357125418527</v>
-      </c>
-      <c r="D215">
-        <v>-1.105717250279042</v>
+        <v>412.3474998474121</v>
       </c>
       <c r="E215">
-        <v>0.5397654994887164</v>
-      </c>
-      <c r="F215" t="s">
-        <v>7</v>
+        <v>-0.5969445970323287</v>
+      </c>
+      <c r="F215">
+        <v>0.4771785463017403</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>45531</v>
+        <v>45544</v>
       </c>
       <c r="B216">
-        <v>412.8599853515625</v>
+        <v>407.239990234375</v>
       </c>
       <c r="C216">
-        <v>419.3299952915737</v>
-      </c>
-      <c r="D216">
-        <v>-0.556248801095137</v>
+        <v>410.5566660563151</v>
       </c>
       <c r="E216">
-        <v>0.5143536374821498</v>
+        <v>-1.233332316080748</v>
+      </c>
+      <c r="F216">
+        <v>0.3737830970347821</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>45532</v>
+        <v>45545</v>
       </c>
       <c r="B217">
-        <v>414.8800048828125</v>
+        <v>408.2000122070312</v>
       </c>
       <c r="C217">
-        <v>418.7737464904785</v>
-      </c>
-      <c r="D217">
-        <v>-0.4259715610080548</v>
+        <v>409.3233337402344</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.4726384747995562</v>
+        <v>0.8823808942522078</v>
+      </c>
+      <c r="F217">
+        <v>0.2375135982269902</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>45533</v>
+        <v>45546</v>
       </c>
       <c r="B218">
-        <v>414.9400024414062</v>
+        <v>415.5</v>
       </c>
       <c r="C218">
-        <v>418.3477749294705</v>
-      </c>
-      <c r="D218">
-        <v>-0.3733317057291288</v>
+        <v>410.2057146344866</v>
       </c>
       <c r="E218">
-        <v>0.4167148365321903</v>
+        <v>1.638035365513417</v>
+      </c>
+      <c r="F218">
+        <v>0.06326201157402972</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>45534</v>
+        <v>45547</v>
       </c>
       <c r="B219">
-        <v>415.6000061035156</v>
+        <v>423.3099975585938</v>
       </c>
       <c r="C219">
-        <v>417.9744432237413</v>
-      </c>
-      <c r="D219">
-        <v>-0.6369442409939268</v>
+        <v>411.84375</v>
       </c>
       <c r="E219">
-        <v>0.3558547736649786</v>
+        <v>1.554026285807311</v>
+      </c>
+      <c r="F219">
+        <v>-0.1267780724421496</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>45538</v>
+        <v>45548</v>
       </c>
       <c r="B220">
-        <v>417.9100036621094</v>
+        <v>425.8299865722656</v>
       </c>
       <c r="C220">
-        <v>415.4266662597656</v>
-      </c>
-      <c r="D220">
-        <v>-1.359523228236583</v>
+        <v>413.3977762858073</v>
       </c>
       <c r="E220">
-        <v>0.2901212518814494</v>
+        <v>1.235978868272563</v>
+      </c>
+      <c r="F220">
+        <v>-0.3223343841503835</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>45539</v>
+        <v>45551</v>
       </c>
       <c r="B221">
-        <v>405.9100036621094</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="C221">
-        <v>414.067143031529</v>
-      </c>
-      <c r="D221">
-        <v>-0.8058934892927141</v>
+        <v>417.105712890625</v>
       </c>
       <c r="E221">
-        <v>0.2114048873544137</v>
+        <v>4.452859061104903</v>
+      </c>
+      <c r="F221">
+        <v>-0.5209038404106455</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>45540</v>
+        <v>45552</v>
       </c>
       <c r="B222">
-        <v>407.6199951171875</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="C222">
-        <v>413.2612495422363</v>
-      </c>
-      <c r="D222">
-        <v>-0.9137496948242188</v>
+        <v>421.5585719517299</v>
       </c>
       <c r="E222">
-        <v>0.1224555688923897</v>
+        <v>1.680178506033769</v>
+      </c>
+      <c r="F222">
+        <v>-0.6819966140944385</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>45541</v>
+        <v>45553</v>
       </c>
       <c r="B223">
-        <v>409.0599975585938</v>
+        <v>435</v>
       </c>
       <c r="C223">
-        <v>412.3474998474121</v>
-      </c>
-      <c r="D223">
-        <v>-0.5969445970323287</v>
+        <v>423.2387504577637</v>
       </c>
       <c r="E223">
-        <v>0.02932111392360115</v>
+        <v>1.999028947618285</v>
+      </c>
+      <c r="F223">
+        <v>-0.78168033473676</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>45544</v>
+        <v>45554</v>
       </c>
       <c r="B224">
-        <v>407.239990234375</v>
+        <v>441.2300109863281</v>
       </c>
       <c r="C224">
-        <v>410.5566660563151</v>
-      </c>
-      <c r="D224">
-        <v>-1.233332316080748</v>
+        <v>425.237779405382</v>
       </c>
       <c r="E224">
-        <v>-0.07012385453965224</v>
+        <v>3.331112331814211</v>
+      </c>
+      <c r="F224">
+        <v>-0.851603741962099</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="B225">
-        <v>408.2000122070312</v>
+        <v>437.2200012207031</v>
       </c>
       <c r="C225">
-        <v>409.3233337402344</v>
-      </c>
-      <c r="D225">
-        <v>0.8823808942522078</v>
+        <v>428.5688917371962</v>
       </c>
       <c r="E225">
-        <v>-0.1857870084122984</v>
-      </c>
-      <c r="F225" t="s">
-        <v>6</v>
+        <v>2.114655832764962</v>
+      </c>
+      <c r="F225">
+        <v>-0.8910204500866413</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>45546</v>
+        <v>45558</v>
       </c>
       <c r="B226">
-        <v>415.5</v>
+        <v>434.2799987792969</v>
       </c>
       <c r="C226">
-        <v>410.2057146344866</v>
-      </c>
-      <c r="D226">
-        <v>1.638035365513417</v>
+        <v>434.9128592354911</v>
       </c>
       <c r="E226">
-        <v>-0.3214494719418999</v>
+        <v>1.024287632533515</v>
+      </c>
+      <c r="F226">
+        <v>-0.890403417748837</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>45547</v>
+        <v>45559</v>
       </c>
       <c r="B227">
-        <v>423.3099975585938</v>
+        <v>433</v>
       </c>
       <c r="C227">
-        <v>411.84375</v>
-      </c>
-      <c r="D227">
-        <v>1.554026285807311</v>
+        <v>435.9371468680246</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>-0.4650834862758922</v>
+        <v>-0.7633950369698823</v>
+      </c>
+      <c r="F227">
+        <v>-0.8516114459691561</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>45548</v>
+        <v>45560</v>
       </c>
       <c r="B228">
-        <v>425.8299865722656</v>
+        <v>429.8299865722656</v>
       </c>
       <c r="C228">
-        <v>413.3977762858073</v>
-      </c>
-      <c r="D228">
-        <v>1.235978868272563</v>
+        <v>435.1737518310547</v>
       </c>
       <c r="E228">
-        <v>-0.6006491291593343</v>
+        <v>-0.009306165907105424</v>
+      </c>
+      <c r="F228">
+        <v>-0.790820756990516</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>45551</v>
+        <v>45561</v>
       </c>
       <c r="B229">
-        <v>430.6000061035156</v>
+        <v>435.0899963378906</v>
       </c>
       <c r="C229">
-        <v>417.105712890625</v>
-      </c>
-      <c r="D229">
-        <v>4.452859061104903</v>
+        <v>435.1644456651476</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>-0.7240023240641166</v>
+        <v>0.1022203233507071</v>
+      </c>
+      <c r="F229">
+        <v>-0.7150088966637649</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>45552</v>
+        <v>45562</v>
       </c>
       <c r="B230">
-        <v>440.2300109863281</v>
+        <v>431.5199890136719</v>
       </c>
       <c r="C230">
-        <v>421.5585719517299</v>
-      </c>
-      <c r="D230">
-        <v>1.680178506033769</v>
+        <v>435.2666659884983</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>-0.8165459234609528</v>
+        <v>-0.8436523114562723</v>
+      </c>
+      <c r="F230">
+        <v>-0.622929634986286</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>45553</v>
+        <v>45565</v>
       </c>
       <c r="B231">
-        <v>435</v>
+        <v>428.2099914550781</v>
       </c>
       <c r="C231">
-        <v>423.2387504577637</v>
-      </c>
-      <c r="D231">
-        <v>1.999028947618285</v>
+        <v>432.7357090541295</v>
       </c>
       <c r="E231">
-        <v>-0.8735188705057715</v>
+        <v>-1.25285557338168</v>
+      </c>
+      <c r="F231">
+        <v>-0.5157960211073997</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>45554</v>
+        <v>45566</v>
       </c>
       <c r="B232">
-        <v>441.2300109863281</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="C232">
-        <v>425.237779405382</v>
-      </c>
-      <c r="D232">
-        <v>3.331112331814211</v>
+        <v>431.4828534807478</v>
       </c>
       <c r="E232">
-        <v>-0.9064717915602054</v>
+        <v>-1.112858363560292</v>
+      </c>
+      <c r="F232">
+        <v>-0.3918360892250135</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="B233">
-        <v>437.2200012207031</v>
+        <v>422.5799865722656</v>
       </c>
       <c r="C233">
-        <v>428.5688917371962</v>
-      </c>
-      <c r="D233">
-        <v>2.114655832764962</v>
+        <v>430.3699951171875</v>
       </c>
       <c r="E233">
-        <v>-0.9021732400312824</v>
+        <v>-1.415554470486086</v>
+      </c>
+      <c r="F233">
+        <v>-0.2309114164045396</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>45558</v>
+        <v>45568</v>
       </c>
       <c r="B234">
-        <v>434.2799987792969</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="C234">
-        <v>434.9128592354911</v>
-      </c>
-      <c r="D234">
-        <v>1.024287632533515</v>
+        <v>428.9544406467014</v>
       </c>
       <c r="E234">
-        <v>-0.872832376497745</v>
+        <v>-1.782223171658018</v>
+      </c>
+      <c r="F234">
+        <v>-0.03698321790185072</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>45559</v>
+        <v>45569</v>
       </c>
       <c r="B235">
-        <v>433</v>
+        <v>418.239990234375</v>
       </c>
       <c r="C235">
-        <v>435.9371468680246</v>
-      </c>
-      <c r="D235">
-        <v>-0.7633950369698823</v>
+        <v>427.1722174750434</v>
       </c>
       <c r="E235">
-        <v>-0.839126381561322</v>
-      </c>
-      <c r="F235" t="s">
-        <v>7</v>
+        <v>-1.313121331431868</v>
+      </c>
+      <c r="F235">
+        <v>0.2090151434397767</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>45560</v>
+        <v>45572</v>
       </c>
       <c r="B236">
-        <v>429.8299865722656</v>
+        <v>416</v>
       </c>
       <c r="C236">
-        <v>435.1737518310547</v>
-      </c>
-      <c r="D236">
-        <v>-0.009306165907105424</v>
+        <v>423.2328534807478</v>
       </c>
       <c r="E236">
-        <v>-0.817485813279931</v>
+        <v>-2.945713588169667</v>
+      </c>
+      <c r="F236">
+        <v>0.4918981316585961</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>45561</v>
+        <v>45573</v>
       </c>
       <c r="B237">
-        <v>435.0899963378906</v>
+        <v>410.8999938964844</v>
       </c>
       <c r="C237">
-        <v>435.1644456651476</v>
-      </c>
-      <c r="D237">
-        <v>0.1022203233507071</v>
+        <v>420.2871398925781</v>
       </c>
       <c r="E237">
-        <v>-0.8022630007590285</v>
-      </c>
-      <c r="F237" t="s">
-        <v>6</v>
+        <v>-0.5533943176269531</v>
+      </c>
+      <c r="F237">
+        <v>0.6852259078139068</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>45562</v>
+        <v>45574</v>
       </c>
       <c r="B238">
-        <v>431.5199890136719</v>
+        <v>415.8599853515625</v>
       </c>
       <c r="C238">
-        <v>435.2666659884983</v>
-      </c>
-      <c r="D238">
-        <v>-0.8436523114562723</v>
+        <v>419.7337455749512</v>
       </c>
       <c r="E238">
-        <v>-0.7667735975361332</v>
-      </c>
-      <c r="F238" t="s">
-        <v>7</v>
+        <v>-0.5004149542914433</v>
+      </c>
+      <c r="F238">
+        <v>0.7795335648816191</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>45565</v>
+        <v>45575</v>
       </c>
       <c r="B239">
-        <v>428.2099914550781</v>
+        <v>415.2300109863281</v>
       </c>
       <c r="C239">
-        <v>432.7357090541295</v>
-      </c>
-      <c r="D239">
-        <v>-1.25285557338168</v>
+        <v>419.2333306206597</v>
       </c>
       <c r="E239">
-        <v>-0.7360353120462984</v>
+        <v>-1.341108534071168</v>
+      </c>
+      <c r="F239">
+        <v>0.8588914232819245</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>45566</v>
+        <v>45576</v>
       </c>
       <c r="B240">
-        <v>428.4500122070312</v>
+        <v>416.1400146484375</v>
       </c>
       <c r="C240">
-        <v>431.4828534807478</v>
-      </c>
-      <c r="D240">
-        <v>-1.112858363560292</v>
+        <v>417.8922220865886</v>
       </c>
       <c r="E240">
-        <v>-0.7141646170508547</v>
+        <v>-0.7193128797743119</v>
+      </c>
+      <c r="F240">
+        <v>0.9262190826576983</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>45567</v>
+        <v>45579</v>
       </c>
       <c r="B241">
-        <v>422.5799865722656</v>
+        <v>417.7699890136719</v>
       </c>
       <c r="C241">
-        <v>430.3699951171875</v>
-      </c>
-      <c r="D241">
-        <v>-1.415554470486086</v>
+        <v>415.7342834472656</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>-0.696132583788844</v>
+        <v>0.5628574916294724</v>
+      </c>
+      <c r="F241">
+        <v>0.9711456069397011</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>45568</v>
+        <v>45580</v>
       </c>
       <c r="B242">
-        <v>417.6300048828125</v>
+        <v>422.1799926757812</v>
       </c>
       <c r="C242">
-        <v>428.9544406467014</v>
-      </c>
-      <c r="D242">
-        <v>-1.782223171658018</v>
+        <v>416.2971409388951</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>-0.6115077914004088</v>
+        <v>-0.1408909388950974</v>
+      </c>
+      <c r="F242">
+        <v>0.9885872940184461</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="B243">
-        <v>418.239990234375</v>
+        <v>415.1700134277344</v>
       </c>
       <c r="C243">
-        <v>427.1722174750434</v>
-      </c>
-      <c r="D243">
-        <v>-1.313121331431868</v>
+        <v>416.15625</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>-0.5682278676119978</v>
+        <v>0.6893039279514142</v>
+      </c>
+      <c r="F243">
+        <v>0.9859752072948298</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>45572</v>
+        <v>45582</v>
       </c>
       <c r="B244">
-        <v>416</v>
+        <v>422.3599853515625</v>
       </c>
       <c r="C244">
-        <v>423.2328534807478</v>
-      </c>
-      <c r="D244">
-        <v>-2.945713588169667</v>
+        <v>416.8455539279514</v>
       </c>
       <c r="E244">
-        <v>-0.6523305085088845</v>
+        <v>0.1266682942708144</v>
+      </c>
+      <c r="F244">
+        <v>0.9777634780772392</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>45573</v>
+        <v>45583</v>
       </c>
       <c r="B245">
-        <v>410.8999938964844</v>
+        <v>417.1400146484375</v>
       </c>
       <c r="C245">
-        <v>420.2871398925781</v>
-      </c>
-      <c r="D245">
-        <v>-0.5533943176269531</v>
+        <v>416.9722222222222</v>
       </c>
       <c r="E245">
-        <v>-0.630629295750251</v>
+        <v>0.3844975870122387</v>
+      </c>
+      <c r="F245">
+        <v>0.975841461026556</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>45574</v>
+        <v>45586</v>
       </c>
       <c r="B246">
-        <v>415.8599853515625</v>
+        <v>416.1199951171875</v>
       </c>
       <c r="C246">
-        <v>419.7337455749512</v>
-      </c>
-      <c r="D246">
-        <v>-0.5004149542914433</v>
+        <v>418.1257149832589</v>
       </c>
       <c r="E246">
-        <v>-0.2077757331944434</v>
+        <v>0.3357107979910552</v>
+      </c>
+      <c r="F246">
+        <v>0.988724722094025</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>45575</v>
+        <v>45587</v>
       </c>
       <c r="B247">
-        <v>415.2300109863281</v>
+        <v>418.489990234375</v>
       </c>
       <c r="C247">
-        <v>419.2333306206597</v>
-      </c>
-      <c r="D247">
-        <v>-1.341108534071168</v>
+        <v>418.46142578125</v>
       </c>
       <c r="E247">
-        <v>0.2381803731015716</v>
+        <v>1.549819946289062</v>
+      </c>
+      <c r="F247">
+        <v>0.9852697959972085</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>45576</v>
+        <v>45588</v>
       </c>
       <c r="B248">
-        <v>416.1400146484375</v>
+        <v>430.8599853515625</v>
       </c>
       <c r="C248">
-        <v>417.8922220865886</v>
-      </c>
-      <c r="D248">
-        <v>-0.7193128797743119</v>
+        <v>420.0112457275391</v>
       </c>
       <c r="E248">
-        <v>0.4408433301677222</v>
+        <v>0.5909712049696054</v>
+      </c>
+      <c r="F248">
+        <v>0.9921659850980713</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>45579</v>
+        <v>45589</v>
       </c>
       <c r="B249">
-        <v>417.7699890136719</v>
+        <v>425.3299865722656</v>
       </c>
       <c r="C249">
-        <v>415.7342834472656</v>
-      </c>
-      <c r="D249">
-        <v>0.5628574916294724</v>
+        <v>420.6022169325087</v>
       </c>
       <c r="E249">
-        <v>0.09673959481759133</v>
-      </c>
-      <c r="F249" t="s">
-        <v>6</v>
+        <v>0.9988911946614962</v>
+      </c>
+      <c r="F249">
+        <v>0.9960059169114828</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="B250">
-        <v>422.1799926757812</v>
+        <v>426.760009765625</v>
       </c>
       <c r="C250">
-        <v>416.2971409388951</v>
-      </c>
-      <c r="D250">
-        <v>-0.1408909388950974</v>
+        <v>421.6011081271702</v>
       </c>
       <c r="E250">
-        <v>-0.943630647966276</v>
-      </c>
-      <c r="F250" t="s">
-        <v>7</v>
+        <v>0.7215346886367229</v>
+      </c>
+      <c r="F250">
+        <v>0.947172501330414</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="B251">
-        <v>415.1700134277344</v>
+        <v>431.6600036621094</v>
       </c>
       <c r="C251">
-        <v>416.15625</v>
-      </c>
-      <c r="D251">
-        <v>0.6893039279514142</v>
+        <v>423.7657121930803</v>
       </c>
       <c r="E251">
-        <v>-0.6819583780638337</v>
-      </c>
-      <c r="F251" t="s">
-        <v>6</v>
+        <v>1.551426478794667</v>
+      </c>
+      <c r="F251">
+        <v>0.9250039938621878</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>45582</v>
+        <v>45594</v>
       </c>
       <c r="B252">
-        <v>422.3599853515625</v>
+        <v>428</v>
       </c>
       <c r="C252">
-        <v>416.8455539279514</v>
-      </c>
-      <c r="D252">
-        <v>0.1266682942708144</v>
+        <v>425.317138671875</v>
       </c>
       <c r="E252">
-        <v>-0.9999999981088094</v>
+        <v>1.515357971191406</v>
+      </c>
+      <c r="F252">
+        <v>0.9999999998689525</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>45583</v>
+        <v>45595</v>
       </c>
       <c r="B253">
-        <v>417.1400146484375</v>
+        <v>437.4400024414062</v>
       </c>
       <c r="C253">
-        <v>416.9722222222222</v>
+        <v>426.8324966430664</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/Results.xlsx
+++ b/data_analysis/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
   <si>
     <t>Open</t>
   </si>
@@ -429,4394 +429,4397 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B2">
-        <v>336.3255414628046</v>
+        <v>337.2585179647521</v>
       </c>
       <c r="C2">
-        <v>336.3255414628046</v>
+        <v>337.2585179647521</v>
       </c>
       <c r="E2">
-        <v>0.4664882509737822</v>
+        <v>3.697243403255641</v>
       </c>
       <c r="F2">
-        <v>1.000000000000073</v>
+        <v>1.000000000000026</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B3">
-        <v>337.2585179647521</v>
+        <v>344.6530047712634</v>
       </c>
       <c r="C3">
-        <v>336.7920297137783</v>
+        <v>340.9557613680078</v>
       </c>
       <c r="E3">
-        <v>2.62033516014634</v>
+        <v>2.023147480137993</v>
       </c>
       <c r="F3">
-        <v>0.9970084798942055</v>
+        <v>0.9969250350430583</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B4">
-        <v>344.6530351942174</v>
+        <v>347.0252038084218</v>
       </c>
       <c r="C4">
-        <v>339.4123648739247</v>
+        <v>342.9789088481457</v>
       </c>
       <c r="E4">
-        <v>1.903217294467083</v>
+        <v>0.6531525324756444</v>
       </c>
       <c r="F4">
-        <v>0.9902011402498884</v>
+        <v>0.9899290998306945</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B5">
-        <v>347.0252340517931</v>
+        <v>350.8167392378533</v>
       </c>
       <c r="C5">
-        <v>341.3155821683918</v>
+        <v>344.9383664455727</v>
       </c>
       <c r="E5">
-        <v>0.6334124882270089</v>
+        <v>2.356814389305441</v>
       </c>
       <c r="F5">
-        <v>0.9807668876911604</v>
+        <v>0.9802200138305392</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B6">
-        <v>350.8167694917966</v>
+        <v>356.7224383920999</v>
       </c>
       <c r="C6">
-        <v>343.2158196330728</v>
+        <v>347.2951808348781</v>
       </c>
       <c r="E6">
-        <v>2.251103126504518</v>
+        <v>1.948372357718711</v>
       </c>
       <c r="F6">
-        <v>0.9687292951254751</v>
+        <v>0.9678137059029356</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B7">
-        <v>356.7224383920999</v>
+        <v>358.9854149811907</v>
       </c>
       <c r="C7">
-        <v>345.4669227595773</v>
+        <v>349.2435531925968</v>
       </c>
       <c r="E7">
-        <v>1.931217515924743</v>
+        <v>1.479606448983247</v>
       </c>
       <c r="F7">
-        <v>0.9537941765427521</v>
+        <v>0.9524949421935135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B8">
-        <v>358.9854453710504</v>
+        <v>359.600798335479</v>
       </c>
       <c r="C8">
-        <v>347.398140275502</v>
+        <v>350.7231596415801</v>
       </c>
       <c r="E8">
-        <v>1.5253284257725</v>
+        <v>1.00921043335552</v>
       </c>
       <c r="F8">
-        <v>0.9362966384615065</v>
+        <v>0.9346077411198007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B9">
-        <v>359.6007676816819</v>
+        <v>358.7968431084245</v>
       </c>
       <c r="C9">
-        <v>348.9234687012745</v>
+        <v>351.7323700749356</v>
       </c>
       <c r="E9">
-        <v>1.097041600794398</v>
+        <v>1.680836370528766</v>
       </c>
       <c r="F9">
-        <v>0.9174214412268429</v>
+        <v>0.9153045879899645</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B10">
-        <v>358.7968431084245</v>
+        <v>365.4767164421842</v>
       </c>
       <c r="C10">
-        <v>350.0205103020689</v>
+        <v>356.7748791865219</v>
       </c>
       <c r="E10">
-        <v>2.251457703752408</v>
+        <v>3.031531033599265</v>
       </c>
       <c r="F10">
-        <v>0.897667365218472</v>
+        <v>0.8951331341046707</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B11">
-        <v>365.4766857964362</v>
+        <v>368.245921043617</v>
       </c>
       <c r="C11">
-        <v>356.7748834133262</v>
+        <v>359.8064102201212</v>
       </c>
       <c r="E11">
-        <v>3.031531081484843</v>
+        <v>1.181933558422202</v>
       </c>
       <c r="F11">
-        <v>0.8776761706313913</v>
+        <v>0.875127854550923</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B12">
-        <v>368.2459516221875</v>
+        <v>369.2618786874986</v>
       </c>
       <c r="C12">
-        <v>359.806414494811</v>
+        <v>360.9883437785434</v>
       </c>
       <c r="E12">
-        <v>1.181933024085879</v>
+        <v>0.8839210105020925</v>
       </c>
       <c r="F12">
-        <v>0.8585408856848723</v>
+        <v>0.8558264056909183</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B13">
-        <v>369.2618786874986</v>
+        <v>368.943632873062</v>
       </c>
       <c r="C13">
-        <v>360.9883475188969</v>
+        <v>361.8722647890455</v>
       </c>
       <c r="E13">
-        <v>0.8839205949072948</v>
+        <v>2.306940336192554</v>
       </c>
       <c r="F13">
-        <v>0.8399959603441407</v>
+        <v>0.8368774681339739</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B14">
-        <v>368.943632873062</v>
+        <v>371.5792022635868</v>
       </c>
       <c r="C14">
-        <v>361.8722681138042</v>
+        <v>364.179205125238</v>
       </c>
       <c r="E14">
-        <v>2.306933549329187</v>
+        <v>1.059617326205948</v>
       </c>
       <c r="F14">
-        <v>0.8217843364900319</v>
+        <v>0.8182714199056685</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B15">
-        <v>371.57917143576</v>
+        <v>369.2022053086174</v>
       </c>
       <c r="C15">
-        <v>364.1792016631334</v>
+        <v>367.3580571038559</v>
       </c>
       <c r="E15">
-        <v>1.059617009050138</v>
+        <v>2.118739307840599</v>
       </c>
       <c r="F15">
-        <v>0.8040681960286298</v>
+        <v>0.8003759907962682</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B16">
-        <v>369.2022053086174</v>
+        <v>373.6280182633099</v>
       </c>
       <c r="C16">
-        <v>367.3580526902838</v>
+        <v>369.4767964116965</v>
       </c>
       <c r="E16">
-        <v>2.118743697878131</v>
+        <v>0.8085694096295128</v>
       </c>
       <c r="F16">
-        <v>0.7869951969476657</v>
+        <v>0.7835174196031126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B17">
-        <v>373.6280489935717</v>
+        <v>375.9453516887322</v>
       </c>
       <c r="C17">
-        <v>369.4767963881619</v>
+        <v>370.285365821326</v>
       </c>
       <c r="E17">
-        <v>0.8085694125712735</v>
+        <v>0.6126399387831043</v>
       </c>
       <c r="F17">
-        <v>0.7710836862629579</v>
+        <v>0.7676218714561509</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B18">
-        <v>375.9453516887322</v>
+        <v>375.2789554627134</v>
       </c>
       <c r="C18">
-        <v>370.2853658007332</v>
+        <v>371.5106456988922</v>
       </c>
       <c r="E18">
-        <v>0.6126418541423391</v>
+        <v>0.6278789612479349</v>
       </c>
       <c r="F18">
-        <v>0.7562402354965926</v>
+        <v>0.75247448782626</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B19">
-        <v>375.2789554627134</v>
+        <v>374.731962508856</v>
       </c>
       <c r="C19">
-        <v>371.5106495090179</v>
+        <v>373.394282582636</v>
       </c>
       <c r="E19">
-        <v>0.6278776857857528</v>
+        <v>0.7857131105206463</v>
       </c>
       <c r="F19">
-        <v>0.7418675525193262</v>
+        <v>0.7379003306417979</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B20">
-        <v>374.731962508856</v>
+        <v>376.2934809267111</v>
       </c>
       <c r="C20">
-        <v>373.3942825663751</v>
+        <v>374.1799956931566</v>
       </c>
       <c r="E20">
-        <v>0.7857132200423962</v>
+        <v>1.070575623101206</v>
       </c>
       <c r="F20">
-        <v>0.7279269026530907</v>
+        <v>0.7240168573384099</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B21">
-        <v>376.2934507560147</v>
+        <v>381.674025054865</v>
       </c>
       <c r="C21">
-        <v>374.1799957864175</v>
+        <v>375.2505713162578</v>
       </c>
       <c r="E21">
-        <v>1.070580025934646</v>
+        <v>0.1477626387978148</v>
       </c>
       <c r="F21">
-        <v>0.71462989927687</v>
+        <v>0.7104801143427301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B22">
-        <v>381.6740559679596</v>
+        <v>376.43267242664</v>
       </c>
       <c r="C22">
-        <v>375.2505758123522</v>
+        <v>375.3983339550556</v>
       </c>
       <c r="E22">
-        <v>0.1477582663172257</v>
+        <v>0.68873358458859</v>
       </c>
       <c r="F22">
-        <v>0.7020401545629018</v>
+        <v>0.6976495078054867</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B23">
-        <v>376.43264194289</v>
+        <v>374.712073985326</v>
       </c>
       <c r="C23">
-        <v>375.3983340786694</v>
+        <v>376.0870675396442</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>0.6887374222038716</v>
+        <v>-0.3044085277273704</v>
       </c>
       <c r="F23">
-        <v>0.6903798955318705</v>
+        <v>0.6854828373684558</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B24">
-        <v>374.7121046862492</v>
+        <v>367.0937233301231</v>
       </c>
       <c r="C24">
-        <v>376.0870715008733</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>375.1738419564621</v>
       </c>
       <c r="E24">
-        <v>-0.3044098024431605</v>
+        <v>-1.54583158292877</v>
       </c>
       <c r="F24">
-        <v>0.6791795596819709</v>
+        <v>0.6739542008570584</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B25">
-        <v>367.0937233301231</v>
+        <v>364.4581343822117</v>
       </c>
       <c r="C25">
-        <v>375.1738420935438</v>
+        <v>373.6280103735334</v>
       </c>
       <c r="E25">
-        <v>-1.545831582928827</v>
+        <v>-0.2648006527247162</v>
       </c>
       <c r="F25">
-        <v>0.6686828097758696</v>
+        <v>0.6626788275376502</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B26">
-        <v>364.4581343822117</v>
+        <v>371.5096051517362</v>
       </c>
       <c r="C26">
-        <v>373.628010510615</v>
+        <v>373.3632097208086</v>
       </c>
       <c r="E26">
-        <v>-0.2648045335857319</v>
+        <v>-0.7927523510900301</v>
       </c>
       <c r="F26">
-        <v>0.6585805869718863</v>
+        <v>0.651584256707858</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B27">
-        <v>371.5095742419293</v>
+        <v>366.2284385609982</v>
       </c>
       <c r="C27">
-        <v>373.3632059770292</v>
+        <v>372.5704573697186</v>
       </c>
       <c r="E27">
-        <v>-0.7927485691359948</v>
+        <v>-0.8376398464909016</v>
       </c>
       <c r="F27">
-        <v>0.6483037861352999</v>
+        <v>0.6407230613478849</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="B28">
-        <v>366.2284688548053</v>
+        <v>367.1932038904382</v>
       </c>
       <c r="C28">
-        <v>372.5704574078932</v>
+        <v>371.7328175232277</v>
       </c>
       <c r="E28">
-        <v>-0.8376398464908448</v>
+        <v>-1.164640644543492</v>
       </c>
       <c r="F28">
-        <v>0.6383938802584987</v>
+        <v>0.6300820990482647</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B29">
-        <v>367.1932038904382</v>
+        <v>366.477089826347</v>
       </c>
       <c r="C29">
-        <v>371.7328175614024</v>
+        <v>368.2388955895972</v>
       </c>
       <c r="E29">
-        <v>-1.164637782472009</v>
+        <v>-0.8396933470269232</v>
       </c>
       <c r="F29">
-        <v>0.6286099982889924</v>
+        <v>0.6195614118942188</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B30">
-        <v>366.4771201121479</v>
+        <v>368.8342205561381</v>
       </c>
       <c r="C30">
-        <v>368.2389042139864</v>
+        <v>367.3992022425703</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>-0.8396977328729918</v>
+        <v>0.8221094202550034</v>
       </c>
       <c r="F30">
-        <v>0.6188514717531092</v>
+        <v>0.608349614857526</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B31">
-        <v>368.8342205561381</v>
+        <v>373.9760776046103</v>
       </c>
       <c r="C31">
-        <v>367.3992064811134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
+        <v>368.2213116628253</v>
       </c>
       <c r="E31">
-        <v>0.8221088904370504</v>
+        <v>0.3399439907907436</v>
       </c>
       <c r="F31">
-        <v>0.6083103262581057</v>
+        <v>0.5970645422694337</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B32">
-        <v>373.9760776046103</v>
+        <v>371.2808075799423</v>
       </c>
       <c r="C32">
-        <v>368.2213153715504</v>
+        <v>368.5612556536161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>0.3399470379381455</v>
+        <v>-0.2486404250729493</v>
       </c>
       <c r="F32">
-        <v>0.5980318887937214</v>
+        <v>0.5864142819880147</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B33">
-        <v>371.280838712993</v>
+        <v>364.8559595044662</v>
       </c>
       <c r="C33">
-        <v>368.5612624094886</v>
+        <v>368.3126152285431</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>-0.2486404250730061</v>
+        <v>0.08908830388238205</v>
       </c>
       <c r="F33">
-        <v>0.5883197383509258</v>
+        <v>0.5762105027200829</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B34">
-        <v>364.8559595044662</v>
+        <v>367.4418020193896</v>
       </c>
       <c r="C34">
-        <v>368.3126219844156</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
+        <v>368.5798801401903</v>
       </c>
       <c r="E34">
-        <v>0.08908897663212656</v>
+        <v>0.3253625323703204</v>
       </c>
       <c r="F34">
-        <v>0.5788883538223751</v>
+        <v>0.5661137091217502</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B35">
-        <v>367.4418020193896</v>
+        <v>369.4707416170306</v>
       </c>
       <c r="C35">
-        <v>368.5798889143119</v>
+        <v>368.9052426725606</v>
       </c>
       <c r="E35">
-        <v>0.3253581933900591</v>
+        <v>0.5070490390951363</v>
       </c>
       <c r="F35">
-        <v>0.5700809380310403</v>
+        <v>0.5566694862635237</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B36">
-        <v>369.4707112441685</v>
+        <v>372.9616349853217</v>
       </c>
       <c r="C36">
-        <v>368.905247107702</v>
+        <v>369.4122917116557</v>
       </c>
       <c r="E36">
-        <v>0.5070523444819628</v>
+        <v>0.1247374709046767</v>
       </c>
       <c r="F36">
-        <v>0.5624212220624898</v>
+        <v>0.5483989675483328</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B37">
-        <v>372.961665863558</v>
+        <v>370.534928949798</v>
       </c>
       <c r="C37">
-        <v>369.412299452184</v>
+        <v>369.5370291825604</v>
       </c>
       <c r="E37">
-        <v>0.1247332289001406</v>
+        <v>0.5746358989392206</v>
       </c>
       <c r="F37">
-        <v>0.5564175854145255</v>
+        <v>0.5419727963277391</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B38">
-        <v>370.5348985122851</v>
+        <v>371.6488129167997</v>
       </c>
       <c r="C38">
-        <v>369.5370326810841</v>
+        <v>370.1116650814996</v>
       </c>
       <c r="E38">
-        <v>0.5746359165451054</v>
+        <v>0.181232620601449</v>
       </c>
       <c r="F38">
-        <v>0.5516628845546409</v>
+        <v>0.5366846677854495</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45282</v>
+        <v>45286</v>
       </c>
       <c r="B39">
-        <v>371.648843361054</v>
+        <v>372.9616528950932</v>
       </c>
       <c r="C39">
-        <v>370.1116685976292</v>
+        <v>370.8365955639054</v>
       </c>
       <c r="E39">
-        <v>0.1812317629072027</v>
+        <v>0.1174539648642394</v>
       </c>
       <c r="F39">
-        <v>0.5477659809140818</v>
+        <v>0.5324403254912488</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B40">
-        <v>372.9616528950932</v>
+        <v>371.6587733179547</v>
       </c>
       <c r="C40">
-        <v>370.836595649258</v>
+        <v>370.9540495287696</v>
       </c>
       <c r="E40">
-        <v>0.117453952670985</v>
+        <v>0.2969462407791639</v>
       </c>
       <c r="F40">
-        <v>0.5446261339291415</v>
+        <v>0.5291439702257706</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B41">
-        <v>371.6587733179547</v>
+        <v>373.3296194550034</v>
       </c>
       <c r="C41">
-        <v>370.954049601929</v>
+        <v>371.2509957695488</v>
       </c>
       <c r="E41">
-        <v>0.2969462316342515</v>
+        <v>0.8142973236773514</v>
       </c>
       <c r="F41">
-        <v>0.5420097893409231</v>
+        <v>0.5262038307968973</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B42">
-        <v>373.3296194550034</v>
+        <v>373.956180608808</v>
       </c>
       <c r="C42">
-        <v>371.2509958335633</v>
+        <v>372.0652930932262</v>
       </c>
       <c r="E42">
-        <v>0.814301137968755</v>
+        <v>0.1703797061773855</v>
       </c>
       <c r="F42">
-        <v>0.5398496747584312</v>
+        <v>0.5237192963458671</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="B43">
-        <v>373.9562111231392</v>
+        <v>371.8278333128194</v>
       </c>
       <c r="C43">
-        <v>372.065296971532</v>
+        <v>372.7468119179357</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>0.1703802623174795</v>
+        <v>-0.9570990627619267</v>
       </c>
       <c r="F43">
-        <v>0.5377061510925113</v>
+        <v>0.5214212141314736</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B44">
-        <v>371.8278333128194</v>
+        <v>367.0042175413639</v>
       </c>
       <c r="C44">
-        <v>372.7468180208019</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>371.7897128551738</v>
       </c>
       <c r="E44">
-        <v>-0.9571000799062972</v>
+        <v>-0.4477912661491814</v>
       </c>
       <c r="F44">
-        <v>0.5354143994535706</v>
+        <v>0.5189837880323331</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B45">
-        <v>367.0042175413639</v>
+        <v>368.6551739921296</v>
       </c>
       <c r="C45">
-        <v>371.7897179408956</v>
+        <v>371.3419215890246</v>
       </c>
       <c r="E45">
-        <v>-0.447791992680834</v>
+        <v>-0.5471892846645687</v>
       </c>
       <c r="F45">
-        <v>0.5322419726616285</v>
+        <v>0.5152400124148898</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B46">
-        <v>368.6551739921296</v>
+        <v>366.9644073117081</v>
       </c>
       <c r="C46">
-        <v>371.3419259482148</v>
+        <v>370.79473230436</v>
       </c>
       <c r="E46">
-        <v>-0.547189829563365</v>
+        <v>-0.503774839241108</v>
       </c>
       <c r="F46">
-        <v>0.527410290318471</v>
+        <v>0.5098529267954635</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B47">
-        <v>366.9644073117081</v>
+        <v>367.292633952991</v>
       </c>
       <c r="C47">
-        <v>370.7947361186514</v>
+        <v>369.2834077866367</v>
       </c>
       <c r="E47">
-        <v>-0.5037744154309394</v>
+        <v>-0.6613762417084672</v>
       </c>
       <c r="F47">
-        <v>0.5212479038717776</v>
+        <v>0.5030743923217124</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B48">
-        <v>367.292633952991</v>
+        <v>369.9879231585575</v>
       </c>
       <c r="C48">
-        <v>369.2834128723586</v>
+        <v>368.6220315449282</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>-0.6613863625316299</v>
+        <v>0.8145935231585213</v>
       </c>
       <c r="F48">
-        <v>0.5135815619139618</v>
+        <v>0.494474053908905</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B49">
-        <v>369.9878929479498</v>
+        <v>374.3241862070379</v>
       </c>
       <c r="C49">
-        <v>368.622026509827</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
+        <v>369.4366250680868</v>
       </c>
       <c r="E49">
-        <v>0.8145985292183013</v>
+        <v>1.808153741525075</v>
       </c>
       <c r="F49">
-        <v>0.5042109048908341</v>
+        <v>0.4844384878727746</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B50">
-        <v>374.3242162143558</v>
+        <v>383.9018550002872</v>
       </c>
       <c r="C50">
-        <v>369.4366250390453</v>
+        <v>371.2447788096118</v>
       </c>
       <c r="E50">
-        <v>1.808153745155266</v>
+        <v>1.349981927012948</v>
       </c>
       <c r="F50">
-        <v>0.4941770613881062</v>
+        <v>0.4740599450736936</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B51">
-        <v>383.9018550002872</v>
+        <v>383.3946161527287</v>
       </c>
       <c r="C51">
-        <v>371.2447787842005</v>
+        <v>372.5947607366248</v>
       </c>
       <c r="E51">
-        <v>1.349981929836531</v>
+        <v>1.452203715766018</v>
       </c>
       <c r="F51">
-        <v>0.4832747845367276</v>
+        <v>0.4631142519841881</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45303</v>
+        <v>45307</v>
       </c>
       <c r="B52">
-        <v>383.3946161527287</v>
+        <v>391.520239126531</v>
       </c>
       <c r="C52">
-        <v>372.5947607140371</v>
+        <v>378.4035755996888</v>
       </c>
       <c r="E52">
-        <v>1.452203712942534</v>
+        <v>1.066789998261584</v>
       </c>
       <c r="F52">
-        <v>0.4719246497670866</v>
+        <v>0.4515411308121162</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B53">
-        <v>391.520239126531</v>
+        <v>385.8711055875195</v>
       </c>
       <c r="C53">
-        <v>378.4035755658072</v>
+        <v>379.4703655979504</v>
       </c>
       <c r="E53">
-        <v>1.066794346077131</v>
+        <v>1.265049001341254</v>
       </c>
       <c r="F53">
-        <v>0.4604122772250165</v>
+        <v>0.4415755469781867</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B54">
-        <v>385.871135988347</v>
+        <v>389.590757608681</v>
       </c>
       <c r="C54">
-        <v>379.4703699118843</v>
+        <v>380.7354145992917</v>
       </c>
       <c r="E54">
-        <v>1.265048462099571</v>
+        <v>3.28952513821622</v>
       </c>
       <c r="F54">
-        <v>0.4511389328816739</v>
+        <v>0.4321983342697208</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B55">
-        <v>389.590757608681</v>
+        <v>393.6088350587205</v>
       </c>
       <c r="C55">
-        <v>380.7354183739839</v>
+        <v>384.0249397375079</v>
       </c>
       <c r="E55">
-        <v>3.289521351363476</v>
+        <v>2.093419544999165</v>
       </c>
       <c r="F55">
-        <v>0.443403214386862</v>
+        <v>0.4244230868366631</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B56">
-        <v>393.6088047638987</v>
+        <v>397.8456367008518</v>
       </c>
       <c r="C56">
-        <v>384.0249397253474</v>
+        <v>390.3051983725054</v>
       </c>
       <c r="E56">
-        <v>2.093419554941875</v>
+        <v>1.700705355318405</v>
       </c>
       <c r="F56">
-        <v>0.4374682469819219</v>
+        <v>0.4194252421959228</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B57">
-        <v>397.8456367008518</v>
+        <v>393.598848284639</v>
       </c>
       <c r="C57">
-        <v>390.305198390173</v>
+        <v>392.0059037278238</v>
       </c>
       <c r="E57">
-        <v>1.700705355318405</v>
+        <v>1.05021110341022</v>
       </c>
       <c r="F57">
-        <v>0.4331900277421278</v>
+        <v>0.4179667272189115</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B58">
-        <v>393.598848284639</v>
+        <v>399.3573814516948</v>
       </c>
       <c r="C58">
-        <v>392.0059037454914</v>
+        <v>393.056114831234</v>
       </c>
       <c r="E58">
-        <v>1.050211100886202</v>
+        <v>1.133270987382616</v>
       </c>
       <c r="F58">
-        <v>0.4320680348021467</v>
+        <v>0.4175551570318652</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B59">
-        <v>399.3573814516948</v>
+        <v>402.1222827302953</v>
       </c>
       <c r="C59">
-        <v>393.0561148463776</v>
+        <v>394.1893858186166</v>
       </c>
       <c r="E59">
-        <v>1.133270985489673</v>
+        <v>0.8869589421245792</v>
       </c>
       <c r="F59">
-        <v>0.4322699735451799</v>
+        <v>0.418342085140305</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B60">
-        <v>402.1222827302953</v>
+        <v>402.1720162977375</v>
       </c>
       <c r="C60">
-        <v>394.1893858318673</v>
+        <v>395.0763447607412</v>
       </c>
       <c r="E60">
-        <v>0.8869589406522778</v>
+        <v>1.286828468536991</v>
       </c>
       <c r="F60">
-        <v>0.4330550679809793</v>
+        <v>0.4201442999653673</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B61">
-        <v>402.1720162977375</v>
+        <v>403.8528106405262</v>
       </c>
       <c r="C61">
-        <v>395.0763447725196</v>
+        <v>398.9368301663522</v>
       </c>
       <c r="E61">
-        <v>1.286827022000314</v>
+        <v>2.344329909846465</v>
       </c>
       <c r="F61">
-        <v>0.4335158705402412</v>
+        <v>0.4211960309455107</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B62">
-        <v>403.8528106405262</v>
+        <v>410.0191444276463</v>
       </c>
       <c r="C62">
-        <v>398.9368258385205</v>
+        <v>401.2811600761987</v>
       </c>
       <c r="E62">
-        <v>2.34433423767814</v>
+        <v>0.4333467471548147</v>
       </c>
       <c r="F62">
-        <v>0.4330615115906958</v>
+        <v>0.4230492806653653</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B63">
-        <v>410.0191444276463</v>
+        <v>404.7479340534368</v>
       </c>
       <c r="C63">
-        <v>401.2811600761987</v>
+        <v>401.7145068233535</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>0.4333467471548147</v>
+        <v>-0.2298537845810529</v>
       </c>
       <c r="F63">
-        <v>0.4339471127246072</v>
+        <v>0.4254360737068886</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B64">
-        <v>404.7479340534368</v>
+        <v>399.645822762124</v>
       </c>
       <c r="C64">
-        <v>401.7145068233535</v>
+        <v>401.4846530387724</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>-0.2298537845810529</v>
+        <v>0.4188232464960606</v>
       </c>
       <c r="F64">
-        <v>0.4349956837712667</v>
+        <v>0.4268823360897583</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B65">
-        <v>399.645822762124</v>
+        <v>401.6150459193161</v>
       </c>
       <c r="C65">
-        <v>401.4846530387724</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
+        <v>401.9034762852685</v>
       </c>
       <c r="E65">
-        <v>0.418819916755524</v>
+        <v>0.7809717824370068</v>
       </c>
       <c r="F65">
-        <v>0.4342568138019477</v>
+        <v>0.4261108598258756</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B66">
-        <v>401.6150159516513</v>
+        <v>407.6719673272692</v>
       </c>
       <c r="C66">
-        <v>401.9034729555279</v>
+        <v>404.2463916325795</v>
       </c>
       <c r="E66">
-        <v>0.780971465318847</v>
+        <v>0.2145381485071312</v>
       </c>
       <c r="F66">
-        <v>0.4320011075522787</v>
+        <v>0.4240068312306285</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B67">
-        <v>407.6719673272692</v>
+        <v>403.6737833372877</v>
       </c>
       <c r="C67">
-        <v>404.2463873514845</v>
+        <v>404.4609297810866</v>
       </c>
       <c r="E67">
-        <v>0.214538148507188</v>
+        <v>0.09554894361644983</v>
       </c>
       <c r="F67">
-        <v>0.4292602771322152</v>
+        <v>0.4227160224024888</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B68">
-        <v>403.6737833372877</v>
+        <v>405.2253213300188</v>
       </c>
       <c r="C68">
-        <v>404.4609254999917</v>
+        <v>404.5564787247031</v>
       </c>
       <c r="E68">
-        <v>0.09555323255193571</v>
+        <v>0.8047654608327548</v>
       </c>
       <c r="F68">
-        <v>0.4273372122475452</v>
+        <v>0.4208018312442141</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B69">
-        <v>405.2253513604076</v>
+        <v>411.7993678721975</v>
       </c>
       <c r="C69">
-        <v>404.5564787325436</v>
+        <v>405.3612441855358</v>
       </c>
       <c r="E69">
-        <v>0.8047654599615726</v>
+        <v>1.01556092992746</v>
       </c>
       <c r="F69">
-        <v>0.4245038716664407</v>
+        <v>0.4178419233282196</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B70">
-        <v>411.7993678721975</v>
+        <v>412.9928590098735</v>
       </c>
       <c r="C70">
-        <v>405.3612441925052</v>
+        <v>406.3768051154633</v>
       </c>
       <c r="E70">
-        <v>1.01556092992746</v>
+        <v>0.7911774524718377</v>
       </c>
       <c r="F70">
-        <v>0.420978487618355</v>
+        <v>0.4145058328778566</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B71">
-        <v>412.9928590098735</v>
+        <v>418.274017514189</v>
       </c>
       <c r="C71">
-        <v>406.3768051224326</v>
+        <v>408.7503374728788</v>
       </c>
       <c r="E71">
-        <v>0.7911759813700693</v>
+        <v>0.1605528588366383</v>
       </c>
       <c r="F71">
-        <v>0.4180202282592818</v>
+        <v>0.4118494847647741</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B72">
-        <v>418.2739866071132</v>
+        <v>402.7389159311724</v>
       </c>
       <c r="C72">
-        <v>408.7503330665429</v>
+        <v>408.9108903317154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>0.1605527950844703</v>
+        <v>-0.2885616713510331</v>
       </c>
       <c r="F72">
-        <v>0.415841867594029</v>
+        <v>0.4110809796986742</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B73">
-        <v>402.7388855172427</v>
+        <v>406.6023969609074</v>
       </c>
       <c r="C73">
-        <v>408.9108858616273</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>408.6223286603644</v>
       </c>
       <c r="E73">
-        <v>-0.2885611125900027</v>
+        <v>-0.2166838456848268</v>
       </c>
       <c r="F73">
-        <v>0.4156001093848443</v>
+        <v>0.4107350320279897</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B74">
-        <v>406.6023969609074</v>
+        <v>406.6721740492015</v>
       </c>
       <c r="C74">
-        <v>408.6223247490373</v>
+        <v>408.4056448146796</v>
       </c>
       <c r="E74">
-        <v>-0.2166834110928448</v>
+        <v>-0.131017474586713</v>
       </c>
       <c r="F74">
-        <v>0.4156417123494217</v>
+        <v>0.4102732768870923</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B75">
-        <v>406.6721740492015</v>
+        <v>406.4928100559887</v>
       </c>
       <c r="C75">
-        <v>408.4056413379445</v>
+        <v>408.2746273400929</v>
       </c>
       <c r="E75">
-        <v>-0.131017474586713</v>
+        <v>-0.2949035843087131</v>
       </c>
       <c r="F75">
-        <v>0.4155651457892209</v>
+        <v>0.4093419142361552</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B76">
-        <v>406.4928100559887</v>
+        <v>401.7897635056893</v>
       </c>
       <c r="C76">
-        <v>408.2746238633578</v>
+        <v>407.095013002858</v>
       </c>
       <c r="E76">
-        <v>-0.2949052701668222</v>
+        <v>-1.194883137651118</v>
       </c>
       <c r="F76">
-        <v>0.4150845246868426</v>
+        <v>0.4081869201567304</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B77">
-        <v>401.7897635056893</v>
+        <v>398.7308310393001</v>
       </c>
       <c r="C77">
-        <v>407.0950027826905</v>
+        <v>405.9001298652069</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>-1.194881677627222</v>
+        <v>0.3518318221825325</v>
       </c>
       <c r="F77">
-        <v>0.4147196124564109</v>
+        <v>0.4065366111984842</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B78">
-        <v>398.7308310393001</v>
+        <v>408.7147844426672</v>
       </c>
       <c r="C78">
-        <v>405.9001211050632</v>
+        <v>406.2519616873894</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>0.351832917200511</v>
+        <v>-0.5123677865360037</v>
       </c>
       <c r="F78">
-        <v>0.4137209562692373</v>
+        <v>0.4041609824927325</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B79">
-        <v>408.7147844426672</v>
+        <v>414.175075221901</v>
       </c>
       <c r="C79">
-        <v>406.2519540222638</v>
+        <v>405.7395939008534</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>-0.512363923151554</v>
+        <v>0.3025497800759922</v>
       </c>
       <c r="F79">
-        <v>0.4117550575921665</v>
+        <v>0.4020943985808754</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B80">
-        <v>414.175075221901</v>
+        <v>409.980195180942</v>
       </c>
       <c r="C80">
-        <v>405.7395900991122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
+        <v>406.6472432410814</v>
       </c>
       <c r="E80">
-        <v>0.3025510473230686</v>
+        <v>0.004981999371523216</v>
       </c>
       <c r="F80">
-        <v>0.4101215635270727</v>
+        <v>0.39978981865347</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B81">
-        <v>409.980195180942</v>
+        <v>406.5227020522181</v>
       </c>
       <c r="C81">
-        <v>406.6472432410814</v>
+        <v>406.6522252404529</v>
       </c>
       <c r="E81">
-        <v>0.004981999371523216</v>
+        <v>0.008543506561522918</v>
       </c>
       <c r="F81">
-        <v>0.4075611365360878</v>
+        <v>0.3976711494012185</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B82">
-        <v>406.5227020522181</v>
+        <v>406.7120297863833</v>
       </c>
       <c r="C82">
-        <v>406.6522252404529</v>
+        <v>406.6607687470145</v>
       </c>
       <c r="E82">
-        <v>0.008543506561522918</v>
+        <v>0.06370224708376782</v>
       </c>
       <c r="F82">
-        <v>0.4052310088694751</v>
+        <v>0.3950379092665033</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B83">
-        <v>406.7120297863833</v>
+        <v>407.1703867236849</v>
       </c>
       <c r="C83">
-        <v>406.6607687470145</v>
+        <v>406.7244709940982</v>
       </c>
       <c r="E83">
-        <v>0.06370224708376782</v>
+        <v>0.3407119221607786</v>
       </c>
       <c r="F83">
-        <v>0.4026719039490486</v>
+        <v>0.3921279989804816</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B84">
-        <v>407.1703867236849</v>
+        <v>409.7908782935449</v>
       </c>
       <c r="C84">
-        <v>406.7244709940982</v>
+        <v>407.065182916259</v>
       </c>
       <c r="E84">
-        <v>0.3407119221607786</v>
+        <v>0.8022901894792085</v>
       </c>
       <c r="F84">
-        <v>0.3997846144130812</v>
+        <v>0.3891830434022724</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B85">
-        <v>409.7908782935449</v>
+        <v>411.9531071342025</v>
       </c>
       <c r="C85">
-        <v>407.065182916259</v>
+        <v>409.4720534846966</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>0.8022901894792085</v>
+        <v>-0.2434069454430414</v>
       </c>
       <c r="F85">
-        <v>0.3962845262050904</v>
+        <v>0.3860408314929058</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B86">
-        <v>411.9531071342025</v>
+        <v>412.4712266037999</v>
       </c>
       <c r="C86">
-        <v>409.4720534846966</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>409.2286465392536</v>
       </c>
       <c r="E86">
-        <v>-0.2434069454430414</v>
+        <v>-0.9634857006655011</v>
       </c>
       <c r="F86">
-        <v>0.3919975879250656</v>
+        <v>0.3835846855113204</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B87">
-        <v>412.4712266037999</v>
+        <v>401.5207609339292</v>
       </c>
       <c r="C87">
-        <v>409.2286465392536</v>
+        <v>408.2651608385881</v>
       </c>
       <c r="E87">
-        <v>-0.9634857006655011</v>
+        <v>-0.4006377819520708</v>
       </c>
       <c r="F87">
-        <v>0.3887150009111835</v>
+        <v>0.3799074531795816</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B88">
-        <v>401.5207609339292</v>
+        <v>404.6594208010195</v>
       </c>
       <c r="C88">
-        <v>408.2651608385881</v>
+        <v>407.864523056636</v>
       </c>
       <c r="E88">
-        <v>-0.4006377819520708</v>
+        <v>-0.3874887733921355</v>
       </c>
       <c r="F88">
-        <v>0.383830845209136</v>
+        <v>0.3740058153244576</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B89">
-        <v>404.6594208010195</v>
+        <v>406.4927962204137</v>
       </c>
       <c r="C89">
-        <v>407.864523056636</v>
+        <v>407.4770342832439</v>
       </c>
       <c r="E89">
-        <v>-0.3874887733921355</v>
+        <v>-0.1496733805146278</v>
       </c>
       <c r="F89">
-        <v>0.376615653852877</v>
+        <v>0.3661843540695422</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B90">
-        <v>406.4927962204137</v>
+        <v>402.3079090049905</v>
       </c>
       <c r="C90">
-        <v>407.4770342832439</v>
+        <v>407.0280141417</v>
       </c>
       <c r="E90">
-        <v>-0.1496733805146278</v>
+        <v>-0.5195520991114222</v>
       </c>
       <c r="F90">
-        <v>0.3672350750175946</v>
+        <v>0.3563268988972307</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B91">
-        <v>402.3079090049905</v>
+        <v>406.1540135997644</v>
       </c>
       <c r="C91">
-        <v>407.0280141417</v>
+        <v>406.5084620425886</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>-0.5195520991114222</v>
+        <v>1.260987002896741</v>
       </c>
       <c r="F91">
-        <v>0.3551318458776962</v>
+        <v>0.3435788261421766</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B92">
-        <v>406.1540135997644</v>
+        <v>416.5963580657627</v>
       </c>
       <c r="C92">
-        <v>406.5084620425886</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
+        <v>407.7694490454853</v>
       </c>
       <c r="E92">
-        <v>1.260987002896741</v>
+        <v>1.217687222581731</v>
       </c>
       <c r="F92">
-        <v>0.3401197819165704</v>
+        <v>0.3277928949962502</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B93">
-        <v>416.5963580657627</v>
+        <v>418.7286340487209</v>
       </c>
       <c r="C93">
-        <v>407.7694490454853</v>
+        <v>408.987136268067</v>
       </c>
       <c r="E93">
-        <v>1.217687222581731</v>
+        <v>0.6476622316941985</v>
       </c>
       <c r="F93">
-        <v>0.3220461381296235</v>
+        <v>0.3107760064655636</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B94">
-        <v>418.7286340487209</v>
+        <v>417.7820672194502</v>
       </c>
       <c r="C94">
-        <v>408.987136268067</v>
+        <v>409.6347984997612</v>
       </c>
       <c r="E94">
-        <v>0.6476622316941985</v>
+        <v>0.6370654846842664</v>
       </c>
       <c r="F94">
-        <v>0.302672694716638</v>
+        <v>0.292815252386881</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>417.7820672194502</v>
+        <v>412.7601865175957</v>
       </c>
       <c r="C95">
-        <v>409.6347984997612</v>
+        <v>411.545994953814</v>
       </c>
       <c r="E95">
-        <v>0.6370654846842664</v>
+        <v>1.404928800454513</v>
       </c>
       <c r="F95">
-        <v>0.2832063948706072</v>
+        <v>0.273926935487818</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B96">
-        <v>412.7601865175957</v>
+        <v>416.3272978235955</v>
       </c>
       <c r="C96">
-        <v>411.545994953814</v>
+        <v>412.9509237542686</v>
       </c>
       <c r="E96">
-        <v>1.404928800454513</v>
+        <v>0.9414244724608238</v>
       </c>
       <c r="F96">
-        <v>0.2638093420356954</v>
+        <v>0.2562173776231152</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B97">
-        <v>416.3272978235955</v>
+        <v>420.4823195339551</v>
       </c>
       <c r="C97">
-        <v>412.9509237542686</v>
+        <v>413.8923482267294</v>
       </c>
       <c r="E97">
-        <v>0.9414244724608238</v>
+        <v>1.599088286190067</v>
       </c>
       <c r="F97">
-        <v>0.2456134808642308</v>
+        <v>0.2394500555318729</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B98">
-        <v>420.4823195339551</v>
+        <v>428.2841428024405</v>
       </c>
       <c r="C98">
-        <v>413.8923482267294</v>
+        <v>415.4914365129194</v>
       </c>
       <c r="E98">
-        <v>1.599088286190067</v>
+        <v>2.871861109859594</v>
       </c>
       <c r="F98">
-        <v>0.2289268630971916</v>
+        <v>0.2237685623520393</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B99">
-        <v>428.2841428024405</v>
+        <v>428.1546589937267</v>
       </c>
       <c r="C99">
-        <v>415.4914365129194</v>
+        <v>418.363297622779</v>
       </c>
       <c r="E99">
-        <v>2.871861109859594</v>
+        <v>0.90277322837062</v>
       </c>
       <c r="F99">
-        <v>0.2144969904520397</v>
+        <v>0.2108079754899106</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B100">
-        <v>428.1546589937267</v>
+        <v>423.7106482644727</v>
       </c>
       <c r="C100">
-        <v>418.363297622779</v>
+        <v>421.0716173078909</v>
       </c>
       <c r="E100">
-        <v>0.90277322837062</v>
+        <v>0.8996082850634366</v>
       </c>
       <c r="F100">
-        <v>0.202874593993019</v>
+        <v>0.2020852771056488</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B101">
-        <v>423.7106482644727</v>
+        <v>424.0793252148939</v>
       </c>
       <c r="C101">
-        <v>421.0716173078909</v>
+        <v>421.9712255929543</v>
       </c>
       <c r="E101">
-        <v>0.8996082850634366</v>
+        <v>0.1177908363674192</v>
       </c>
       <c r="F101">
-        <v>0.1955309341626256</v>
+        <v>0.1975789552444235</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B102">
-        <v>424.0793252148939</v>
+        <v>422.9135522838942</v>
       </c>
       <c r="C102">
-        <v>421.9712255929543</v>
+        <v>422.0890164293218</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>0.1177908363674192</v>
+        <v>-0.2936644582758845</v>
       </c>
       <c r="F102">
-        <v>0.1920223685256144</v>
+        <v>0.1949661515225662</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B103">
-        <v>422.9135522838942</v>
+        <v>419.446036304839</v>
       </c>
       <c r="C103">
-        <v>422.0890164293218</v>
+        <v>421.7953519710459</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>-0.2936644582758845</v>
+        <v>0.4148918419073766</v>
       </c>
       <c r="F103">
-        <v>0.1898270050815109</v>
+        <v>0.1927676780642716</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="B104">
-        <v>419.446036304839</v>
+        <v>422.4252949702259</v>
       </c>
       <c r="C104">
-        <v>421.7953519710459</v>
+        <v>423.4549193386754</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>0.4148918419073766</v>
+        <v>-1.592590986994082</v>
       </c>
       <c r="F104">
-        <v>0.188601156263322</v>
+        <v>0.1911175857897539</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B105">
-        <v>422.4252949702259</v>
+        <v>418.5991130717621</v>
       </c>
       <c r="C105">
-        <v>423.4549193386754</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
+        <v>421.8623283516813</v>
       </c>
       <c r="E105">
-        <v>-1.592590986994082</v>
+        <v>-0.5202633451390284</v>
       </c>
       <c r="F105">
-        <v>0.1868537739896252</v>
+        <v>0.1912131187141531</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B106">
-        <v>418.5991130717621</v>
+        <v>418.2204849357083</v>
       </c>
       <c r="C106">
-        <v>421.8623283516813</v>
+        <v>421.3420650065423</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>-0.5202633451390284</v>
+        <v>0.2649357673814166</v>
       </c>
       <c r="F106">
-        <v>0.1865668625144723</v>
+        <v>0.189070426208756</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B107">
-        <v>418.2204849357083</v>
+        <v>423.4615511455934</v>
       </c>
       <c r="C107">
-        <v>421.3420650065423</v>
+        <v>421.6070007739237</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>0.2649357673814166</v>
+        <v>-0.6513983846583074</v>
       </c>
       <c r="F107">
-        <v>0.1839463306010187</v>
+        <v>0.1857366165343393</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B108">
-        <v>423.4615511455934</v>
+        <v>418.4994611872064</v>
       </c>
       <c r="C108">
-        <v>421.6070007739237</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
+        <v>420.9556023892654</v>
       </c>
       <c r="E108">
-        <v>-0.6513983846583074</v>
+        <v>-0.04926609137044125</v>
       </c>
       <c r="F108">
-        <v>0.1805498245858538</v>
+        <v>0.1824406708845882</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B109">
-        <v>418.4994611872064</v>
+        <v>423.6409193804279</v>
       </c>
       <c r="C109">
-        <v>420.9556023892654</v>
+        <v>420.8078041151541</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>-0.04926609137044125</v>
+        <v>0.5855103372212511</v>
       </c>
       <c r="F109">
-        <v>0.1766969634439962</v>
+        <v>0.1777139050834005</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B110">
-        <v>423.6409193804279</v>
+        <v>424.9063764757034</v>
       </c>
       <c r="C110">
-        <v>420.8078041151541</v>
+        <v>421.3933144523753</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>0.5855103372212511</v>
+        <v>-0.09021007776658507</v>
       </c>
       <c r="F110">
-        <v>0.1712709407294371</v>
+        <v>0.1718887240580115</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B111">
-        <v>424.9063764757034</v>
+        <v>420.6716338302425</v>
       </c>
       <c r="C111">
-        <v>421.3933144523753</v>
+        <v>421.3031043746087</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>-0.09021007776658507</v>
+        <v>0.3317177155097397</v>
       </c>
       <c r="F111">
-        <v>0.1651109721451799</v>
+        <v>0.1660738902104796</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B112">
-        <v>420.6716338302425</v>
+        <v>424.2885638141968</v>
       </c>
       <c r="C112">
-        <v>421.3031043746087</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
+        <v>421.6348220901185</v>
       </c>
       <c r="E112">
-        <v>0.3317177155097397</v>
+        <v>0.01107302310543901</v>
       </c>
       <c r="F112">
-        <v>0.1593258798335204</v>
+        <v>0.1598364741497418</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B113">
-        <v>424.2885638141968</v>
+        <v>422.5249521781749</v>
       </c>
       <c r="C113">
-        <v>421.6348220901185</v>
+        <v>421.6458951132239</v>
       </c>
       <c r="E113">
-        <v>0.01107302310543901</v>
+        <v>0.3845918171277655</v>
       </c>
       <c r="F113">
-        <v>0.1531551231088271</v>
+        <v>0.1534453843806244</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B114">
-        <v>422.5249521781749</v>
+        <v>425.0657870862989</v>
       </c>
       <c r="C114">
-        <v>421.6458951132239</v>
+        <v>422.7996705646072</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>0.3845918171277655</v>
+        <v>-0.7743450411468871</v>
       </c>
       <c r="F114">
-        <v>0.1472910141180009</v>
+        <v>0.1469552590994377</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B115">
-        <v>425.0657870862989</v>
+        <v>413.0790458991779</v>
       </c>
       <c r="C115">
-        <v>422.7996705646072</v>
-      </c>
-      <c r="D115" t="s">
-        <v>6</v>
+        <v>422.0253255234603</v>
       </c>
       <c r="E115">
-        <v>-0.7743450411468871</v>
+        <v>-0.7844902726553187</v>
       </c>
       <c r="F115">
-        <v>0.1416509228803291</v>
+        <v>0.1419794169376594</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B116">
-        <v>413.0790458991779</v>
+        <v>415.7494033422172</v>
       </c>
       <c r="C116">
-        <v>422.0253255234603</v>
+        <v>421.240835250805</v>
       </c>
       <c r="E116">
-        <v>-0.7844902726553187</v>
+        <v>-1.343069112832438</v>
       </c>
       <c r="F116">
-        <v>0.1372388188322956</v>
+        <v>0.1359829131073723</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B117">
-        <v>415.7494033422172</v>
+        <v>409.1532132353134</v>
       </c>
       <c r="C117">
-        <v>421.240835250805</v>
+        <v>419.8977661379726</v>
       </c>
       <c r="E117">
-        <v>-1.343069112832438</v>
+        <v>-2.340441468310075</v>
       </c>
       <c r="F117">
-        <v>0.1322861602945613</v>
+        <v>0.1293333331750376</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B118">
-        <v>409.1532132353134</v>
+        <v>402.5769461656378</v>
       </c>
       <c r="C118">
-        <v>419.8977661379726</v>
+        <v>417.5573246696625</v>
       </c>
       <c r="E118">
-        <v>-2.340441468310075</v>
+        <v>-1.719561426265765</v>
       </c>
       <c r="F118">
-        <v>0.1264669910499939</v>
+        <v>0.121160187722658</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B119">
-        <v>402.5769461656378</v>
+        <v>398.6411348292365</v>
       </c>
       <c r="C119">
-        <v>417.5573246696625</v>
+        <v>412.3986403908652</v>
       </c>
       <c r="E119">
-        <v>-1.719561426265765</v>
+        <v>-2.819825089177016</v>
       </c>
       <c r="F119">
-        <v>0.1184210251016126</v>
+        <v>0.1095952363325461</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B120">
-        <v>398.6411348292365</v>
+        <v>402.7861765539353</v>
       </c>
       <c r="C120">
-        <v>412.3986403908652</v>
+        <v>409.5788153016882</v>
       </c>
       <c r="E120">
-        <v>-2.819825089177016</v>
+        <v>-0.1864682872866865</v>
       </c>
       <c r="F120">
-        <v>0.1070082830615258</v>
+        <v>0.09133612361388493</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B121">
-        <v>402.7861765539353</v>
+        <v>408.0870690033951</v>
       </c>
       <c r="C121">
-        <v>409.5788153016882</v>
+        <v>409.3923470144015</v>
       </c>
       <c r="E121">
-        <v>-0.1864682872866865</v>
+        <v>-1.864379953113087</v>
       </c>
       <c r="F121">
-        <v>0.08894885111788894</v>
+        <v>0.06888148958058708</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B122">
-        <v>408.0870690033951</v>
+        <v>392.6129274363838</v>
       </c>
       <c r="C122">
-        <v>409.3923470144015</v>
+        <v>407.5279670612884</v>
       </c>
       <c r="E122">
-        <v>-1.864379953113087</v>
+        <v>-1.597568504367075</v>
       </c>
       <c r="F122">
-        <v>0.06690744055096882</v>
+        <v>0.04532687846179884</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B123">
-        <v>392.6129274363838</v>
+        <v>410.6876705469948</v>
       </c>
       <c r="C123">
-        <v>407.5279670612884</v>
+        <v>405.9303985569213</v>
       </c>
       <c r="E123">
-        <v>-1.597568504367075</v>
+        <v>-1.063252850545856</v>
       </c>
       <c r="F123">
-        <v>0.04381479014650045</v>
+        <v>0.01877769407217824</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B124">
-        <v>410.6876705469948</v>
+        <v>403.7925555014032</v>
       </c>
       <c r="C124">
-        <v>405.9303985569213</v>
+        <v>402.7406400052838</v>
       </c>
       <c r="E124">
-        <v>-1.063252850545856</v>
+        <v>-0.3615521254270107</v>
       </c>
       <c r="F124">
-        <v>0.01739914937764259</v>
+        <v>-0.01089690066555311</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B125">
-        <v>403.7925555014032</v>
+        <v>400.0460812876486</v>
       </c>
       <c r="C125">
-        <v>402.7406400052838</v>
+        <v>402.3790878798567</v>
       </c>
       <c r="E125">
-        <v>-0.3615521254270107</v>
+        <v>-1.397637798846006</v>
       </c>
       <c r="F125">
-        <v>-0.01154868621750129</v>
+        <v>-0.04526689400605243</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B126">
-        <v>400.0460812876486</v>
+        <v>391.1979854890888</v>
       </c>
       <c r="C126">
-        <v>402.3790878798567</v>
+        <v>400.9814500810107</v>
       </c>
       <c r="E126">
-        <v>-1.397637798846006</v>
+        <v>-0.5279573035970202</v>
       </c>
       <c r="F126">
-        <v>-0.04507537165283158</v>
+        <v>-0.08101097706785122</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B127">
-        <v>391.1979854890888</v>
+        <v>396.2298343486377</v>
       </c>
       <c r="C127">
-        <v>400.9814500810107</v>
+        <v>400.4534927774137</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
       </c>
       <c r="E127">
-        <v>-0.5279573035970202</v>
+        <v>0.2435657687629487</v>
       </c>
       <c r="F127">
-        <v>-0.07986678172955496</v>
+        <v>-0.1193199964102372</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B128">
-        <v>396.2298343486377</v>
+        <v>400.8332267481025</v>
       </c>
       <c r="C128">
-        <v>400.4534927774137</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
+        <v>400.6970585461767</v>
       </c>
       <c r="E128">
-        <v>0.2435657687629487</v>
+        <v>0.2475190888119604</v>
       </c>
       <c r="F128">
-        <v>-0.1159108665170186</v>
+        <v>-0.1578842549179337</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="B129">
-        <v>400.8332267481025</v>
+        <v>407.2899567664123</v>
       </c>
       <c r="C129">
-        <v>400.6970585461767</v>
+        <v>401.4396158126125</v>
       </c>
       <c r="E129">
-        <v>0.2475190888119604</v>
+        <v>0.3544331490296599</v>
       </c>
       <c r="F129">
-        <v>-0.1526301859132394</v>
+        <v>-0.1961304394812406</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B130">
-        <v>407.2899567664123</v>
+        <v>413.1687025902024</v>
       </c>
       <c r="C130">
-        <v>401.4396158126125</v>
+        <v>401.7940489616422</v>
       </c>
       <c r="E130">
-        <v>0.3544331490296599</v>
+        <v>0.6135059173411719</v>
       </c>
       <c r="F130">
-        <v>-0.1895068661782198</v>
+        <v>-0.2337633292325478</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B131">
-        <v>413.1687025902024</v>
+        <v>406.7020963003715</v>
       </c>
       <c r="C131">
-        <v>401.7940489616422</v>
+        <v>402.4075548789834</v>
       </c>
       <c r="E131">
-        <v>0.6135059173411719</v>
+        <v>0.7428774383773771</v>
       </c>
       <c r="F131">
-        <v>-0.2253543153742646</v>
+        <v>-0.2708611047563256</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B132">
-        <v>406.7020963003715</v>
+        <v>409.0934518243799</v>
       </c>
       <c r="C132">
-        <v>402.4075548789834</v>
+        <v>403.1504323173608</v>
       </c>
       <c r="E132">
-        <v>0.7428774383773771</v>
+        <v>0.8513714771976879</v>
       </c>
       <c r="F132">
-        <v>-0.2596136319685503</v>
+        <v>-0.3056998920265864</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B133">
-        <v>409.0934518243799</v>
+        <v>411.454898796182</v>
       </c>
       <c r="C133">
-        <v>403.1504323173608</v>
+        <v>404.0018037945584</v>
       </c>
       <c r="E133">
-        <v>0.8513714771976879</v>
+        <v>1.763636784510311</v>
       </c>
       <c r="F133">
-        <v>-0.2913864682542444</v>
+        <v>-0.3376994453307652</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="B134">
-        <v>411.454898796182</v>
+        <v>416.506666010975</v>
       </c>
       <c r="C134">
-        <v>404.0018037945584</v>
+        <v>409.2927141480894</v>
       </c>
       <c r="E134">
-        <v>1.763636784510311</v>
+        <v>1.386425992840657</v>
       </c>
       <c r="F134">
-        <v>-0.3214888220317603</v>
+        <v>-0.367780517893469</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B135">
-        <v>416.506666010975</v>
+        <v>410.5382086979875</v>
       </c>
       <c r="C135">
-        <v>409.2927141480894</v>
+        <v>410.67914014093</v>
       </c>
       <c r="E135">
-        <v>1.386425992840657</v>
+        <v>0.8086216973903788</v>
       </c>
       <c r="F135">
-        <v>-0.349438170085836</v>
+        <v>-0.3883237443176878</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B136">
-        <v>410.5382086979875</v>
+        <v>417.1481137200525</v>
       </c>
       <c r="C136">
-        <v>410.67914014093</v>
+        <v>411.4877618383204</v>
       </c>
       <c r="E136">
-        <v>0.8086216973903788</v>
+        <v>1.061483654684366</v>
       </c>
       <c r="F136">
-        <v>-0.3679493755996388</v>
+        <v>-0.4049977630935723</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B137">
-        <v>417.1481137200525</v>
+        <v>421.0411147304799</v>
       </c>
       <c r="C137">
-        <v>411.4877618383204</v>
+        <v>412.5492454930048</v>
       </c>
       <c r="E137">
-        <v>1.061483654684366</v>
+        <v>1.609979680845754</v>
       </c>
       <c r="F137">
-        <v>-0.3830329936836948</v>
+        <v>-0.4185315343187964</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="B138">
-        <v>421.0411147304799</v>
+        <v>421.7797738940241</v>
       </c>
       <c r="C138">
-        <v>412.5492454930048</v>
+        <v>414.1592251738505</v>
       </c>
       <c r="E138">
-        <v>1.609979680845754</v>
+        <v>0.8956267641700796</v>
       </c>
       <c r="F138">
-        <v>-0.3945532869174794</v>
+        <v>-0.428283593546722</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="B139">
-        <v>421.7797738940241</v>
+        <v>419.4539624148243</v>
       </c>
       <c r="C139">
-        <v>414.1592251738505</v>
+        <v>416.8461054663608</v>
       </c>
       <c r="E139">
-        <v>0.8956267641700796</v>
+        <v>2.086736048302669</v>
       </c>
       <c r="F139">
-        <v>-0.4029072622039049</v>
+        <v>-0.4340867426125533</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="B140">
-        <v>419.4539624148243</v>
+        <v>426.0620511343007</v>
       </c>
       <c r="C140">
-        <v>416.8461054663608</v>
+        <v>418.9328415146634</v>
       </c>
       <c r="E140">
-        <v>2.086736048302669</v>
+        <v>1.297920223846972</v>
       </c>
       <c r="F140">
-        <v>-0.4077684927263233</v>
+        <v>-0.434750541007084</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B141">
-        <v>426.0620511343007</v>
+        <v>429.3162033054389</v>
       </c>
       <c r="C141">
-        <v>418.9328415146634</v>
+        <v>420.2307617385104</v>
       </c>
       <c r="E141">
-        <v>1.297920223846972</v>
+        <v>1.328916540949649</v>
       </c>
       <c r="F141">
-        <v>-0.4070352056208438</v>
+        <v>-0.4308413983633319</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B142">
-        <v>429.3162033054389</v>
+        <v>432.1910106070575</v>
       </c>
       <c r="C142">
-        <v>420.2307617385104</v>
+        <v>421.5596782794601</v>
       </c>
       <c r="E142">
-        <v>1.328916540949649</v>
+        <v>1.101639350047321</v>
       </c>
       <c r="F142">
-        <v>-0.4010694266326982</v>
+        <v>-0.4232919941550358</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B143">
-        <v>432.1910106070575</v>
+        <v>426.4214201614011</v>
       </c>
       <c r="C143">
-        <v>421.5596782794601</v>
+        <v>422.6613176295074</v>
       </c>
       <c r="E143">
-        <v>1.101639350047321</v>
+        <v>1.097239884286211</v>
       </c>
       <c r="F143">
-        <v>-0.3921835842854934</v>
+        <v>-0.4125825430443117</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="B144">
-        <v>426.4214201614011</v>
+        <v>428.8570153768908</v>
       </c>
       <c r="C144">
-        <v>422.6613176295074</v>
+        <v>427.0502771666522</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>1.097239884286211</v>
+        <v>-0.3037384724803474</v>
       </c>
       <c r="F144">
-        <v>-0.380527979247546</v>
+        <v>-0.399545767519682</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B145">
-        <v>428.8570153768908</v>
+        <v>424.9241078592897</v>
       </c>
       <c r="C145">
-        <v>427.0502771666522</v>
-      </c>
-      <c r="D145" t="s">
-        <v>6</v>
+        <v>426.7465386941719</v>
       </c>
       <c r="E145">
-        <v>-0.3037384724803474</v>
+        <v>-0.4012425158441033</v>
       </c>
       <c r="F145">
-        <v>-0.3665020526684508</v>
+        <v>-0.3792489702722774</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>424.9241078592897</v>
+        <v>423.5365985674188</v>
       </c>
       <c r="C146">
-        <v>426.7465386941719</v>
+        <v>426.3452961783278</v>
       </c>
       <c r="E146">
-        <v>-0.4012425158441033</v>
+        <v>-0.4317205324642259</v>
       </c>
       <c r="F146">
-        <v>-0.3461544040428876</v>
+        <v>-0.359362704068032</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B147">
-        <v>423.5365985674188</v>
+        <v>416.0001981551101</v>
       </c>
       <c r="C147">
-        <v>426.3452961783278</v>
+        <v>425.9135756458635</v>
       </c>
       <c r="E147">
-        <v>-0.4317205324642259</v>
+        <v>-1.164428852177972</v>
       </c>
       <c r="F147">
-        <v>-0.3268626801266454</v>
+        <v>-0.3405144202043788</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45443</v>
+        <v>45446</v>
       </c>
       <c r="B148">
-        <v>416.0001981551101</v>
+        <v>414.7823944158675</v>
       </c>
       <c r="C148">
-        <v>425.9135756458635</v>
+        <v>422.4202890893296</v>
       </c>
       <c r="E148">
-        <v>-1.164428852177972</v>
+        <v>-2.455574047588584</v>
       </c>
       <c r="F148">
-        <v>-0.3092968439261979</v>
+        <v>-0.323230240785623</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B149">
-        <v>414.7823944158675</v>
+        <v>411.6879758758687</v>
       </c>
       <c r="C149">
-        <v>422.4202890893296</v>
+        <v>419.964715041741</v>
       </c>
       <c r="E149">
-        <v>-2.455574047588584</v>
+        <v>-0.4152058349828849</v>
       </c>
       <c r="F149">
-        <v>-0.2937666778777752</v>
+        <v>-0.312515648364832</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B150">
-        <v>411.6879758758687</v>
+        <v>417.0582741968618</v>
       </c>
       <c r="C150">
-        <v>419.964715041741</v>
+        <v>419.5495092067582</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>-0.4152058349828849</v>
+        <v>0.4622030206639351</v>
       </c>
       <c r="F150">
-        <v>-0.285824122613427</v>
+        <v>-0.3079715280315315</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B151">
-        <v>417.0582741968618</v>
+        <v>423.2471333720698</v>
       </c>
       <c r="C151">
-        <v>419.5495092067582</v>
-      </c>
-      <c r="D151" t="s">
-        <v>7</v>
+        <v>420.0117122274221</v>
       </c>
       <c r="E151">
-        <v>0.4622030206639351</v>
+        <v>0.6023887449460403</v>
       </c>
       <c r="F151">
-        <v>-0.2853529979179502</v>
+        <v>-0.3076024698593933</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B152">
-        <v>423.2471333720698</v>
+        <v>425.4332109319366</v>
       </c>
       <c r="C152">
-        <v>420.0117122274221</v>
+        <v>420.6141009723681</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>0.6023887449460403</v>
+        <v>-0.5787433456458189</v>
       </c>
       <c r="F152">
-        <v>-0.2885251222690419</v>
+        <v>-0.3099230040406871</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="B153">
-        <v>425.4332109319366</v>
+        <v>423.9359096003005</v>
       </c>
       <c r="C153">
-        <v>420.6141009723681</v>
+        <v>418.8778709354307</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>-0.5787433456458189</v>
+        <v>1.244899150805622</v>
       </c>
       <c r="F153">
-        <v>-0.2941460449444524</v>
+        <v>-0.3140771309757643</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B154">
-        <v>423.9359096003005</v>
+        <v>424.714492210749</v>
       </c>
       <c r="C154">
-        <v>418.8778709354307</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
+        <v>420.1227700862363</v>
       </c>
       <c r="E154">
-        <v>1.244899150805622</v>
+        <v>1.801751994876042</v>
       </c>
       <c r="F154">
-        <v>-0.3029063314644217</v>
+        <v>-0.3250934948438488</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B155">
-        <v>424.714492210749</v>
+        <v>434.5367860452445</v>
       </c>
       <c r="C155">
-        <v>420.1227700862363</v>
+        <v>421.9245220811123</v>
       </c>
       <c r="E155">
-        <v>1.801751994876042</v>
+        <v>2.014703694217872</v>
       </c>
       <c r="F155">
-        <v>-0.3186904972596716</v>
+        <v>-0.3385209808176566</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B156">
-        <v>434.5367860452445</v>
+        <v>440.0568553290733</v>
       </c>
       <c r="C156">
-        <v>421.9245220811123</v>
+        <v>423.9392257753302</v>
       </c>
       <c r="E156">
-        <v>2.014703694217872</v>
+        <v>2.523228691946542</v>
       </c>
       <c r="F156">
-        <v>-0.3351970822949437</v>
+        <v>-0.3520619798672971</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B157">
-        <v>440.0568553290733</v>
+        <v>437.4914526433868</v>
       </c>
       <c r="C157">
-        <v>423.9392257753302</v>
+        <v>426.4624544672768</v>
       </c>
       <c r="E157">
-        <v>2.523228691946542</v>
+        <v>2.034534260411855</v>
       </c>
       <c r="F157">
-        <v>-0.3512229704039049</v>
+        <v>-0.3648437465381135</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B158">
-        <v>437.4914526433868</v>
+        <v>441.7936939788958</v>
       </c>
       <c r="C158">
-        <v>426.4624544672768</v>
+        <v>432.5660572485123</v>
       </c>
       <c r="E158">
-        <v>2.034534260411855</v>
+        <v>3.352525399028309</v>
       </c>
       <c r="F158">
-        <v>-0.3662781957176009</v>
+        <v>-0.3757867956347257</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B159">
-        <v>441.7936939788958</v>
+        <v>448.9008887251347</v>
       </c>
       <c r="C159">
-        <v>432.5660572485123</v>
+        <v>435.9185826475406</v>
       </c>
       <c r="E159">
-        <v>3.352525399028309</v>
+        <v>0.5986528636426556</v>
       </c>
       <c r="F159">
-        <v>-0.3803931539487301</v>
+        <v>-0.3804061517682147</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B160">
-        <v>448.9008887251347</v>
+        <v>445.4970284658229</v>
       </c>
       <c r="C160">
-        <v>435.9185826475406</v>
+        <v>437.1158883748259</v>
       </c>
       <c r="E160">
-        <v>0.5986528636426556</v>
+        <v>2.829897335175872</v>
       </c>
       <c r="F160">
-        <v>-0.3878420191315441</v>
+        <v>-0.3825746806094432</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B161">
-        <v>445.4970284658229</v>
+        <v>446.5750882817075</v>
       </c>
       <c r="C161">
-        <v>437.1158883748259</v>
+        <v>439.9457857100018</v>
       </c>
       <c r="E161">
-        <v>2.829897335175872</v>
+        <v>1.643009643845194</v>
       </c>
       <c r="F161">
-        <v>-0.3926082414422391</v>
+        <v>-0.3852056303493679</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>446.5750882817075</v>
+        <v>448.990735754277</v>
       </c>
       <c r="C162">
-        <v>439.9457857100018</v>
+        <v>444.8748146415374</v>
       </c>
       <c r="E162">
-        <v>1.643009643845194</v>
+        <v>1.658677472179647</v>
       </c>
       <c r="F162">
-        <v>-0.3977977523538653</v>
+        <v>-0.3859158950287255</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>448.990735754277</v>
+        <v>447.4435174764647</v>
       </c>
       <c r="C163">
-        <v>444.8748146415374</v>
+        <v>446.533492113717</v>
       </c>
       <c r="E163">
-        <v>1.658677472179647</v>
+        <v>0.2369551643744785</v>
       </c>
       <c r="F163">
-        <v>-0.4007523912592694</v>
+        <v>-0.3817176747640182</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B164">
-        <v>447.4435174764647</v>
+        <v>448.1921782643384</v>
       </c>
       <c r="C164">
-        <v>446.533492113717</v>
+        <v>446.7704472780915</v>
       </c>
       <c r="E164">
-        <v>0.2369551643744785</v>
+        <v>0.5744990713894254</v>
       </c>
       <c r="F164">
-        <v>-0.3998587504436064</v>
+        <v>-0.3775157812337221</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B165">
-        <v>448.1921782643384</v>
+        <v>451.3664398492068</v>
       </c>
       <c r="C165">
-        <v>446.7704472780915</v>
+        <v>447.3449463494809</v>
       </c>
       <c r="E165">
-        <v>0.5744990713894254</v>
+        <v>1.307645532753156</v>
       </c>
       <c r="F165">
-        <v>-0.4004058349419525</v>
+        <v>-0.3760283755614076</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B166">
-        <v>451.3664398492068</v>
+        <v>452.254858240921</v>
       </c>
       <c r="C166">
-        <v>447.3449463494809</v>
+        <v>448.6525918822341</v>
       </c>
       <c r="E166">
-        <v>1.307645532753156</v>
+        <v>0.1003548120198919</v>
       </c>
       <c r="F166">
-        <v>-0.4037601646378384</v>
+        <v>-0.3769498760999843</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B167">
-        <v>452.254858240921</v>
+        <v>447.8527763611413</v>
       </c>
       <c r="C167">
-        <v>448.6525918822341</v>
+        <v>448.9536563182938</v>
       </c>
       <c r="E167">
-        <v>0.1003548120198919</v>
+        <v>0.8299340591355531</v>
       </c>
       <c r="F167">
-        <v>-0.4094486908013003</v>
+        <v>-0.3792343440197097</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B168">
-        <v>447.8527763611413</v>
+        <v>452.3846266956562</v>
       </c>
       <c r="C168">
-        <v>448.9536563182938</v>
+        <v>449.7835903774293</v>
       </c>
       <c r="E168">
-        <v>0.8299340591355531</v>
+        <v>0.9477554906090973</v>
       </c>
       <c r="F168">
-        <v>-0.4164879835264985</v>
+        <v>-0.3839948412369843</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B169">
-        <v>452.3846266956562</v>
+        <v>457.3656343023017</v>
       </c>
       <c r="C169">
-        <v>449.7835903774293</v>
+        <v>450.7313458680384</v>
       </c>
       <c r="E169">
-        <v>0.9477554906090973</v>
+        <v>0.612020995672907</v>
       </c>
       <c r="F169">
-        <v>-0.4267600468764692</v>
+        <v>-0.3911364966081346</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B170">
-        <v>457.3656343023017</v>
+        <v>458.7830716850438</v>
       </c>
       <c r="C170">
-        <v>450.7313458680384</v>
+        <v>451.9553878593842</v>
       </c>
       <c r="E170">
-        <v>0.612020995672907</v>
+        <v>1.256624084391035</v>
       </c>
       <c r="F170">
-        <v>-0.4398382888137489</v>
+        <v>-0.4011683836853726</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B171">
-        <v>458.7830716850438</v>
+        <v>465.7105933902801</v>
       </c>
       <c r="C171">
-        <v>451.9553878593842</v>
+        <v>455.7252601125574</v>
       </c>
       <c r="E171">
-        <v>1.256624084391035</v>
+        <v>2.317489645929186</v>
       </c>
       <c r="F171">
-        <v>-0.453841453135038</v>
+        <v>-0.412996233433133</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B172">
-        <v>465.7105933902801</v>
+        <v>466.1597961164965</v>
       </c>
       <c r="C172">
-        <v>455.7252601125574</v>
+        <v>458.0427497584865</v>
       </c>
       <c r="E172">
-        <v>2.317489645929186</v>
+        <v>0.335347734665902</v>
       </c>
       <c r="F172">
-        <v>-0.4687656280157986</v>
+        <v>-0.4222693019196363</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B173">
-        <v>466.1597961164965</v>
+        <v>460.3901839011476</v>
       </c>
       <c r="C173">
-        <v>458.0427497584865</v>
+        <v>458.3780974931524</v>
       </c>
       <c r="E173">
-        <v>0.335347734665902</v>
+        <v>0.47111645160129</v>
       </c>
       <c r="F173">
-        <v>-0.4795461623587491</v>
+        <v>-0.4287395772837953</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B174">
-        <v>460.3901839011476</v>
+        <v>462.1470291059628</v>
       </c>
       <c r="C174">
-        <v>458.3780974931524</v>
+        <v>458.8492139447537</v>
       </c>
       <c r="E174">
-        <v>0.47111645160129</v>
+        <v>0.7074746682665705</v>
       </c>
       <c r="F174">
-        <v>-0.4864776249258944</v>
+        <v>-0.4333056222536465</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B175">
-        <v>462.1470291059628</v>
+        <v>453.5125737072739</v>
       </c>
       <c r="C175">
-        <v>458.8492139447537</v>
+        <v>459.5566886130203</v>
       </c>
       <c r="E175">
-        <v>0.7074746682665705</v>
+        <v>0.1090886147621859</v>
       </c>
       <c r="F175">
-        <v>-0.4916339389513341</v>
+        <v>-0.4357069042016307</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B176">
-        <v>453.5125737072739</v>
+        <v>452.4844332949432</v>
       </c>
       <c r="C176">
-        <v>459.5566886130203</v>
+        <v>459.8839544573069</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>0.1090886147621859</v>
+        <v>-0.7686103928928674</v>
       </c>
       <c r="F176">
-        <v>-0.4936870860881726</v>
+        <v>-0.4347671352779096</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B177">
-        <v>452.4844332949432</v>
+        <v>453.4027989347938</v>
       </c>
       <c r="C177">
-        <v>459.8839544573069</v>
-      </c>
-      <c r="D177" t="s">
-        <v>6</v>
+        <v>459.115344064414</v>
       </c>
       <c r="E177">
-        <v>-0.7686103928928674</v>
+        <v>-2.165206016538207</v>
       </c>
       <c r="F177">
-        <v>-0.4903875838164636</v>
+        <v>-0.4271577004711409</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B178">
-        <v>453.4027989347938</v>
+        <v>441.7936959321082</v>
       </c>
       <c r="C178">
-        <v>459.115344064414</v>
+        <v>456.9501380478758</v>
       </c>
       <c r="E178">
-        <v>-2.165206016538207</v>
+        <v>-1.489953528025296</v>
       </c>
       <c r="F178">
-        <v>-0.4791816712144923</v>
+        <v>-0.4120481680482118</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B179">
-        <v>441.7936959321082</v>
+        <v>443.5405562956479</v>
       </c>
       <c r="C179">
-        <v>456.9501380478758</v>
+        <v>455.4601845198505</v>
       </c>
       <c r="E179">
-        <v>-1.489953528025296</v>
+        <v>-3.709978957205465</v>
       </c>
       <c r="F179">
-        <v>-0.4604781032809396</v>
+        <v>-0.388869545771117</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B180">
-        <v>443.5405562956479</v>
+        <v>432.320782775431</v>
       </c>
       <c r="C180">
-        <v>455.4601845198505</v>
+        <v>451.750205562645</v>
       </c>
       <c r="E180">
-        <v>-3.709978957205465</v>
+        <v>-2.104831258272933</v>
       </c>
       <c r="F180">
-        <v>-0.4349027268507063</v>
+        <v>-0.3566235876563615</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B181">
-        <v>432.320782775431</v>
+        <v>440.9951415745854</v>
       </c>
       <c r="C181">
-        <v>451.750205562645</v>
+        <v>445.4357117878262</v>
       </c>
       <c r="E181">
-        <v>-2.104831258272933</v>
+        <v>-1.487317799387995</v>
       </c>
       <c r="F181">
-        <v>-0.3999747373294945</v>
+        <v>-0.3173909016434872</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B182">
-        <v>440.9951415745854</v>
+        <v>443.1013491115581</v>
       </c>
       <c r="C182">
-        <v>445.4357117878262</v>
+        <v>443.9483939884382</v>
       </c>
       <c r="E182">
-        <v>-1.487317799387995</v>
+        <v>-0.5363537252490005</v>
       </c>
       <c r="F182">
-        <v>-0.3578786392862627</v>
+        <v>-0.2773020259293348</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B183">
-        <v>443.1013491115581</v>
+        <v>439.6575641864461</v>
       </c>
       <c r="C183">
-        <v>443.9483939884382</v>
+        <v>443.4120402631892</v>
       </c>
       <c r="E183">
-        <v>-0.5363537252490005</v>
+        <v>-1.709282337309389</v>
       </c>
       <c r="F183">
-        <v>-0.3114517195598535</v>
+        <v>-0.2256268860934577</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B184">
-        <v>439.6575641864461</v>
+        <v>428.0284992274044</v>
       </c>
       <c r="C184">
-        <v>443.4120402631892</v>
+        <v>441.7027579258798</v>
       </c>
       <c r="E184">
-        <v>-1.709282337309389</v>
+        <v>-3.892981961641112</v>
       </c>
       <c r="F184">
-        <v>-0.2510442584459867</v>
+        <v>-0.1581467198539443</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B185">
-        <v>428.0284992274044</v>
+        <v>417.4475956401735</v>
       </c>
       <c r="C185">
-        <v>441.7027579258798</v>
+        <v>437.8097759642387</v>
       </c>
       <c r="E185">
-        <v>-3.892981961641112</v>
+        <v>-1.538761897082073</v>
       </c>
       <c r="F185">
-        <v>-0.1772236757700417</v>
+        <v>-0.08153460162913835</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B186">
-        <v>417.4475956401735</v>
+        <v>430.8034993953489</v>
       </c>
       <c r="C186">
-        <v>437.8097759642387</v>
+        <v>433.1934902729925</v>
       </c>
       <c r="E186">
-        <v>-1.538761897082073</v>
+        <v>-0.7671874583005547</v>
       </c>
       <c r="F186">
-        <v>-0.09348836309179369</v>
+        <v>-0.002850647000216958</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B187">
-        <v>430.8034993953489</v>
+        <v>426.950470567327</v>
       </c>
       <c r="C187">
-        <v>433.1934902729925</v>
+        <v>432.426302814692</v>
       </c>
       <c r="E187">
-        <v>-0.7671874583005547</v>
+        <v>-1.585357072537875</v>
       </c>
       <c r="F187">
-        <v>-0.007386026452420393</v>
+        <v>0.07069588463495155</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B188">
-        <v>426.950470567327</v>
+        <v>419.7434462343891</v>
       </c>
       <c r="C188">
-        <v>432.426302814692</v>
+        <v>430.8409457421541</v>
       </c>
       <c r="E188">
-        <v>-1.585357072537875</v>
+        <v>-1.200890666788041</v>
       </c>
       <c r="F188">
-        <v>0.07309424297000686</v>
+        <v>0.1520918279759529</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B189">
-        <v>419.7434462343891</v>
+        <v>420.0329297410617</v>
       </c>
       <c r="C189">
-        <v>430.8409457421541</v>
+        <v>429.640055075366</v>
       </c>
       <c r="E189">
-        <v>-1.200890666788041</v>
+        <v>-3.249700330078269</v>
       </c>
       <c r="F189">
-        <v>0.1601085702119067</v>
+        <v>0.2343942818605632</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B190">
-        <v>420.0329297410617</v>
+        <v>411.747838603881</v>
       </c>
       <c r="C190">
-        <v>429.640055075366</v>
+        <v>426.3903547452878</v>
       </c>
       <c r="E190">
-        <v>-3.249700330078269</v>
+        <v>-3.311279436855197</v>
       </c>
       <c r="F190">
-        <v>0.2479803684866038</v>
+        <v>0.3180250108709129</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B191">
-        <v>411.747838603881</v>
+        <v>388.4698348608741</v>
       </c>
       <c r="C191">
-        <v>426.3903547452878</v>
+        <v>416.4565164347222</v>
       </c>
       <c r="E191">
-        <v>-3.311279436855197</v>
+        <v>-2.595322994752166</v>
       </c>
       <c r="F191">
-        <v>0.3383340829270679</v>
+        <v>0.3940586027232053</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B192">
-        <v>388.4698348608741</v>
+        <v>399.2803346769082</v>
       </c>
       <c r="C192">
-        <v>416.4565164347222</v>
+        <v>413.86119343997</v>
       </c>
       <c r="E192">
-        <v>-2.595322994752166</v>
+        <v>-0.7445469177454811</v>
       </c>
       <c r="F192">
-        <v>0.4143416885163967</v>
+        <v>0.4211277504085417</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B193">
-        <v>399.2803346769082</v>
+        <v>407.9048180980064</v>
       </c>
       <c r="C193">
-        <v>413.86119343997</v>
+        <v>413.1166465222245</v>
       </c>
       <c r="E193">
-        <v>-0.7445469177454811</v>
+        <v>-1.266745789371555</v>
       </c>
       <c r="F193">
-        <v>0.4409091474000483</v>
+        <v>0.4350160021653082</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B194">
-        <v>407.9048180980064</v>
+        <v>401.7159344178802</v>
       </c>
       <c r="C194">
-        <v>413.1166465222245</v>
+        <v>411.849900732853</v>
       </c>
       <c r="E194">
-        <v>-1.266745789371555</v>
+        <v>-3.055602172389854</v>
       </c>
       <c r="F194">
-        <v>0.4536279577580768</v>
+        <v>0.4446662017609394</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B195">
-        <v>401.7159344178802</v>
+        <v>403.3030798438404</v>
       </c>
       <c r="C195">
-        <v>411.849900732853</v>
+        <v>408.7942985604631</v>
       </c>
       <c r="E195">
-        <v>-3.055602172389854</v>
+        <v>-2.038601678935739</v>
       </c>
       <c r="F195">
-        <v>0.4649026450948076</v>
+        <v>0.4523283257057055</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B196">
-        <v>403.3030798438404</v>
+        <v>406.3276141642008</v>
       </c>
       <c r="C196">
-        <v>408.7942985604631</v>
+        <v>402.6784935236559</v>
       </c>
       <c r="E196">
-        <v>-2.038601678935739</v>
+        <v>-0.4135375673769772</v>
       </c>
       <c r="F196">
-        <v>0.471621747592286</v>
+        <v>0.4474241502632391</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B197">
-        <v>406.3276141642008</v>
+        <v>408.8530756322428</v>
       </c>
       <c r="C197">
-        <v>402.6784935236559</v>
+        <v>402.2649559562789</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>-0.4135375673769772</v>
+        <v>1.473592264089234</v>
       </c>
       <c r="F197">
-        <v>0.462613288850509</v>
+        <v>0.4123116801454489</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B198">
-        <v>408.8530756322428</v>
+        <v>414.0536940689925</v>
       </c>
       <c r="C198">
-        <v>402.2649559562789</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
+        <v>403.7385482203682</v>
       </c>
       <c r="E198">
-        <v>1.473592264089234</v>
+        <v>1.784604396955615</v>
       </c>
       <c r="F198">
-        <v>0.4249562038648991</v>
+        <v>0.3668795436018615</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B199">
-        <v>414.0536940689925</v>
+        <v>419.7999877929688</v>
       </c>
       <c r="C199">
-        <v>403.7385482203682</v>
+        <v>405.5231526173238</v>
       </c>
       <c r="E199">
-        <v>1.784604396955615</v>
+        <v>3.57001902696021</v>
       </c>
       <c r="F199">
-        <v>0.3832100761325292</v>
+        <v>0.3248862987655874</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B200">
-        <v>419.7999877929688</v>
+        <v>420.6000061035156</v>
       </c>
       <c r="C200">
-        <v>405.5231526173238</v>
+        <v>409.093171644284</v>
       </c>
       <c r="E200">
-        <v>3.57001902696021</v>
+        <v>1.345011788135764</v>
       </c>
       <c r="F200">
-        <v>0.3473839918677238</v>
+        <v>0.2904471529955955</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B201">
-        <v>420.6000061035156</v>
+        <v>418.9599914550781</v>
       </c>
       <c r="C201">
-        <v>409.093171644284</v>
+        <v>413.1282070086913</v>
       </c>
       <c r="E201">
-        <v>1.345011788135764</v>
+        <v>2.628133194741622</v>
       </c>
       <c r="F201">
-        <v>0.3171869648387373</v>
+        <v>0.274127988612593</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B202">
-        <v>418.9599914550781</v>
+        <v>421.7000122070312</v>
       </c>
       <c r="C202">
-        <v>413.1282070086913</v>
+        <v>415.7563402034329</v>
       </c>
       <c r="E202">
-        <v>2.628133194741622</v>
+        <v>1.040455796104084</v>
       </c>
       <c r="F202">
-        <v>0.3057497340149365</v>
+        <v>0.2862921810186791</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B203">
-        <v>421.7000122070312</v>
+        <v>424.0799865722656</v>
       </c>
       <c r="C203">
-        <v>415.7563402034329</v>
+        <v>416.796795999537</v>
       </c>
       <c r="E203">
-        <v>1.040455796104084</v>
+        <v>0.8403543724472797</v>
       </c>
       <c r="F203">
-        <v>0.3219192637189411</v>
+        <v>0.3218651973571352</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B204">
-        <v>424.0799865722656</v>
+        <v>424.3599853515625</v>
       </c>
       <c r="C204">
-        <v>416.796795999537</v>
+        <v>417.6371503719843</v>
       </c>
       <c r="E204">
-        <v>0.8403543724472797</v>
+        <v>1.183599646903019</v>
       </c>
       <c r="F204">
-        <v>0.3638314447290835</v>
+        <v>0.371136648054059</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B205">
-        <v>424.3599853515625</v>
+        <v>416.9800109863281</v>
       </c>
       <c r="C205">
-        <v>417.6371503719843</v>
+        <v>418.8207500188873</v>
       </c>
       <c r="E205">
-        <v>1.183599646903019</v>
+        <v>0.5383208409884711</v>
       </c>
       <c r="F205">
-        <v>0.4111386238374271</v>
+        <v>0.4265063406802866</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B206">
-        <v>416.9800109863281</v>
+        <v>416.3699951171875</v>
       </c>
       <c r="C206">
-        <v>418.8207500188873</v>
+        <v>420.4357125418527</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.5383208409884711</v>
+        <v>-1.105717250279042</v>
       </c>
       <c r="F206">
-        <v>0.4633294810480557</v>
+        <v>0.4888659289212508</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>45530</v>
+        <v>45531</v>
       </c>
       <c r="B207">
-        <v>416.3699951171875</v>
+        <v>412.8599853515625</v>
       </c>
       <c r="C207">
-        <v>420.4357125418527</v>
-      </c>
-      <c r="D207" t="s">
-        <v>6</v>
+        <v>419.3299952915737</v>
       </c>
       <c r="E207">
-        <v>-1.105717250279042</v>
+        <v>-0.556248801095137</v>
       </c>
       <c r="F207">
-        <v>0.5224604193714201</v>
+        <v>0.5634186661494444</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B208">
-        <v>412.8599853515625</v>
+        <v>414.8800048828125</v>
       </c>
       <c r="C208">
-        <v>419.3299952915737</v>
+        <v>418.7737464904785</v>
       </c>
       <c r="E208">
-        <v>-0.556248801095137</v>
+        <v>-0.4259715610080548</v>
       </c>
       <c r="F208">
-        <v>0.5865402411064291</v>
+        <v>0.6224624326283993</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B209">
-        <v>414.8800048828125</v>
+        <v>414.9400024414062</v>
       </c>
       <c r="C209">
-        <v>418.7737464904785</v>
+        <v>418.3477749294705</v>
       </c>
       <c r="E209">
-        <v>-0.4259715610080548</v>
+        <v>-0.3733317057291288</v>
       </c>
       <c r="F209">
-        <v>0.6296094872057939</v>
+        <v>0.6620434805378846</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B210">
-        <v>414.9400024414062</v>
+        <v>415.6000061035156</v>
       </c>
       <c r="C210">
-        <v>418.3477749294705</v>
+        <v>417.9744432237413</v>
       </c>
       <c r="E210">
-        <v>-0.3733317057291288</v>
+        <v>-0.6369442409939268</v>
       </c>
       <c r="F210">
-        <v>0.656284448682943</v>
+        <v>0.6840443875490742</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>45534</v>
+        <v>45538</v>
       </c>
       <c r="B211">
-        <v>415.6000061035156</v>
+        <v>417.9100036621094</v>
       </c>
       <c r="C211">
-        <v>417.9744432237413</v>
+        <v>415.4266662597656</v>
       </c>
       <c r="E211">
-        <v>-0.6369442409939268</v>
+        <v>-1.359523228236583</v>
       </c>
       <c r="F211">
-        <v>0.6699509107474788</v>
+        <v>0.6933165115128875</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B212">
-        <v>417.9100036621094</v>
+        <v>405.9100036621094</v>
       </c>
       <c r="C212">
-        <v>415.4266662597656</v>
+        <v>414.067143031529</v>
       </c>
       <c r="E212">
-        <v>-1.359523228236583</v>
+        <v>-0.8058934892927141</v>
       </c>
       <c r="F212">
-        <v>0.6666198789604444</v>
+        <v>0.6695712690637171</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B213">
-        <v>405.9100036621094</v>
+        <v>407.6199951171875</v>
       </c>
       <c r="C213">
-        <v>414.067143031529</v>
+        <v>413.2612495422363</v>
       </c>
       <c r="E213">
-        <v>-0.8058934892927141</v>
+        <v>-0.9137496948242188</v>
       </c>
       <c r="F213">
-        <v>0.6268006150730641</v>
+        <v>0.6147477751792305</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B214">
-        <v>407.6199951171875</v>
+        <v>409.0599975585938</v>
       </c>
       <c r="C214">
-        <v>413.2612495422363</v>
+        <v>412.3474998474121</v>
       </c>
       <c r="E214">
-        <v>-0.9137496948242188</v>
+        <v>-0.5969445970323287</v>
       </c>
       <c r="F214">
-        <v>0.5598224835706581</v>
+        <v>0.5344804500585141</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B215">
-        <v>409.0599975585938</v>
+        <v>407.239990234375</v>
       </c>
       <c r="C215">
-        <v>412.3474998474121</v>
+        <v>410.5566660563151</v>
       </c>
       <c r="E215">
-        <v>-0.5969445970323287</v>
+        <v>-1.233332316080748</v>
       </c>
       <c r="F215">
-        <v>0.4771785463017403</v>
+        <v>0.436154745178505</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B216">
-        <v>407.239990234375</v>
+        <v>408.2000122070312</v>
       </c>
       <c r="C216">
-        <v>410.5566660563151</v>
+        <v>409.3233337402344</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>-1.233332316080748</v>
+        <v>0.8823808942522078</v>
       </c>
       <c r="F216">
-        <v>0.3737830970347821</v>
+        <v>0.3072078020392264</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="B217">
-        <v>408.2000122070312</v>
+        <v>415.5</v>
       </c>
       <c r="C217">
-        <v>409.3233337402344</v>
-      </c>
-      <c r="D217" t="s">
-        <v>7</v>
+        <v>410.2057146344866</v>
       </c>
       <c r="E217">
-        <v>0.8823808942522078</v>
+        <v>1.638035365513417</v>
       </c>
       <c r="F217">
-        <v>0.2375135982269902</v>
+        <v>0.1400870156792906</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B218">
-        <v>415.5</v>
+        <v>423.3099975585938</v>
       </c>
       <c r="C218">
-        <v>410.2057146344866</v>
+        <v>411.84375</v>
       </c>
       <c r="E218">
-        <v>1.638035365513417</v>
+        <v>1.554026285807311</v>
       </c>
       <c r="F218">
-        <v>0.06326201157402972</v>
+        <v>-0.05462753415159046</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B219">
-        <v>423.3099975585938</v>
+        <v>425.8299865722656</v>
       </c>
       <c r="C219">
-        <v>411.84375</v>
+        <v>413.3977762858073</v>
       </c>
       <c r="E219">
-        <v>1.554026285807311</v>
+        <v>1.235978868272563</v>
       </c>
       <c r="F219">
-        <v>-0.1267780724421496</v>
+        <v>-0.2570947570622191</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B220">
-        <v>425.8299865722656</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="C220">
-        <v>413.3977762858073</v>
+        <v>417.105712890625</v>
       </c>
       <c r="E220">
-        <v>1.235978868272563</v>
+        <v>4.452859061104903</v>
       </c>
       <c r="F220">
-        <v>-0.3223343841503835</v>
+        <v>-0.4642433566419235</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B221">
-        <v>430.6000061035156</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="C221">
-        <v>417.105712890625</v>
+        <v>421.5585719517299</v>
       </c>
       <c r="E221">
-        <v>4.452859061104903</v>
+        <v>1.680178506033769</v>
       </c>
       <c r="F221">
-        <v>-0.5209038404106455</v>
+        <v>-0.6383504108700165</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B222">
-        <v>440.2300109863281</v>
+        <v>435</v>
       </c>
       <c r="C222">
-        <v>421.5585719517299</v>
+        <v>423.2387504577637</v>
       </c>
       <c r="E222">
-        <v>1.680178506033769</v>
+        <v>1.999028947618285</v>
       </c>
       <c r="F222">
-        <v>-0.6819966140944385</v>
+        <v>-0.7546905761950231</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B223">
-        <v>435</v>
+        <v>441.2300109863281</v>
       </c>
       <c r="C223">
-        <v>423.2387504577637</v>
+        <v>425.237779405382</v>
       </c>
       <c r="E223">
-        <v>1.999028947618285</v>
+        <v>3.331112331814211</v>
       </c>
       <c r="F223">
-        <v>-0.78168033473676</v>
+        <v>-0.8404637857418999</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B224">
-        <v>441.2300109863281</v>
+        <v>437.2200012207031</v>
       </c>
       <c r="C224">
-        <v>425.237779405382</v>
+        <v>428.5688917371962</v>
       </c>
       <c r="E224">
-        <v>3.331112331814211</v>
+        <v>2.114655832764962</v>
       </c>
       <c r="F224">
-        <v>-0.851603741962099</v>
+        <v>-0.8936790390435484</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B225">
-        <v>437.2200012207031</v>
+        <v>434.2799987792969</v>
       </c>
       <c r="C225">
-        <v>428.5688917371962</v>
+        <v>434.9128592354911</v>
       </c>
       <c r="E225">
-        <v>2.114655832764962</v>
+        <v>1.024287632533515</v>
       </c>
       <c r="F225">
-        <v>-0.8910204500866413</v>
+        <v>-0.907540575076609</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B226">
-        <v>434.2799987792969</v>
+        <v>433</v>
       </c>
       <c r="C226">
-        <v>434.9128592354911</v>
+        <v>435.9371468680246</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>1.024287632533515</v>
+        <v>-0.7633950369698823</v>
       </c>
       <c r="F226">
-        <v>-0.890403417748837</v>
+        <v>-0.8663595739452959</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B227">
-        <v>433</v>
+        <v>429.8299865722656</v>
       </c>
       <c r="C227">
-        <v>435.9371468680246</v>
-      </c>
-      <c r="D227" t="s">
-        <v>6</v>
+        <v>435.1737518310547</v>
       </c>
       <c r="E227">
-        <v>-0.7633950369698823</v>
+        <v>-0.009306165907105424</v>
       </c>
       <c r="F227">
-        <v>-0.8516114459691561</v>
+        <v>-0.8043180966521736</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B228">
-        <v>429.8299865722656</v>
+        <v>435.0899963378906</v>
       </c>
       <c r="C228">
-        <v>435.1737518310547</v>
+        <v>435.1644456651476</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>-0.009306165907105424</v>
+        <v>0.1022203233507071</v>
       </c>
       <c r="F228">
-        <v>-0.790820756990516</v>
+        <v>-0.7270508254339749</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B229">
-        <v>435.0899963378906</v>
+        <v>431.5199890136719</v>
       </c>
       <c r="C229">
-        <v>435.1644456651476</v>
+        <v>435.2666659884983</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>0.1022203233507071</v>
+        <v>-0.8436523114562723</v>
       </c>
       <c r="F229">
-        <v>-0.7150088966637649</v>
+        <v>-0.6290490491357298</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B230">
-        <v>431.5199890136719</v>
+        <v>428.2099914550781</v>
       </c>
       <c r="C230">
-        <v>435.2666659884983</v>
-      </c>
-      <c r="D230" t="s">
-        <v>6</v>
+        <v>432.7357090541295</v>
       </c>
       <c r="E230">
-        <v>-0.8436523114562723</v>
+        <v>-1.25285557338168</v>
       </c>
       <c r="F230">
-        <v>-0.622929634986286</v>
+        <v>-0.5051570529984665</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B231">
-        <v>428.2099914550781</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="C231">
-        <v>432.7357090541295</v>
+        <v>431.4828534807478</v>
       </c>
       <c r="E231">
-        <v>-1.25285557338168</v>
+        <v>-1.112858363560292</v>
       </c>
       <c r="F231">
-        <v>-0.5157960211073997</v>
+        <v>-0.364872664273874</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B232">
-        <v>428.4500122070312</v>
+        <v>422.5799865722656</v>
       </c>
       <c r="C232">
-        <v>431.4828534807478</v>
+        <v>430.3699951171875</v>
       </c>
       <c r="E232">
-        <v>-1.112858363560292</v>
+        <v>-1.415554470486086</v>
       </c>
       <c r="F232">
-        <v>-0.3918360892250135</v>
+        <v>-0.199663444072141</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B233">
-        <v>422.5799865722656</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="C233">
-        <v>430.3699951171875</v>
+        <v>428.9544406467014</v>
       </c>
       <c r="E233">
-        <v>-1.415554470486086</v>
+        <v>-1.782223171658018</v>
       </c>
       <c r="F233">
-        <v>-0.2309114164045396</v>
+        <v>0.004840088235651041</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B234">
-        <v>417.6300048828125</v>
+        <v>418.239990234375</v>
       </c>
       <c r="C234">
-        <v>428.9544406467014</v>
+        <v>427.1722174750434</v>
       </c>
       <c r="E234">
-        <v>-1.782223171658018</v>
+        <v>-1.313121331431868</v>
       </c>
       <c r="F234">
-        <v>-0.03698321790185072</v>
+        <v>0.2474016305866509</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B235">
-        <v>418.239990234375</v>
+        <v>416</v>
       </c>
       <c r="C235">
-        <v>427.1722174750434</v>
+        <v>423.2328534807478</v>
       </c>
       <c r="E235">
-        <v>-1.313121331431868</v>
+        <v>-2.945713588169667</v>
       </c>
       <c r="F235">
-        <v>0.2090151434397767</v>
+        <v>0.520310431077925</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B236">
-        <v>416</v>
+        <v>410.8999938964844</v>
       </c>
       <c r="C236">
-        <v>423.2328534807478</v>
+        <v>420.2871398925781</v>
       </c>
       <c r="E236">
-        <v>-2.945713588169667</v>
+        <v>-0.5533943176269531</v>
       </c>
       <c r="F236">
-        <v>0.4918981316585961</v>
+        <v>0.6949972783086302</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B237">
-        <v>410.8999938964844</v>
+        <v>415.8599853515625</v>
       </c>
       <c r="C237">
-        <v>420.2871398925781</v>
+        <v>419.7337455749512</v>
       </c>
       <c r="E237">
-        <v>-0.5533943176269531</v>
+        <v>-0.5004149542914433</v>
       </c>
       <c r="F237">
-        <v>0.6852259078139068</v>
+        <v>0.7828773728599484</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B238">
-        <v>415.8599853515625</v>
+        <v>415.2300109863281</v>
       </c>
       <c r="C238">
-        <v>419.7337455749512</v>
+        <v>419.2333306206597</v>
       </c>
       <c r="E238">
-        <v>-0.5004149542914433</v>
+        <v>-1.341108534071168</v>
       </c>
       <c r="F238">
-        <v>0.7795335648816191</v>
+        <v>0.8570233627151677</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B239">
-        <v>415.2300109863281</v>
+        <v>416.1400146484375</v>
       </c>
       <c r="C239">
-        <v>419.2333306206597</v>
+        <v>417.8922220865886</v>
       </c>
       <c r="E239">
-        <v>-1.341108534071168</v>
+        <v>-0.7193128797743119</v>
       </c>
       <c r="F239">
-        <v>0.8588914232819245</v>
+        <v>0.9203040136666939</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B240">
-        <v>416.1400146484375</v>
+        <v>417.7699890136719</v>
       </c>
       <c r="C240">
-        <v>417.8922220865886</v>
+        <v>415.7342834472656</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>-0.7193128797743119</v>
+        <v>0.5628574916294724</v>
       </c>
       <c r="F240">
-        <v>0.9262190826576983</v>
+        <v>0.9570555875855145</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B241">
-        <v>417.7699890136719</v>
+        <v>422.1799926757812</v>
       </c>
       <c r="C241">
-        <v>415.7342834472656</v>
+        <v>416.2971409388951</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>0.5628574916294724</v>
+        <v>-0.1408909388950974</v>
       </c>
       <c r="F241">
-        <v>0.9711456069397011</v>
+        <v>0.9668025101530203</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B242">
-        <v>422.1799926757812</v>
+        <v>415.1700134277344</v>
       </c>
       <c r="C242">
-        <v>416.2971409388951</v>
+        <v>416.15625</v>
       </c>
       <c r="D242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>-0.1408909388950974</v>
+        <v>0.6893039279514142</v>
       </c>
       <c r="F242">
-        <v>0.9885872940184461</v>
+        <v>0.9839096894467637</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B243">
-        <v>415.1700134277344</v>
+        <v>422.3599853515625</v>
       </c>
       <c r="C243">
-        <v>416.15625</v>
-      </c>
-      <c r="D243" t="s">
-        <v>7</v>
+        <v>416.8455539279514</v>
       </c>
       <c r="E243">
-        <v>0.6893039279514142</v>
+        <v>0.1266682942708144</v>
       </c>
       <c r="F243">
-        <v>0.9859752072948298</v>
+        <v>0.9736203398509056</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B244">
-        <v>422.3599853515625</v>
+        <v>417.1400146484375</v>
       </c>
       <c r="C244">
-        <v>416.8455539279514</v>
+        <v>416.9722222222222</v>
       </c>
       <c r="E244">
-        <v>0.1266682942708144</v>
+        <v>0.3844975870122387</v>
       </c>
       <c r="F244">
-        <v>0.9777634780772392</v>
+        <v>0.9527348651735515</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B245">
-        <v>417.1400146484375</v>
+        <v>416.1199951171875</v>
       </c>
       <c r="C245">
-        <v>416.9722222222222</v>
+        <v>418.1257149832589</v>
       </c>
       <c r="E245">
-        <v>0.3844975870122387</v>
+        <v>0.3357107979910552</v>
       </c>
       <c r="F245">
-        <v>0.975841461026556</v>
+        <v>0.93028155561059</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B246">
-        <v>416.1199951171875</v>
+        <v>418.489990234375</v>
       </c>
       <c r="C246">
-        <v>418.1257149832589</v>
+        <v>418.46142578125</v>
       </c>
       <c r="E246">
-        <v>0.3357107979910552</v>
+        <v>1.549819946289062</v>
       </c>
       <c r="F246">
-        <v>0.988724722094025</v>
+        <v>0.9740067839960893</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B247">
-        <v>418.489990234375</v>
+        <v>430.8599853515625</v>
       </c>
       <c r="C247">
-        <v>418.46142578125</v>
+        <v>420.0112457275391</v>
       </c>
       <c r="E247">
-        <v>1.549819946289062</v>
+        <v>0.5909712049696054</v>
       </c>
       <c r="F247">
-        <v>0.9852697959972085</v>
+        <v>0.9495909875482368</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B248">
-        <v>430.8599853515625</v>
+        <v>425.3299865722656</v>
       </c>
       <c r="C248">
-        <v>420.0112457275391</v>
+        <v>420.6022169325087</v>
       </c>
       <c r="E248">
-        <v>0.5909712049696054</v>
+        <v>0.9988911946614962</v>
       </c>
       <c r="F248">
-        <v>0.9921659850980713</v>
+        <v>0.9289030577411682</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B249">
-        <v>425.3299865722656</v>
+        <v>426.760009765625</v>
       </c>
       <c r="C249">
-        <v>420.6022169325087</v>
+        <v>421.6011081271702</v>
       </c>
       <c r="E249">
-        <v>0.9988911946614962</v>
+        <v>0.7215346886367229</v>
       </c>
       <c r="F249">
-        <v>0.9960059169114828</v>
+        <v>0.8891303466603845</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B250">
-        <v>426.760009765625</v>
+        <v>431.6600036621094</v>
       </c>
       <c r="C250">
-        <v>421.6011081271702</v>
+        <v>423.7657121930803</v>
       </c>
       <c r="E250">
-        <v>0.7215346886367229</v>
+        <v>1.551426478794667</v>
       </c>
       <c r="F250">
-        <v>0.947172501330414</v>
+        <v>0.7784820752934503</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B251">
-        <v>431.6600036621094</v>
+        <v>428</v>
       </c>
       <c r="C251">
-        <v>423.7657121930803</v>
+        <v>425.317138671875</v>
       </c>
       <c r="E251">
-        <v>1.551426478794667</v>
+        <v>1.515357971191406</v>
       </c>
       <c r="F251">
-        <v>0.9250039938621878</v>
+        <v>0.3104530926832746</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B252">
-        <v>428</v>
+        <v>437.4400024414062</v>
       </c>
       <c r="C252">
-        <v>425.317138671875</v>
+        <v>426.8324966430664</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>1.515357971191406</v>
+        <v>-1.274723476833742</v>
       </c>
       <c r="F252">
-        <v>0.9999999998689525</v>
+        <v>-1.000000000003218</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B253">
-        <v>437.4400024414062</v>
+        <v>415.3599853515625</v>
       </c>
       <c r="C253">
-        <v>426.8324966430664</v>
+        <v>425.5577731662327</v>
       </c>
     </row>
   </sheetData>
